--- a/analysis/Pfizer v. Moderna mortality by age.xlsx
+++ b/analysis/Pfizer v. Moderna mortality by age.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\truenas\backups\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\Czech\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69BC58E-41C2-4097-992C-93241228DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24718F0-F936-40D9-AC8C-159098EAFB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Combined but skip Jan Feb" sheetId="10" r:id="rId1"/>
-    <sheet name="Combined Pfizer Moderna deaths " sheetId="1" r:id="rId2"/>
-    <sheet name="Pfizer_skip2_months" sheetId="8" r:id="rId3"/>
-    <sheet name="Moderna_skip2" sheetId="9" r:id="rId4"/>
-    <sheet name="todo" sheetId="7" r:id="rId5"/>
+    <sheet name="Notes" sheetId="7" r:id="rId1"/>
+    <sheet name="Combined but skip Jan Feb" sheetId="10" r:id="rId2"/>
+    <sheet name="Combined Pfizer Moderna deaths " sheetId="1" r:id="rId3"/>
+    <sheet name="Pfizer_skip2_months" sheetId="8" r:id="rId4"/>
+    <sheet name="Moderna_skip2" sheetId="9" r:id="rId5"/>
     <sheet name="Dose 2 admin per month" sheetId="2" r:id="rId6"/>
     <sheet name="Pfizer_d2_y21_stats" sheetId="5" r:id="rId7"/>
     <sheet name="Moderna_d2_y21_stats" sheetId="6" r:id="rId8"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>Pfizer</t>
   </si>
@@ -189,15 +189,6 @@
     <t>this just shows number of vaccinations given for that birth year per month</t>
   </si>
   <si>
-    <t>will recompute mortality by ignoring those vaxxed in Jan and Feb</t>
-  </si>
-  <si>
-    <t>Moderna got a late start</t>
-  </si>
-  <si>
-    <t>so this nullifies that by tracking both vaccines after they are up and running</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -211,6 +202,64 @@
   </si>
   <si>
     <t>&lt;54 yr old</t>
+  </si>
+  <si>
+    <t>Because Moderna was rolled out in Feb 2021, I recomputed mortality by ignoring those vaxxed in Jan and Feb</t>
+  </si>
+  <si>
+    <t>There was no noticeable difference in the outcome.</t>
+  </si>
+  <si>
+    <t>There is a really interesting simpson's paradox due to ratios. For each individual age, the MRR (mortality rate ratio) rarely go above 2.25. Yet when you divide the CMR for Moderna/Pfizer, you get 2.25.</t>
+  </si>
+  <si>
+    <t>You can see this in the calculation on the Combined but skip tab at the bottom.</t>
+  </si>
+  <si>
+    <t>So even if Pfizer is as safe as saline (which it isn't which we have to prove in other ways), the ratios of the absolute CMRs for the entire cohort, as well as each age, shows Moderna is NOT safe.</t>
+  </si>
+  <si>
+    <t>People who decide to get vaxxed have a much lower CMR in general than those who choose to be unvaxxed.</t>
+  </si>
+  <si>
+    <t>It is because they make healthier lifestyle choices or have a higher socio-economic status.</t>
+  </si>
+  <si>
+    <t>You should never assume that CMR of unvaxxed == CMR of vaccine placebo. That is a rookie mistake.</t>
+  </si>
+  <si>
+    <t>The key result here is we calculated the ratio of the the ABSOLUTE CMR of people who got Moderna vs Pfizer and the ratio was 2.25.</t>
+  </si>
+  <si>
+    <t>And as shown on the graphs here, for each age in the range 20 to 92 (using rolling 5 yr avg),  the mortality ratio Moderna/Pfizer was at least 12% or more which is a DISASTER (with just one exception where it was 7% higher)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To put this into perspective, heart causes a 20% increase in CMR. So Moderna is about 60% of heart attack risk being added. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THAT IS NOT A SAFE VACCINE. THAT IS AN INSANCE AMOUNT OF ABSOLUTE RISK INCREASE.</t>
+    </r>
+  </si>
+  <si>
+    <t>NB: Whether  Pfizer is safe as saline, requires different methods to prove since Pfizer was our control group. So we have to do the same computation using absolute CMR numbers for flu shot vs. Pfizer shot.</t>
+  </si>
+  <si>
+    <t>That CMR difference is NOT due to the vaccine lowering their CMR which is what everyone assumes.</t>
+  </si>
+  <si>
+    <t>A Simpson's paradox example here that really surprised us</t>
+  </si>
+  <si>
+    <t>But of course our result isn't a simpson's paradox because we computed the CMR ratios by single digit age groups and five year brackets and plotted it.</t>
   </si>
 </sst>
 </file>
@@ -6599,11 +6648,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15671F1-4E75-42C6-AF9E-79B16FFFF620}">
+  <dimension ref="A2:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F430EF45-2729-4C48-96C0-97D857084911}">
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="T113" sqref="T113"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23:P95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6627,10 +6766,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -6642,10 +6781,10 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
         <v>7</v>
@@ -9666,7 +9805,7 @@
         <v>55</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D108" si="7">C72/B72</f>
+        <f t="shared" ref="D72:D107" si="7">C72/B72</f>
         <v>6.7798281621734896E-4</v>
       </c>
       <c r="E72">
@@ -11092,7 +11231,7 @@
         <v>2.2534916329536414</v>
       </c>
       <c r="O108" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
@@ -11102,7 +11241,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B111">
         <f>SUM(B3:B61)</f>
@@ -11135,7 +11274,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B112">
         <f>SUM(B62:B107)</f>
@@ -11202,7 +11341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U110"/>
   <sheetViews>
@@ -15008,7 +15147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F996E3EF-2329-48BF-B64F-019EA0A25E41}">
   <dimension ref="A1:O104"/>
   <sheetViews>
@@ -19911,7 +20050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030830FF-CB6C-4F7A-8860-7D66AA66561D}">
   <dimension ref="A1:O96"/>
   <sheetViews>
@@ -24431,36 +24570,6 @@
       </c>
       <c r="O96">
         <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15671F1-4E75-42C6-AF9E-79B16FFFF620}">
-  <dimension ref="A2:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Pfizer v. Moderna mortality by age.xlsx
+++ b/analysis/Pfizer v. Moderna mortality by age.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\Czech\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24718F0-F936-40D9-AC8C-159098EAFB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E4AAC9-1FCC-4C8A-8AF9-5BFFB82834AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="7" r:id="rId1"/>
-    <sheet name="Combined but skip Jan Feb" sheetId="10" r:id="rId2"/>
-    <sheet name="Combined Pfizer Moderna deaths " sheetId="1" r:id="rId3"/>
+    <sheet name="Combined Pfizer Moderna deaths " sheetId="1" r:id="rId2"/>
+    <sheet name="Combined but skip Jan Feb" sheetId="10" r:id="rId3"/>
     <sheet name="Pfizer_skip2_months" sheetId="8" r:id="rId4"/>
     <sheet name="Moderna_skip2" sheetId="9" r:id="rId5"/>
     <sheet name="Dose 2 admin per month" sheetId="2" r:id="rId6"/>
@@ -913,243 +913,243 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Combined but skip Jan Feb'!$P$16:$P$93</c:f>
+              <c:f>'Combined Pfizer Moderna deaths '!$P$16:$P$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>1.067871373253269</c:v>
+                  <c:v>1.029855365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.081314431153932</c:v>
+                  <c:v>1.0870597310000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0533722475871234</c:v>
+                  <c:v>1.077646629</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0632259033218219</c:v>
+                  <c:v>1.1020783519999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0746753825671425</c:v>
+                  <c:v>1.1092237190000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.102464784735701</c:v>
+                  <c:v>1.1424291200000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0867438575347184</c:v>
+                  <c:v>1.139148498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1181645281443251</c:v>
+                  <c:v>1.172062369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1403019468164268</c:v>
+                  <c:v>1.1978689819999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1381767716943714</c:v>
+                  <c:v>1.2132181129999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1725311454428144</c:v>
+                  <c:v>1.25472333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2217581851885659</c:v>
+                  <c:v>1.2933405520000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2292677792829725</c:v>
+                  <c:v>1.316379575</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2093181519011573</c:v>
+                  <c:v>1.299722123</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2188279385151786</c:v>
+                  <c:v>1.3069992500000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2336970735326298</c:v>
+                  <c:v>1.3172267609999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2410842477148805</c:v>
+                  <c:v>1.2888998380000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2289142744007555</c:v>
+                  <c:v>1.237132576</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2306012228595</c:v>
+                  <c:v>1.2206789760000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2241879410272636</c:v>
+                  <c:v>1.205437098</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.199321447646176</c:v>
+                  <c:v>1.181291608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1821582339904428</c:v>
+                  <c:v>1.1688982729999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2025678377719324</c:v>
+                  <c:v>1.194459489</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2092489186302906</c:v>
+                  <c:v>1.1994278810000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2167889483844623</c:v>
+                  <c:v>1.204167497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2469195790334824</c:v>
+                  <c:v>1.23144823</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2679215699643558</c:v>
+                  <c:v>1.2550613180000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3171531838668709</c:v>
+                  <c:v>1.31192438</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3863422015268756</c:v>
+                  <c:v>1.392093349</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4468725612224151</c:v>
+                  <c:v>1.4681226510000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4962904174853404</c:v>
+                  <c:v>1.5227390519999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.512719571633041</c:v>
+                  <c:v>1.550207479</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5070482554822255</c:v>
+                  <c:v>1.539995902</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5206665074840682</c:v>
+                  <c:v>1.5404749010000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5505078767662857</c:v>
+                  <c:v>1.567880181</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5167263298978868</c:v>
+                  <c:v>1.5402607559999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.53260119166885</c:v>
+                  <c:v>1.548177237</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5398189608717736</c:v>
+                  <c:v>1.5748290659999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5302517101426343</c:v>
+                  <c:v>1.5664785560000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5244625457124397</c:v>
+                  <c:v>1.5421229830000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5318709540376927</c:v>
+                  <c:v>1.546739273</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5489199406932783</c:v>
+                  <c:v>1.580507648</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4832391170121444</c:v>
+                  <c:v>1.496309219</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.490004135189906</c:v>
+                  <c:v>1.4983117290000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5207629719587816</c:v>
+                  <c:v>1.534467649</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4764359351988219</c:v>
+                  <c:v>1.49520802</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.5170086366693272</c:v>
+                  <c:v>1.5166564920000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6954612888454434</c:v>
+                  <c:v>1.7013731590000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.604209250724363</c:v>
+                  <c:v>1.632423717</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6283613150223033</c:v>
+                  <c:v>1.6748331809999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6631597061936743</c:v>
+                  <c:v>1.7049892639999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5831123552223427</c:v>
+                  <c:v>1.6321544910000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5154811994588384</c:v>
+                  <c:v>1.5578908520000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.504657518199686</c:v>
+                  <c:v>1.535726033</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2618872372650205</c:v>
+                  <c:v>1.273209576</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2603019656106256</c:v>
+                  <c:v>1.2742863639999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2837811679693383</c:v>
+                  <c:v>1.2929771299999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2881228670511726</c:v>
+                  <c:v>1.286493543</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.259111971386937</c:v>
+                  <c:v>1.2521285520000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.4251006872391567</c:v>
+                  <c:v>1.4575255659999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.4145948075137627</c:v>
+                  <c:v>1.4505955859999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2293938463205167</c:v>
+                  <c:v>1.2823584109999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0707498317778883</c:v>
+                  <c:v>1.125169831</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1333201482929252</c:v>
+                  <c:v>1.1836120050000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2234353417833386</c:v>
+                  <c:v>1.2158482100000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4868395965988039</c:v>
+                  <c:v>1.452773334</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5476007190144945</c:v>
+                  <c:v>1.5096006200000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.4551748027722577</c:v>
+                  <c:v>1.421883373</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.488086995638483</c:v>
+                  <c:v>1.460636051</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.5845407152035995</c:v>
+                  <c:v>1.5461200930000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.4795040182319779</c:v>
+                  <c:v>1.468404955</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.8355513501358303</c:v>
+                  <c:v>1.963856271</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.1301950001941097</c:v>
+                  <c:v>2.3092552120000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.0862010132031394</c:v>
+                  <c:v>2.2302661750000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9695720206377401</c:v>
+                  <c:v>2.0845583159999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.140760632365065</c:v>
+                  <c:v>2.2459815999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.8113932738503775</c:v>
+                  <c:v>1.7517905579999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.5946604382278509</c:v>
+                  <c:v>1.537476388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,7 +1157,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE4E-49A5-8F04-5122D0593F88}"/>
+              <c16:uniqueId val="{00000000-12F5-4C71-AE5F-F9B23E1187AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1422,243 +1422,243 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Combined but skip Jan Feb'!$M$16:$M$93</c:f>
+              <c:f>'Combined Pfizer Moderna deaths '!$M$16:$M$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>1.068125091763324</c:v>
+                  <c:v>1.085443653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1166116611661165</c:v>
+                  <c:v>1.1854893559999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98735242611690066</c:v>
+                  <c:v>1.008158533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.002423533344476</c:v>
+                  <c:v>1.0863134480000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1576725161630823</c:v>
+                  <c:v>1.1577134440000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1491298363195086</c:v>
+                  <c:v>1.208330305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0322275283188005</c:v>
+                  <c:v>1.1452765629999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1491701966771131</c:v>
+                  <c:v>1.1938598410000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1509689826507536</c:v>
+                  <c:v>1.245080253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1307300996565337</c:v>
+                  <c:v>1.23079041</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3013155314269773</c:v>
+                  <c:v>1.3946303799999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2882497863783586</c:v>
+                  <c:v>1.3410051940000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1868770847819734</c:v>
+                  <c:v>1.3025709050000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1143859023189497</c:v>
+                  <c:v>1.218217919</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1878037397421544</c:v>
+                  <c:v>1.270609254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3409966031114253</c:v>
+                  <c:v>1.414099931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3519767615696878</c:v>
+                  <c:v>1.308013257</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1710196899249892</c:v>
+                  <c:v>1.1300088829999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.169604979244983</c:v>
+                  <c:v>1.1708390120000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.162630643438058</c:v>
+                  <c:v>1.152875257</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1470177079523147</c:v>
+                  <c:v>1.1499400630000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2421141061315011</c:v>
+                  <c:v>1.2233183080000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2584165127633742</c:v>
+                  <c:v>1.2424856870000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1901375652725701</c:v>
+                  <c:v>1.1834916879999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1809758247897382</c:v>
+                  <c:v>1.1555528159999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3282359623268731</c:v>
+                  <c:v>1.318685439</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3614648798211313</c:v>
+                  <c:v>1.355240596</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5199821595688709</c:v>
+                  <c:v>1.5525512159999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5326952570631502</c:v>
+                  <c:v>1.599770017</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4102916244021702</c:v>
+                  <c:v>1.4600037619999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6199384721370405</c:v>
+                  <c:v>1.619142729</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4178393594455094</c:v>
+                  <c:v>1.448121059</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.4823075865549837</c:v>
+                  <c:v>1.474170414</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6742397991440521</c:v>
+                  <c:v>1.6880516780000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.525902077965513</c:v>
+                  <c:v>1.59142845</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5238002877461498</c:v>
+                  <c:v>1.549488177</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4388927328349621</c:v>
+                  <c:v>1.428001364</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.473372774293517</c:v>
+                  <c:v>1.5616813490000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7042483031586253</c:v>
+                  <c:v>1.710192623</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4849674072103232</c:v>
+                  <c:v>1.4613869770000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5736230594197105</c:v>
+                  <c:v>1.586429181</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5219004927850559</c:v>
+                  <c:v>1.6006123750000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0855099235901398</c:v>
+                  <c:v>1.0915763629999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8513748943431734</c:v>
+                  <c:v>1.8153026809999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.6467025303845386</c:v>
+                  <c:v>1.630841427</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2820550086148428</c:v>
+                  <c:v>1.3274699590000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7912378214050253</c:v>
+                  <c:v>1.7844690969999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.9013422652276395</c:v>
+                  <c:v>1.9643675780000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4167814317938976</c:v>
+                  <c:v>1.4907514879999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8129618510067651</c:v>
+                  <c:v>1.877294797</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2348153821570065</c:v>
+                  <c:v>1.2412972250000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4094982078853047</c:v>
+                  <c:v>1.421769767</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.6493646484912863</c:v>
+                  <c:v>1.6847600819999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2922184929850025</c:v>
+                  <c:v>1.312964115</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.64805067003057903</c:v>
+                  <c:v>0.64450864100000005</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2058820000445656</c:v>
+                  <c:v>1.225825959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.7905476617464477</c:v>
+                  <c:v>1.744722952</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0093345300679575</c:v>
+                  <c:v>1.9591722</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0813893579872342</c:v>
+                  <c:v>1.0854842790000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0357480271201511</c:v>
+                  <c:v>1.2749876090000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0019580647793098</c:v>
+                  <c:v>1.025881813</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.74990344366851436</c:v>
+                  <c:v>0.76719338299999995</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5565707964601769</c:v>
+                  <c:v>1.453390851</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.5597569060773482</c:v>
+                  <c:v>1.473429952</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4606553147574819</c:v>
+                  <c:v>1.4910842040000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.2659083088488314</c:v>
+                  <c:v>2.161663597</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.91603609547569464</c:v>
+                  <c:v>0.93757395399999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.87676362134996222</c:v>
+                  <c:v>0.77994599899999995</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.0998137038746174</c:v>
+                  <c:v>1.9801758</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8451442693026983</c:v>
+                  <c:v>1.8960645249999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.0423857462448067</c:v>
+                  <c:v>2.0947050890000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.289150412603151</c:v>
+                  <c:v>3.1161490679999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.5234193222053616</c:v>
+                  <c:v>2.5704299719999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7667192705593546</c:v>
+                  <c:v>1.583461657</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3383006881948121</c:v>
+                  <c:v>1.285451197</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.8579966044142613</c:v>
+                  <c:v>2.874132484</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.726554494957666</c:v>
+                  <c:v>0.69551997499999996</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1060221870047544</c:v>
+                  <c:v>1.107674051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,7 +1666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F38-41E1-B20F-E2A05695966B}"/>
+              <c16:uniqueId val="{00000000-B6C0-47EA-AB98-9148E349470C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1931,243 +1931,243 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Combined Pfizer Moderna deaths '!$P$16:$P$93</c:f>
+              <c:f>'Combined but skip Jan Feb'!$P$16:$P$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>1.029855365</c:v>
+                  <c:v>1.067871373253269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0870597310000001</c:v>
+                  <c:v>1.081314431153932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.077646629</c:v>
+                  <c:v>1.0533722475871234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1020783519999999</c:v>
+                  <c:v>1.0632259033218219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1092237190000001</c:v>
+                  <c:v>1.0746753825671425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1424291200000001</c:v>
+                  <c:v>1.102464784735701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.139148498</c:v>
+                  <c:v>1.0867438575347184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.172062369</c:v>
+                  <c:v>1.1181645281443251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1978689819999999</c:v>
+                  <c:v>1.1403019468164268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2132181129999999</c:v>
+                  <c:v>1.1381767716943714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.25472333</c:v>
+                  <c:v>1.1725311454428144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2933405520000001</c:v>
+                  <c:v>1.2217581851885659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.316379575</c:v>
+                  <c:v>1.2292677792829725</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.299722123</c:v>
+                  <c:v>1.2093181519011573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3069992500000001</c:v>
+                  <c:v>1.2188279385151786</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3172267609999999</c:v>
+                  <c:v>1.2336970735326298</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2888998380000001</c:v>
+                  <c:v>1.2410842477148805</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.237132576</c:v>
+                  <c:v>1.2289142744007555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2206789760000001</c:v>
+                  <c:v>1.2306012228595</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.205437098</c:v>
+                  <c:v>1.2241879410272636</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.181291608</c:v>
+                  <c:v>1.199321447646176</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1688982729999999</c:v>
+                  <c:v>1.1821582339904428</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.194459489</c:v>
+                  <c:v>1.2025678377719324</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1994278810000001</c:v>
+                  <c:v>1.2092489186302906</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.204167497</c:v>
+                  <c:v>1.2167889483844623</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.23144823</c:v>
+                  <c:v>1.2469195790334824</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2550613180000001</c:v>
+                  <c:v>1.2679215699643558</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.31192438</c:v>
+                  <c:v>1.3171531838668709</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.392093349</c:v>
+                  <c:v>1.3863422015268756</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4681226510000001</c:v>
+                  <c:v>1.4468725612224151</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5227390519999999</c:v>
+                  <c:v>1.4962904174853404</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.550207479</c:v>
+                  <c:v>1.512719571633041</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.539995902</c:v>
+                  <c:v>1.5070482554822255</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5404749010000001</c:v>
+                  <c:v>1.5206665074840682</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.567880181</c:v>
+                  <c:v>1.5505078767662857</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5402607559999999</c:v>
+                  <c:v>1.5167263298978868</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.548177237</c:v>
+                  <c:v>1.53260119166885</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5748290659999999</c:v>
+                  <c:v>1.5398189608717736</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5664785560000001</c:v>
+                  <c:v>1.5302517101426343</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5421229830000001</c:v>
+                  <c:v>1.5244625457124397</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.546739273</c:v>
+                  <c:v>1.5318709540376927</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.580507648</c:v>
+                  <c:v>1.5489199406932783</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.496309219</c:v>
+                  <c:v>1.4832391170121444</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4983117290000001</c:v>
+                  <c:v>1.490004135189906</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.534467649</c:v>
+                  <c:v>1.5207629719587816</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.49520802</c:v>
+                  <c:v>1.4764359351988219</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.5166564920000001</c:v>
+                  <c:v>1.5170086366693272</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7013731590000001</c:v>
+                  <c:v>1.6954612888454434</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.632423717</c:v>
+                  <c:v>1.604209250724363</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6748331809999999</c:v>
+                  <c:v>1.6283613150223033</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7049892639999999</c:v>
+                  <c:v>1.6631597061936743</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6321544910000001</c:v>
+                  <c:v>1.5831123552223427</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5578908520000001</c:v>
+                  <c:v>1.5154811994588384</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.535726033</c:v>
+                  <c:v>1.504657518199686</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.273209576</c:v>
+                  <c:v>1.2618872372650205</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2742863639999999</c:v>
+                  <c:v>1.2603019656106256</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2929771299999999</c:v>
+                  <c:v>1.2837811679693383</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.286493543</c:v>
+                  <c:v>1.2881228670511726</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2521285520000001</c:v>
+                  <c:v>1.259111971386937</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.4575255659999999</c:v>
+                  <c:v>1.4251006872391567</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.4505955859999999</c:v>
+                  <c:v>1.4145948075137627</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2823584109999999</c:v>
+                  <c:v>1.2293938463205167</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.125169831</c:v>
+                  <c:v>1.0707498317778883</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1836120050000001</c:v>
+                  <c:v>1.1333201482929252</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2158482100000001</c:v>
+                  <c:v>1.2234353417833386</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.452773334</c:v>
+                  <c:v>1.4868395965988039</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5096006200000001</c:v>
+                  <c:v>1.5476007190144945</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.421883373</c:v>
+                  <c:v>1.4551748027722577</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.460636051</c:v>
+                  <c:v>1.488086995638483</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.5461200930000001</c:v>
+                  <c:v>1.5845407152035995</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.468404955</c:v>
+                  <c:v>1.4795040182319779</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.963856271</c:v>
+                  <c:v>1.8355513501358303</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3092552120000001</c:v>
+                  <c:v>2.1301950001941097</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2302661750000001</c:v>
+                  <c:v>2.0862010132031394</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0845583159999999</c:v>
+                  <c:v>1.9695720206377401</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.2459815999999999</c:v>
+                  <c:v>2.140760632365065</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7517905579999999</c:v>
+                  <c:v>1.8113932738503775</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.537476388</c:v>
+                  <c:v>1.5946604382278509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,7 +2175,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-12F5-4C71-AE5F-F9B23E1187AA}"/>
+              <c16:uniqueId val="{00000000-EE4E-49A5-8F04-5122D0593F88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2440,243 +2440,243 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Combined Pfizer Moderna deaths '!$M$16:$M$93</c:f>
+              <c:f>'Combined but skip Jan Feb'!$M$16:$M$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>1.085443653</c:v>
+                  <c:v>1.068125091763324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1854893559999999</c:v>
+                  <c:v>1.1166116611661165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.008158533</c:v>
+                  <c:v>0.98735242611690066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0863134480000001</c:v>
+                  <c:v>1.002423533344476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1577134440000001</c:v>
+                  <c:v>1.1576725161630823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.208330305</c:v>
+                  <c:v>1.1491298363195086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1452765629999999</c:v>
+                  <c:v>1.0322275283188005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1938598410000001</c:v>
+                  <c:v>1.1491701966771131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.245080253</c:v>
+                  <c:v>1.1509689826507536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.23079041</c:v>
+                  <c:v>1.1307300996565337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3946303799999999</c:v>
+                  <c:v>1.3013155314269773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3410051940000001</c:v>
+                  <c:v>1.2882497863783586</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3025709050000001</c:v>
+                  <c:v>1.1868770847819734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.218217919</c:v>
+                  <c:v>1.1143859023189497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.270609254</c:v>
+                  <c:v>1.1878037397421544</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.414099931</c:v>
+                  <c:v>1.3409966031114253</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.308013257</c:v>
+                  <c:v>1.3519767615696878</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1300088829999999</c:v>
+                  <c:v>1.1710196899249892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1708390120000001</c:v>
+                  <c:v>1.169604979244983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.152875257</c:v>
+                  <c:v>1.162630643438058</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1499400630000001</c:v>
+                  <c:v>1.1470177079523147</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2233183080000001</c:v>
+                  <c:v>1.2421141061315011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2424856870000001</c:v>
+                  <c:v>1.2584165127633742</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1834916879999999</c:v>
+                  <c:v>1.1901375652725701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1555528159999999</c:v>
+                  <c:v>1.1809758247897382</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.318685439</c:v>
+                  <c:v>1.3282359623268731</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.355240596</c:v>
+                  <c:v>1.3614648798211313</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5525512159999999</c:v>
+                  <c:v>1.5199821595688709</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.599770017</c:v>
+                  <c:v>1.5326952570631502</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4600037619999999</c:v>
+                  <c:v>1.4102916244021702</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.619142729</c:v>
+                  <c:v>1.6199384721370405</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.448121059</c:v>
+                  <c:v>1.4178393594455094</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.474170414</c:v>
+                  <c:v>1.4823075865549837</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6880516780000001</c:v>
+                  <c:v>1.6742397991440521</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.59142845</c:v>
+                  <c:v>1.525902077965513</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.549488177</c:v>
+                  <c:v>1.5238002877461498</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.428001364</c:v>
+                  <c:v>1.4388927328349621</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5616813490000001</c:v>
+                  <c:v>1.473372774293517</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.710192623</c:v>
+                  <c:v>1.7042483031586253</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4613869770000001</c:v>
+                  <c:v>1.4849674072103232</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.586429181</c:v>
+                  <c:v>1.5736230594197105</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6006123750000001</c:v>
+                  <c:v>1.5219004927850559</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0915763629999999</c:v>
+                  <c:v>1.0855099235901398</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8153026809999999</c:v>
+                  <c:v>1.8513748943431734</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.630841427</c:v>
+                  <c:v>1.6467025303845386</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3274699590000001</c:v>
+                  <c:v>1.2820550086148428</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7844690969999999</c:v>
+                  <c:v>1.7912378214050253</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.9643675780000001</c:v>
+                  <c:v>1.9013422652276395</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4907514879999999</c:v>
+                  <c:v>1.4167814317938976</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.877294797</c:v>
+                  <c:v>1.8129618510067651</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2412972250000001</c:v>
+                  <c:v>1.2348153821570065</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.421769767</c:v>
+                  <c:v>1.4094982078853047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.6847600819999999</c:v>
+                  <c:v>1.6493646484912863</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.312964115</c:v>
+                  <c:v>1.2922184929850025</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.64450864100000005</c:v>
+                  <c:v>0.64805067003057903</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.225825959</c:v>
+                  <c:v>1.2058820000445656</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.744722952</c:v>
+                  <c:v>1.7905476617464477</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.9591722</c:v>
+                  <c:v>2.0093345300679575</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0854842790000001</c:v>
+                  <c:v>1.0813893579872342</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2749876090000001</c:v>
+                  <c:v>1.0357480271201511</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.025881813</c:v>
+                  <c:v>1.0019580647793098</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.76719338299999995</c:v>
+                  <c:v>0.74990344366851436</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.453390851</c:v>
+                  <c:v>1.5565707964601769</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.473429952</c:v>
+                  <c:v>1.5597569060773482</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4910842040000001</c:v>
+                  <c:v>1.4606553147574819</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.161663597</c:v>
+                  <c:v>2.2659083088488314</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.93757395399999999</c:v>
+                  <c:v>0.91603609547569464</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.77994599899999995</c:v>
+                  <c:v>0.87676362134996222</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.9801758</c:v>
+                  <c:v>2.0998137038746174</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8960645249999999</c:v>
+                  <c:v>1.8451442693026983</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.0947050890000001</c:v>
+                  <c:v>2.0423857462448067</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1161490679999999</c:v>
+                  <c:v>2.289150412603151</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.5704299719999999</c:v>
+                  <c:v>2.5234193222053616</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.583461657</c:v>
+                  <c:v>1.7667192705593546</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.285451197</c:v>
+                  <c:v>1.3383006881948121</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.874132484</c:v>
+                  <c:v>2.8579966044142613</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.69551997499999996</c:v>
+                  <c:v>0.726554494957666</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.107674051</c:v>
+                  <c:v>1.1060221870047544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2684,7 +2684,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6C0-47EA-AB98-9148E349470C}"/>
+              <c16:uniqueId val="{00000000-2F38-41E1-B20F-E2A05695966B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6151,6 +6151,83 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDAD64C-9B4B-F0A7-B909-7F93ED72C526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347AFD83-A7DB-D923-9099-3852496F49C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26557D8D-4F33-47BB-8982-677C911CE864}"/>
             </a:ext>
           </a:extLst>
@@ -6196,83 +6273,6 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDAD64C-9B4B-F0A7-B909-7F93ED72C526}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347AFD83-A7DB-D923-9099-3852496F49C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6651,7 +6651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15671F1-4E75-42C6-AF9E-79B16FFFF620}">
   <dimension ref="A2:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -6738,10 +6738,3816 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:M108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1912</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1912</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1913</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1914</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1915</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="G6">
+        <v>1915</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1916</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.75</v>
+      </c>
+      <c r="G7">
+        <v>1916</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1917</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.27272727299999999</v>
+      </c>
+      <c r="G8">
+        <v>1917</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1918</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>1918</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1919</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.37037037</v>
+      </c>
+      <c r="G10">
+        <v>1919</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>0.46153846199999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1920</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>0.37398374000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.38571428600000002</v>
+      </c>
+      <c r="G11">
+        <v>1920</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>0.28205128200000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1921</v>
+      </c>
+      <c r="B12">
+        <v>247</v>
+      </c>
+      <c r="C12">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>0.34008097199999998</v>
+      </c>
+      <c r="E12">
+        <v>0.35761589399999999</v>
+      </c>
+      <c r="G12">
+        <v>1921</v>
+      </c>
+      <c r="H12">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>0.35714285699999998</v>
+      </c>
+      <c r="K12">
+        <v>0.3125</v>
+      </c>
+      <c r="M12">
+        <v>1.0501700679999999</v>
+      </c>
+      <c r="P12">
+        <v>0.873842593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1922</v>
+      </c>
+      <c r="B13">
+        <v>414</v>
+      </c>
+      <c r="C13">
+        <v>136</v>
+      </c>
+      <c r="D13">
+        <v>0.32850241499999999</v>
+      </c>
+      <c r="E13">
+        <v>0.34462616800000001</v>
+      </c>
+      <c r="G13">
+        <v>1922</v>
+      </c>
+      <c r="H13">
+        <v>93</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>0.26881720399999998</v>
+      </c>
+      <c r="K13">
+        <v>0.29411764699999998</v>
+      </c>
+      <c r="M13">
+        <v>0.81831119500000005</v>
+      </c>
+      <c r="P13">
+        <v>0.85343968100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1923</v>
+      </c>
+      <c r="B14">
+        <v>710</v>
+      </c>
+      <c r="C14">
+        <v>213</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.32235142100000003</v>
+      </c>
+      <c r="G14">
+        <v>1923</v>
+      </c>
+      <c r="H14">
+        <v>139</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>0.25179856099999998</v>
+      </c>
+      <c r="K14">
+        <v>0.276872964</v>
+      </c>
+      <c r="M14">
+        <v>0.83932853699999999</v>
+      </c>
+      <c r="P14">
+        <v>0.85891653000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1924</v>
+      </c>
+      <c r="B15">
+        <v>1047</v>
+      </c>
+      <c r="C15">
+        <v>296</v>
+      </c>
+      <c r="D15">
+        <v>0.28271251200000003</v>
+      </c>
+      <c r="E15">
+        <v>0.30499803199999997</v>
+      </c>
+      <c r="G15">
+        <v>1924</v>
+      </c>
+      <c r="H15">
+        <v>258</v>
+      </c>
+      <c r="I15">
+        <v>85</v>
+      </c>
+      <c r="J15">
+        <v>0.32945736399999997</v>
+      </c>
+      <c r="K15">
+        <v>0.29710144900000002</v>
+      </c>
+      <c r="M15">
+        <v>1.1653441229999999</v>
+      </c>
+      <c r="P15">
+        <v>0.97410939699999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1925</v>
+      </c>
+      <c r="B16">
+        <v>1559</v>
+      </c>
+      <c r="C16">
+        <v>386</v>
+      </c>
+      <c r="D16">
+        <v>0.24759461199999999</v>
+      </c>
+      <c r="E16">
+        <v>0.28036208200000001</v>
+      </c>
+      <c r="G16">
+        <v>1925</v>
+      </c>
+      <c r="H16">
+        <v>320</v>
+      </c>
+      <c r="I16">
+        <v>86</v>
+      </c>
+      <c r="J16">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.288732394</v>
+      </c>
+      <c r="M16">
+        <v>1.085443653</v>
+      </c>
+      <c r="P16">
+        <v>1.029855365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1926</v>
+      </c>
+      <c r="B17">
+        <v>2387</v>
+      </c>
+      <c r="C17">
+        <v>595</v>
+      </c>
+      <c r="D17">
+        <v>0.24926686200000001</v>
+      </c>
+      <c r="E17">
+        <v>0.265816577</v>
+      </c>
+      <c r="G17">
+        <v>1926</v>
+      </c>
+      <c r="H17">
+        <v>467</v>
+      </c>
+      <c r="I17">
+        <v>138</v>
+      </c>
+      <c r="J17">
+        <v>0.29550321200000002</v>
+      </c>
+      <c r="K17">
+        <v>0.28895849600000001</v>
+      </c>
+      <c r="M17">
+        <v>1.1854893559999999</v>
+      </c>
+      <c r="P17">
+        <v>1.0870597310000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1927</v>
+      </c>
+      <c r="B18">
+        <v>3303</v>
+      </c>
+      <c r="C18">
+        <v>781</v>
+      </c>
+      <c r="D18">
+        <v>0.23645171100000001</v>
+      </c>
+      <c r="E18">
+        <v>0.25216522299999999</v>
+      </c>
+      <c r="G18">
+        <v>1927</v>
+      </c>
+      <c r="H18">
+        <v>667</v>
+      </c>
+      <c r="I18">
+        <v>159</v>
+      </c>
+      <c r="J18">
+        <v>0.23838081</v>
+      </c>
+      <c r="K18">
+        <v>0.27174500299999998</v>
+      </c>
+      <c r="M18">
+        <v>1.008158533</v>
+      </c>
+      <c r="P18">
+        <v>1.077646629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1928</v>
+      </c>
+      <c r="B19">
+        <v>4653</v>
+      </c>
+      <c r="C19">
+        <v>902</v>
+      </c>
+      <c r="D19">
+        <v>0.19385342799999999</v>
+      </c>
+      <c r="E19">
+        <v>0.22858908</v>
+      </c>
+      <c r="G19">
+        <v>1928</v>
+      </c>
+      <c r="H19">
+        <v>888</v>
+      </c>
+      <c r="I19">
+        <v>187</v>
+      </c>
+      <c r="J19">
+        <v>0.21058558599999999</v>
+      </c>
+      <c r="K19">
+        <v>0.251923077</v>
+      </c>
+      <c r="M19">
+        <v>1.0863134480000001</v>
+      </c>
+      <c r="P19">
+        <v>1.1020783519999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1929</v>
+      </c>
+      <c r="B20">
+        <v>6172</v>
+      </c>
+      <c r="C20">
+        <v>1098</v>
+      </c>
+      <c r="D20">
+        <v>0.17790019400000001</v>
+      </c>
+      <c r="E20">
+        <v>0.20814429600000001</v>
+      </c>
+      <c r="G20">
+        <v>1929</v>
+      </c>
+      <c r="H20">
+        <v>1175</v>
+      </c>
+      <c r="I20">
+        <v>242</v>
+      </c>
+      <c r="J20">
+        <v>0.20595744699999999</v>
+      </c>
+      <c r="K20">
+        <v>0.23087858999999999</v>
+      </c>
+      <c r="M20">
+        <v>1.1577134440000001</v>
+      </c>
+      <c r="P20">
+        <v>1.1092237190000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1930</v>
+      </c>
+      <c r="B21">
+        <v>8601</v>
+      </c>
+      <c r="C21">
+        <v>1339</v>
+      </c>
+      <c r="D21">
+        <v>0.15567957199999999</v>
+      </c>
+      <c r="E21">
+        <v>0.18772893800000001</v>
+      </c>
+      <c r="G21">
+        <v>1930</v>
+      </c>
+      <c r="H21">
+        <v>1531</v>
+      </c>
+      <c r="I21">
+        <v>288</v>
+      </c>
+      <c r="J21">
+        <v>0.18811234499999999</v>
+      </c>
+      <c r="K21">
+        <v>0.21446700499999999</v>
+      </c>
+      <c r="M21">
+        <v>1.208330305</v>
+      </c>
+      <c r="P21">
+        <v>1.1424291200000001</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1931</v>
+      </c>
+      <c r="B22">
+        <v>10558</v>
+      </c>
+      <c r="C22">
+        <v>1429</v>
+      </c>
+      <c r="D22">
+        <v>0.13534760400000001</v>
+      </c>
+      <c r="E22">
+        <v>0.166701715</v>
+      </c>
+      <c r="G22">
+        <v>1931</v>
+      </c>
+      <c r="H22">
+        <v>1916</v>
+      </c>
+      <c r="I22">
+        <v>297</v>
+      </c>
+      <c r="J22">
+        <v>0.155010438</v>
+      </c>
+      <c r="K22">
+        <v>0.18989800900000001</v>
+      </c>
+      <c r="M22">
+        <v>1.1452765629999999</v>
+      </c>
+      <c r="P22">
+        <v>1.139148498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1932</v>
+      </c>
+      <c r="B23">
+        <v>13035</v>
+      </c>
+      <c r="C23">
+        <v>1604</v>
+      </c>
+      <c r="D23">
+        <v>0.12305331799999999</v>
+      </c>
+      <c r="E23">
+        <v>0.14812059799999999</v>
+      </c>
+      <c r="G23">
+        <v>1932</v>
+      </c>
+      <c r="H23">
+        <v>2151</v>
+      </c>
+      <c r="I23">
+        <v>316</v>
+      </c>
+      <c r="J23">
+        <v>0.14690841499999999</v>
+      </c>
+      <c r="K23">
+        <v>0.17360657900000001</v>
+      </c>
+      <c r="M23">
+        <v>1.1938598410000001</v>
+      </c>
+      <c r="P23">
+        <v>1.172062369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1933</v>
+      </c>
+      <c r="B24">
+        <v>14653</v>
+      </c>
+      <c r="C24">
+        <v>1571</v>
+      </c>
+      <c r="D24">
+        <v>0.10721354</v>
+      </c>
+      <c r="E24">
+        <v>0.13280144899999999</v>
+      </c>
+      <c r="G24">
+        <v>1933</v>
+      </c>
+      <c r="H24">
+        <v>2562</v>
+      </c>
+      <c r="I24">
+        <v>342</v>
+      </c>
+      <c r="J24">
+        <v>0.133489461</v>
+      </c>
+      <c r="K24">
+        <v>0.159078736</v>
+      </c>
+      <c r="M24">
+        <v>1.245080253</v>
+      </c>
+      <c r="P24">
+        <v>1.1978689819999999</v>
+      </c>
+      <c r="R24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1934</v>
+      </c>
+      <c r="B25">
+        <v>16938</v>
+      </c>
+      <c r="C25">
+        <v>1631</v>
+      </c>
+      <c r="D25">
+        <v>9.6292359999999994E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.118742651</v>
+      </c>
+      <c r="G25">
+        <v>1934</v>
+      </c>
+      <c r="H25">
+        <v>2641</v>
+      </c>
+      <c r="I25">
+        <v>313</v>
+      </c>
+      <c r="J25">
+        <v>0.11851571399999999</v>
+      </c>
+      <c r="K25">
+        <v>0.144060735</v>
+      </c>
+      <c r="M25">
+        <v>1.23079041</v>
+      </c>
+      <c r="P25">
+        <v>1.2132181129999999</v>
+      </c>
+      <c r="T25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1935</v>
+      </c>
+      <c r="B26">
+        <v>19362</v>
+      </c>
+      <c r="C26">
+        <v>1591</v>
+      </c>
+      <c r="D26">
+        <v>8.2171262999999994E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.10498215900000001</v>
+      </c>
+      <c r="G26">
+        <v>1935</v>
+      </c>
+      <c r="H26">
+        <v>2740</v>
+      </c>
+      <c r="I26">
+        <v>314</v>
+      </c>
+      <c r="J26">
+        <v>0.11459854</v>
+      </c>
+      <c r="K26">
+        <v>0.13172356399999999</v>
+      </c>
+      <c r="M26">
+        <v>1.3946303799999999</v>
+      </c>
+      <c r="P26">
+        <v>1.25472333</v>
+      </c>
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26">
+        <v>420903</v>
+      </c>
+      <c r="U26">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1936</v>
+      </c>
+      <c r="B27">
+        <v>21565</v>
+      </c>
+      <c r="C27">
+        <v>1560</v>
+      </c>
+      <c r="D27">
+        <v>7.2339439000000005E-2</v>
+      </c>
+      <c r="E27">
+        <v>9.3006673999999998E-2</v>
+      </c>
+      <c r="G27">
+        <v>1936</v>
+      </c>
+      <c r="H27">
+        <v>3041</v>
+      </c>
+      <c r="I27">
+        <v>295</v>
+      </c>
+      <c r="J27">
+        <v>9.7007563000000005E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.120289303</v>
+      </c>
+      <c r="M27">
+        <v>1.3410051940000001</v>
+      </c>
+      <c r="P27">
+        <v>1.2933405520000001</v>
+      </c>
+      <c r="R27" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27">
+        <v>4808</v>
+      </c>
+      <c r="U27">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1937</v>
+      </c>
+      <c r="B28">
+        <v>24067</v>
+      </c>
+      <c r="C28">
+        <v>1523</v>
+      </c>
+      <c r="D28">
+        <v>6.3281671999999997E-2</v>
+      </c>
+      <c r="E28">
+        <v>8.1544752999999998E-2</v>
+      </c>
+      <c r="G28">
+        <v>1937</v>
+      </c>
+      <c r="H28">
+        <v>3409</v>
+      </c>
+      <c r="I28">
+        <v>281</v>
+      </c>
+      <c r="J28">
+        <v>8.2428865000000004E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.10734384800000001</v>
+      </c>
+      <c r="M28">
+        <v>1.3025709050000001</v>
+      </c>
+      <c r="P28">
+        <v>1.316379575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1938</v>
+      </c>
+      <c r="B29">
+        <v>27694</v>
+      </c>
+      <c r="C29">
+        <v>1642</v>
+      </c>
+      <c r="D29">
+        <v>5.9290821E-2</v>
+      </c>
+      <c r="E29">
+        <v>7.2491926999999998E-2</v>
+      </c>
+      <c r="G29">
+        <v>1938</v>
+      </c>
+      <c r="H29">
+        <v>4015</v>
+      </c>
+      <c r="I29">
+        <v>290</v>
+      </c>
+      <c r="J29">
+        <v>7.2229140999999997E-2</v>
+      </c>
+      <c r="K29">
+        <v>9.4219361000000001E-2</v>
+      </c>
+      <c r="M29">
+        <v>1.218217919</v>
+      </c>
+      <c r="P29">
+        <v>1.299722123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1939</v>
+      </c>
+      <c r="B30">
+        <v>31223</v>
+      </c>
+      <c r="C30">
+        <v>1639</v>
+      </c>
+      <c r="D30">
+        <v>5.2493353999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>6.4199303999999999E-2</v>
+      </c>
+      <c r="G30">
+        <v>1939</v>
+      </c>
+      <c r="H30">
+        <v>4183</v>
+      </c>
+      <c r="I30">
+        <v>279</v>
+      </c>
+      <c r="J30">
+        <v>6.6698542E-2</v>
+      </c>
+      <c r="K30">
+        <v>8.3908442999999999E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.270609254</v>
+      </c>
+      <c r="P30">
+        <v>1.3069992500000001</v>
+      </c>
+      <c r="R30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1940</v>
+      </c>
+      <c r="B31">
+        <v>38045</v>
+      </c>
+      <c r="C31">
+        <v>1731</v>
+      </c>
+      <c r="D31">
+        <v>4.5498750999999997E-2</v>
+      </c>
+      <c r="E31">
+        <v>5.6769569999999998E-2</v>
+      </c>
+      <c r="G31">
+        <v>1940</v>
+      </c>
+      <c r="H31">
+        <v>4756</v>
+      </c>
+      <c r="I31">
+        <v>306</v>
+      </c>
+      <c r="J31">
+        <v>6.4339780999999999E-2</v>
+      </c>
+      <c r="K31">
+        <v>7.4778395999999997E-2</v>
+      </c>
+      <c r="M31">
+        <v>1.414099931</v>
+      </c>
+      <c r="P31">
+        <v>1.3172267609999999</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1941</v>
+      </c>
+      <c r="B32">
+        <v>35586</v>
+      </c>
+      <c r="C32">
+        <v>1509</v>
+      </c>
+      <c r="D32">
+        <v>4.2404315999999997E-2</v>
+      </c>
+      <c r="E32">
+        <v>5.1361618999999997E-2</v>
+      </c>
+      <c r="G32">
+        <v>1941</v>
+      </c>
+      <c r="H32">
+        <v>6779</v>
+      </c>
+      <c r="I32">
+        <v>376</v>
+      </c>
+      <c r="J32">
+        <v>5.5465408000000001E-2</v>
+      </c>
+      <c r="K32">
+        <v>6.6199983000000004E-2</v>
+      </c>
+      <c r="M32">
+        <v>1.308013257</v>
+      </c>
+      <c r="P32">
+        <v>1.2888998380000001</v>
+      </c>
+      <c r="R32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1942</v>
+      </c>
+      <c r="B33">
+        <v>39371</v>
+      </c>
+      <c r="C33">
+        <v>1490</v>
+      </c>
+      <c r="D33">
+        <v>3.7845113999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>4.6597526E-2</v>
+      </c>
+      <c r="G33">
+        <v>1942</v>
+      </c>
+      <c r="H33">
+        <v>7623</v>
+      </c>
+      <c r="I33">
+        <v>326</v>
+      </c>
+      <c r="J33">
+        <v>4.2765314999999998E-2</v>
+      </c>
+      <c r="K33">
+        <v>5.7647316999999997E-2</v>
+      </c>
+      <c r="M33">
+        <v>1.1300088829999999</v>
+      </c>
+      <c r="P33">
+        <v>1.237132576</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1943</v>
+      </c>
+      <c r="B34">
+        <v>46531</v>
+      </c>
+      <c r="C34">
+        <v>1584</v>
+      </c>
+      <c r="D34">
+        <v>3.4041821999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>4.1692003999999998E-2</v>
+      </c>
+      <c r="G34">
+        <v>1943</v>
+      </c>
+      <c r="H34">
+        <v>8982</v>
+      </c>
+      <c r="I34">
+        <v>358</v>
+      </c>
+      <c r="J34">
+        <v>3.9857493000000001E-2</v>
+      </c>
+      <c r="K34">
+        <v>5.0892553E-2</v>
+      </c>
+      <c r="M34">
+        <v>1.1708390120000001</v>
+      </c>
+      <c r="P34">
+        <v>1.2206789760000001</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1944</v>
+      </c>
+      <c r="B35">
+        <v>50073</v>
+      </c>
+      <c r="C35">
+        <v>1545</v>
+      </c>
+      <c r="D35">
+        <v>3.0854952000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>3.7494156000000001E-2</v>
+      </c>
+      <c r="G35">
+        <v>1944</v>
+      </c>
+      <c r="H35">
+        <v>9783</v>
+      </c>
+      <c r="I35">
+        <v>348</v>
+      </c>
+      <c r="J35">
+        <v>3.5571909999999998E-2</v>
+      </c>
+      <c r="K35">
+        <v>4.5196845999999999E-2</v>
+      </c>
+      <c r="M35">
+        <v>1.152875257</v>
+      </c>
+      <c r="P35">
+        <v>1.205437098</v>
+      </c>
+      <c r="R35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1945</v>
+      </c>
+      <c r="B36">
+        <v>49846</v>
+      </c>
+      <c r="C36">
+        <v>1408</v>
+      </c>
+      <c r="D36">
+        <v>2.8247001000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.4036864E-2</v>
+      </c>
+      <c r="G36">
+        <v>1945</v>
+      </c>
+      <c r="H36">
+        <v>9636</v>
+      </c>
+      <c r="I36">
+        <v>313</v>
+      </c>
+      <c r="J36">
+        <v>3.2482358000000003E-2</v>
+      </c>
+      <c r="K36">
+        <v>4.0207461999999999E-2</v>
+      </c>
+      <c r="M36">
+        <v>1.1499400630000001</v>
+      </c>
+      <c r="P36">
+        <v>1.181291608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1946</v>
+      </c>
+      <c r="B37">
+        <v>65083</v>
+      </c>
+      <c r="C37">
+        <v>1692</v>
+      </c>
+      <c r="D37">
+        <v>2.5997572E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.0764755000000001E-2</v>
+      </c>
+      <c r="G37">
+        <v>1946</v>
+      </c>
+      <c r="H37">
+        <v>11917</v>
+      </c>
+      <c r="I37">
+        <v>379</v>
+      </c>
+      <c r="J37">
+        <v>3.1803306000000003E-2</v>
+      </c>
+      <c r="K37">
+        <v>3.5960868999999999E-2</v>
+      </c>
+      <c r="M37">
+        <v>1.2233183080000001</v>
+      </c>
+      <c r="P37">
+        <v>1.1688982729999999</v>
+      </c>
+      <c r="R37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1947</v>
+      </c>
+      <c r="B38">
+        <v>69763</v>
+      </c>
+      <c r="C38">
+        <v>1519</v>
+      </c>
+      <c r="D38">
+        <v>2.177372E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.7543939E-2</v>
+      </c>
+      <c r="G38">
+        <v>1947</v>
+      </c>
+      <c r="H38">
+        <v>12235</v>
+      </c>
+      <c r="I38">
+        <v>331</v>
+      </c>
+      <c r="J38">
+        <v>2.7053535E-2</v>
+      </c>
+      <c r="K38">
+        <v>3.2900119999999998E-2</v>
+      </c>
+      <c r="M38">
+        <v>1.2424856870000001</v>
+      </c>
+      <c r="P38">
+        <v>1.194459489</v>
+      </c>
+      <c r="R38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1948</v>
+      </c>
+      <c r="B39">
+        <v>69209</v>
+      </c>
+      <c r="C39">
+        <v>1487</v>
+      </c>
+      <c r="D39">
+        <v>2.1485645000000001E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.5169916000000001E-2</v>
+      </c>
+      <c r="G39">
+        <v>1948</v>
+      </c>
+      <c r="H39">
+        <v>11680</v>
+      </c>
+      <c r="I39">
+        <v>297</v>
+      </c>
+      <c r="J39">
+        <v>2.5428082000000001E-2</v>
+      </c>
+      <c r="K39">
+        <v>3.0189499000000002E-2</v>
+      </c>
+      <c r="M39">
+        <v>1.1834916879999999</v>
+      </c>
+      <c r="P39">
+        <v>1.1994278810000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1949</v>
+      </c>
+      <c r="B40">
+        <v>69106</v>
+      </c>
+      <c r="C40">
+        <v>1265</v>
+      </c>
+      <c r="D40">
+        <v>1.8305212000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.2819939000000001E-2</v>
+      </c>
+      <c r="G40">
+        <v>1949</v>
+      </c>
+      <c r="H40">
+        <v>11157</v>
+      </c>
+      <c r="I40">
+        <v>236</v>
+      </c>
+      <c r="J40">
+        <v>2.115264E-2</v>
+      </c>
+      <c r="K40">
+        <v>2.7479028999999999E-2</v>
+      </c>
+      <c r="M40">
+        <v>1.1555528159999999</v>
+      </c>
+      <c r="P40">
+        <v>1.204167497</v>
+      </c>
+      <c r="R40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1950</v>
+      </c>
+      <c r="B41">
+        <v>72779</v>
+      </c>
+      <c r="C41">
+        <v>1201</v>
+      </c>
+      <c r="D41">
+        <v>1.6502012999999999E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.0708793E-2</v>
+      </c>
+      <c r="G41">
+        <v>1950</v>
+      </c>
+      <c r="H41">
+        <v>11948</v>
+      </c>
+      <c r="I41">
+        <v>260</v>
+      </c>
+      <c r="J41">
+        <v>2.1760964000000001E-2</v>
+      </c>
+      <c r="K41">
+        <v>2.5501807000000001E-2</v>
+      </c>
+      <c r="M41">
+        <v>1.318685439</v>
+      </c>
+      <c r="P41">
+        <v>1.23144823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1951</v>
+      </c>
+      <c r="B42">
+        <v>78707</v>
+      </c>
+      <c r="C42">
+        <v>1263</v>
+      </c>
+      <c r="D42">
+        <v>1.6046857000000001E-2</v>
+      </c>
+      <c r="E42">
+        <v>1.8731019000000002E-2</v>
+      </c>
+      <c r="G42">
+        <v>1951</v>
+      </c>
+      <c r="H42">
+        <v>10576</v>
+      </c>
+      <c r="I42">
+        <v>230</v>
+      </c>
+      <c r="J42">
+        <v>2.1747352000000001E-2</v>
+      </c>
+      <c r="K42">
+        <v>2.3508576999999999E-2</v>
+      </c>
+      <c r="M42">
+        <v>1.355240596</v>
+      </c>
+      <c r="P42">
+        <v>1.2550613180000001</v>
+      </c>
+      <c r="R42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1952</v>
+      </c>
+      <c r="B43">
+        <v>83865</v>
+      </c>
+      <c r="C43">
+        <v>1109</v>
+      </c>
+      <c r="D43">
+        <v>1.3223633E-2</v>
+      </c>
+      <c r="E43">
+        <v>1.6926881000000001E-2</v>
+      </c>
+      <c r="G43">
+        <v>1952</v>
+      </c>
+      <c r="H43">
+        <v>9352</v>
+      </c>
+      <c r="I43">
+        <v>192</v>
+      </c>
+      <c r="J43">
+        <v>2.0530368E-2</v>
+      </c>
+      <c r="K43">
+        <v>2.2206788000000002E-2</v>
+      </c>
+      <c r="M43">
+        <v>1.5525512159999999</v>
+      </c>
+      <c r="P43">
+        <v>1.31192438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1953</v>
+      </c>
+      <c r="B44">
+        <v>84084</v>
+      </c>
+      <c r="C44">
+        <v>1045</v>
+      </c>
+      <c r="D44">
+        <v>1.2428048000000001E-2</v>
+      </c>
+      <c r="E44">
+        <v>1.5141259000000001E-2</v>
+      </c>
+      <c r="G44">
+        <v>1953</v>
+      </c>
+      <c r="H44">
+        <v>9154</v>
+      </c>
+      <c r="I44">
+        <v>182</v>
+      </c>
+      <c r="J44">
+        <v>1.9882019000000001E-2</v>
+      </c>
+      <c r="K44">
+        <v>2.1078046E-2</v>
+      </c>
+      <c r="M44">
+        <v>1.599770017</v>
+      </c>
+      <c r="P44">
+        <v>1.392093349</v>
+      </c>
+      <c r="R44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1954</v>
+      </c>
+      <c r="B45">
+        <v>85381</v>
+      </c>
+      <c r="C45">
+        <v>951</v>
+      </c>
+      <c r="D45">
+        <v>1.1138309000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>1.3756867000000001E-2</v>
+      </c>
+      <c r="G45">
+        <v>1954</v>
+      </c>
+      <c r="H45">
+        <v>8978</v>
+      </c>
+      <c r="I45">
+        <v>146</v>
+      </c>
+      <c r="J45">
+        <v>1.6261973999999998E-2</v>
+      </c>
+      <c r="K45">
+        <v>2.0196769E-2</v>
+      </c>
+      <c r="M45">
+        <v>1.4600037619999999</v>
+      </c>
+      <c r="P45">
+        <v>1.4681226510000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1955</v>
+      </c>
+      <c r="B46">
+        <v>86254</v>
+      </c>
+      <c r="C46">
+        <v>910</v>
+      </c>
+      <c r="D46">
+        <v>1.0550235E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.2618010000000001E-2</v>
+      </c>
+      <c r="G46">
+        <v>1955</v>
+      </c>
+      <c r="H46">
+        <v>8781</v>
+      </c>
+      <c r="I46">
+        <v>150</v>
+      </c>
+      <c r="J46">
+        <v>1.7082337E-2</v>
+      </c>
+      <c r="K46">
+        <v>1.9213937E-2</v>
+      </c>
+      <c r="M46">
+        <v>1.619142729</v>
+      </c>
+      <c r="P46">
+        <v>1.5227390519999999</v>
+      </c>
+      <c r="R46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1956</v>
+      </c>
+      <c r="B47">
+        <v>86127</v>
+      </c>
+      <c r="C47">
+        <v>793</v>
+      </c>
+      <c r="D47">
+        <v>9.2073329999999998E-3</v>
+      </c>
+      <c r="E47">
+        <v>1.1294047E-2</v>
+      </c>
+      <c r="G47">
+        <v>1956</v>
+      </c>
+      <c r="H47">
+        <v>8400</v>
+      </c>
+      <c r="I47">
+        <v>112</v>
+      </c>
+      <c r="J47">
+        <v>1.3333332999999999E-2</v>
+      </c>
+      <c r="K47">
+        <v>1.7508116000000001E-2</v>
+      </c>
+      <c r="M47">
+        <v>1.448121059</v>
+      </c>
+      <c r="P47">
+        <v>1.550207479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1957</v>
+      </c>
+      <c r="B48">
+        <v>84138</v>
+      </c>
+      <c r="C48">
+        <v>703</v>
+      </c>
+      <c r="D48">
+        <v>8.3553210000000006E-3</v>
+      </c>
+      <c r="E48">
+        <v>1.0333721000000001E-2</v>
+      </c>
+      <c r="G48">
+        <v>1957</v>
+      </c>
+      <c r="H48">
+        <v>7794</v>
+      </c>
+      <c r="I48">
+        <v>96</v>
+      </c>
+      <c r="J48">
+        <v>1.2317167E-2</v>
+      </c>
+      <c r="K48">
+        <v>1.5913889000000001E-2</v>
+      </c>
+      <c r="M48">
+        <v>1.474170414</v>
+      </c>
+      <c r="P48">
+        <v>1.539995902</v>
+      </c>
+      <c r="R48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1958</v>
+      </c>
+      <c r="B49">
+        <v>78639</v>
+      </c>
+      <c r="C49">
+        <v>566</v>
+      </c>
+      <c r="D49">
+        <v>7.197447E-3</v>
+      </c>
+      <c r="E49">
+        <v>9.3285050000000008E-3</v>
+      </c>
+      <c r="G49">
+        <v>1958</v>
+      </c>
+      <c r="H49">
+        <v>7243</v>
+      </c>
+      <c r="I49">
+        <v>88</v>
+      </c>
+      <c r="J49">
+        <v>1.2149662E-2</v>
+      </c>
+      <c r="K49">
+        <v>1.4370327E-2</v>
+      </c>
+      <c r="M49">
+        <v>1.6880516780000001</v>
+      </c>
+      <c r="P49">
+        <v>1.5404749010000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1959</v>
+      </c>
+      <c r="B50">
+        <v>72984</v>
+      </c>
+      <c r="C50">
+        <v>478</v>
+      </c>
+      <c r="D50">
+        <v>6.549381E-3</v>
+      </c>
+      <c r="E50">
+        <v>8.4529400000000008E-3</v>
+      </c>
+      <c r="G50">
+        <v>1959</v>
+      </c>
+      <c r="H50">
+        <v>6716</v>
+      </c>
+      <c r="I50">
+        <v>70</v>
+      </c>
+      <c r="J50">
+        <v>1.0422871E-2</v>
+      </c>
+      <c r="K50">
+        <v>1.3253198000000001E-2</v>
+      </c>
+      <c r="M50">
+        <v>1.59142845</v>
+      </c>
+      <c r="P50">
+        <v>1.567880181</v>
+      </c>
+      <c r="R50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1960</v>
+      </c>
+      <c r="B51">
+        <v>73516</v>
+      </c>
+      <c r="C51">
+        <v>423</v>
+      </c>
+      <c r="D51">
+        <v>5.7538499999999996E-3</v>
+      </c>
+      <c r="E51">
+        <v>7.4936009999999999E-3</v>
+      </c>
+      <c r="G51">
+        <v>1960</v>
+      </c>
+      <c r="H51">
+        <v>6842</v>
+      </c>
+      <c r="I51">
+        <v>61</v>
+      </c>
+      <c r="J51">
+        <v>8.9155220000000004E-3</v>
+      </c>
+      <c r="K51">
+        <v>1.15421E-2</v>
+      </c>
+      <c r="M51">
+        <v>1.549488177</v>
+      </c>
+      <c r="P51">
+        <v>1.5402607559999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1961</v>
+      </c>
+      <c r="B52">
+        <v>75388</v>
+      </c>
+      <c r="C52">
+        <v>414</v>
+      </c>
+      <c r="D52">
+        <v>5.4915900000000002E-3</v>
+      </c>
+      <c r="E52">
+        <v>6.7175330000000004E-3</v>
+      </c>
+      <c r="G52">
+        <v>1961</v>
+      </c>
+      <c r="H52">
+        <v>6886</v>
+      </c>
+      <c r="I52">
+        <v>54</v>
+      </c>
+      <c r="J52">
+        <v>7.8419979999999993E-3</v>
+      </c>
+      <c r="K52">
+        <v>1.0399932000000001E-2</v>
+      </c>
+      <c r="M52">
+        <v>1.428001364</v>
+      </c>
+      <c r="P52">
+        <v>1.548177237</v>
+      </c>
+      <c r="R52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1962</v>
+      </c>
+      <c r="B53">
+        <v>77557</v>
+      </c>
+      <c r="C53">
+        <v>406</v>
+      </c>
+      <c r="D53">
+        <v>5.23486E-3</v>
+      </c>
+      <c r="E53">
+        <v>6.0489200000000002E-3</v>
+      </c>
+      <c r="G53">
+        <v>1962</v>
+      </c>
+      <c r="H53">
+        <v>6850</v>
+      </c>
+      <c r="I53">
+        <v>56</v>
+      </c>
+      <c r="J53">
+        <v>8.1751819999999996E-3</v>
+      </c>
+      <c r="K53">
+        <v>9.526016E-3</v>
+      </c>
+      <c r="M53">
+        <v>1.5616813490000001</v>
+      </c>
+      <c r="P53">
+        <v>1.5748290659999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1963</v>
+      </c>
+      <c r="B54">
+        <v>86991</v>
+      </c>
+      <c r="C54">
+        <v>330</v>
+      </c>
+      <c r="D54">
+        <v>3.7934959999999999E-3</v>
+      </c>
+      <c r="E54">
+        <v>5.3074769999999997E-3</v>
+      </c>
+      <c r="G54">
+        <v>1963</v>
+      </c>
+      <c r="H54">
+        <v>7707</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="J54">
+        <v>6.4876090000000001E-3</v>
+      </c>
+      <c r="K54">
+        <v>8.3140479999999992E-3</v>
+      </c>
+      <c r="M54">
+        <v>1.710192623</v>
+      </c>
+      <c r="P54">
+        <v>1.5664785560000001</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1964</v>
+      </c>
+      <c r="B55">
+        <v>90282</v>
+      </c>
+      <c r="C55">
+        <v>380</v>
+      </c>
+      <c r="D55">
+        <v>4.2090340000000004E-3</v>
+      </c>
+      <c r="E55">
+        <v>4.837343E-3</v>
+      </c>
+      <c r="G55">
+        <v>1964</v>
+      </c>
+      <c r="H55">
+        <v>7641</v>
+      </c>
+      <c r="I55">
+        <v>47</v>
+      </c>
+      <c r="J55">
+        <v>6.1510269999999999E-3</v>
+      </c>
+      <c r="K55">
+        <v>7.4597780000000002E-3</v>
+      </c>
+      <c r="M55">
+        <v>1.4613869770000001</v>
+      </c>
+      <c r="P55">
+        <v>1.5421229830000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1965</v>
+      </c>
+      <c r="B56">
+        <v>86404</v>
+      </c>
+      <c r="C56">
+        <v>329</v>
+      </c>
+      <c r="D56">
+        <v>3.8076939999999999E-3</v>
+      </c>
+      <c r="E56">
+        <v>4.4620780000000004E-3</v>
+      </c>
+      <c r="G56">
+        <v>1965</v>
+      </c>
+      <c r="H56">
+        <v>7284</v>
+      </c>
+      <c r="I56">
+        <v>44</v>
+      </c>
+      <c r="J56">
+        <v>6.0406369999999997E-3</v>
+      </c>
+      <c r="K56">
+        <v>6.9016720000000002E-3</v>
+      </c>
+      <c r="M56">
+        <v>1.586429181</v>
+      </c>
+      <c r="P56">
+        <v>1.546739273</v>
+      </c>
+      <c r="R56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1966</v>
+      </c>
+      <c r="B57">
+        <v>82953</v>
+      </c>
+      <c r="C57">
+        <v>270</v>
+      </c>
+      <c r="D57">
+        <v>3.2548550000000001E-3</v>
+      </c>
+      <c r="E57">
+        <v>4.0430279999999997E-3</v>
+      </c>
+      <c r="G57">
+        <v>1966</v>
+      </c>
+      <c r="H57">
+        <v>7294</v>
+      </c>
+      <c r="I57">
+        <v>38</v>
+      </c>
+      <c r="J57">
+        <v>5.2097610000000003E-3</v>
+      </c>
+      <c r="K57">
+        <v>6.3900370000000003E-3</v>
+      </c>
+      <c r="M57">
+        <v>1.6006123750000001</v>
+      </c>
+      <c r="P57">
+        <v>1.580507648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1967</v>
+      </c>
+      <c r="B58">
+        <v>81794</v>
+      </c>
+      <c r="C58">
+        <v>262</v>
+      </c>
+      <c r="D58">
+        <v>3.2031690000000001E-3</v>
+      </c>
+      <c r="E58">
+        <v>3.6669279999999999E-3</v>
+      </c>
+      <c r="G58">
+        <v>1967</v>
+      </c>
+      <c r="H58">
+        <v>7436</v>
+      </c>
+      <c r="I58">
+        <v>26</v>
+      </c>
+      <c r="J58">
+        <v>3.4965030000000002E-3</v>
+      </c>
+      <c r="K58">
+        <v>5.4868579999999998E-3</v>
+      </c>
+      <c r="M58">
+        <v>1.0915763629999999</v>
+      </c>
+      <c r="P58">
+        <v>1.496309219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1968</v>
+      </c>
+      <c r="B59">
+        <v>82035</v>
+      </c>
+      <c r="C59">
+        <v>236</v>
+      </c>
+      <c r="D59">
+        <v>2.8768209999999999E-3</v>
+      </c>
+      <c r="E59">
+        <v>3.487867E-3</v>
+      </c>
+      <c r="G59">
+        <v>1968</v>
+      </c>
+      <c r="H59">
+        <v>7085</v>
+      </c>
+      <c r="I59">
+        <v>37</v>
+      </c>
+      <c r="J59">
+        <v>5.2223010000000004E-3</v>
+      </c>
+      <c r="K59">
+        <v>5.2259120000000001E-3</v>
+      </c>
+      <c r="M59">
+        <v>1.8153026809999999</v>
+      </c>
+      <c r="P59">
+        <v>1.4983117290000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1969</v>
+      </c>
+      <c r="B60">
+        <v>86487</v>
+      </c>
+      <c r="C60">
+        <v>218</v>
+      </c>
+      <c r="D60">
+        <v>2.52061E-3</v>
+      </c>
+      <c r="E60">
+        <v>3.133392E-3</v>
+      </c>
+      <c r="G60">
+        <v>1969</v>
+      </c>
+      <c r="H60">
+        <v>7298</v>
+      </c>
+      <c r="I60">
+        <v>30</v>
+      </c>
+      <c r="J60">
+        <v>4.110715E-3</v>
+      </c>
+      <c r="K60">
+        <v>4.8080889999999998E-3</v>
+      </c>
+      <c r="M60">
+        <v>1.630841427</v>
+      </c>
+      <c r="P60">
+        <v>1.534467649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1970</v>
+      </c>
+      <c r="B61">
+        <v>90862</v>
+      </c>
+      <c r="C61">
+        <v>209</v>
+      </c>
+      <c r="D61">
+        <v>2.300191E-3</v>
+      </c>
+      <c r="E61">
+        <v>2.8175259999999999E-3</v>
+      </c>
+      <c r="G61">
+        <v>1970</v>
+      </c>
+      <c r="H61">
+        <v>7205</v>
+      </c>
+      <c r="I61">
+        <v>22</v>
+      </c>
+      <c r="J61">
+        <v>3.0534350000000002E-3</v>
+      </c>
+      <c r="K61">
+        <v>4.212787E-3</v>
+      </c>
+      <c r="M61">
+        <v>1.3274699590000001</v>
+      </c>
+      <c r="P61">
+        <v>1.49520802</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1971</v>
+      </c>
+      <c r="B62">
+        <v>94584</v>
+      </c>
+      <c r="C62">
+        <v>182</v>
+      </c>
+      <c r="D62">
+        <v>1.9242160000000001E-3</v>
+      </c>
+      <c r="E62">
+        <v>2.5403779999999998E-3</v>
+      </c>
+      <c r="G62">
+        <v>1971</v>
+      </c>
+      <c r="H62">
+        <v>7572</v>
+      </c>
+      <c r="I62">
+        <v>26</v>
+      </c>
+      <c r="J62">
+        <v>3.4337030000000002E-3</v>
+      </c>
+      <c r="K62">
+        <v>3.8528799999999999E-3</v>
+      </c>
+      <c r="M62">
+        <v>1.7844690969999999</v>
+      </c>
+      <c r="P62">
+        <v>1.5166564920000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1972</v>
+      </c>
+      <c r="B63">
+        <v>100096</v>
+      </c>
+      <c r="C63">
+        <v>156</v>
+      </c>
+      <c r="D63">
+        <v>1.5585040000000001E-3</v>
+      </c>
+      <c r="E63">
+        <v>2.2045350000000001E-3</v>
+      </c>
+      <c r="G63">
+        <v>1972</v>
+      </c>
+      <c r="H63">
+        <v>8166</v>
+      </c>
+      <c r="I63">
+        <v>25</v>
+      </c>
+      <c r="J63">
+        <v>3.0614739999999998E-3</v>
+      </c>
+      <c r="K63">
+        <v>3.7507370000000001E-3</v>
+      </c>
+      <c r="M63">
+        <v>1.9643675780000001</v>
+      </c>
+      <c r="P63">
+        <v>1.7013731590000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1973</v>
+      </c>
+      <c r="B64">
+        <v>110520</v>
+      </c>
+      <c r="C64">
+        <v>165</v>
+      </c>
+      <c r="D64">
+        <v>1.4929419999999999E-3</v>
+      </c>
+      <c r="E64">
+        <v>1.9272650000000001E-3</v>
+      </c>
+      <c r="G64">
+        <v>1973</v>
+      </c>
+      <c r="H64">
+        <v>8537</v>
+      </c>
+      <c r="I64">
+        <v>19</v>
+      </c>
+      <c r="J64">
+        <v>2.2256060000000002E-3</v>
+      </c>
+      <c r="K64">
+        <v>3.1461140000000002E-3</v>
+      </c>
+      <c r="M64">
+        <v>1.4907514879999999</v>
+      </c>
+      <c r="P64">
+        <v>1.632423717</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1974</v>
+      </c>
+      <c r="B65">
+        <v>118006</v>
+      </c>
+      <c r="C65">
+        <v>171</v>
+      </c>
+      <c r="D65">
+        <v>1.449079E-3</v>
+      </c>
+      <c r="E65">
+        <v>1.7176719999999999E-3</v>
+      </c>
+      <c r="G65">
+        <v>1974</v>
+      </c>
+      <c r="H65">
+        <v>9190</v>
+      </c>
+      <c r="I65">
+        <v>25</v>
+      </c>
+      <c r="J65">
+        <v>2.720348E-3</v>
+      </c>
+      <c r="K65">
+        <v>2.8768130000000002E-3</v>
+      </c>
+      <c r="M65">
+        <v>1.877294797</v>
+      </c>
+      <c r="P65">
+        <v>1.6748331809999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1975</v>
+      </c>
+      <c r="B66">
+        <v>116804</v>
+      </c>
+      <c r="C66">
+        <v>130</v>
+      </c>
+      <c r="D66">
+        <v>1.1129759999999999E-3</v>
+      </c>
+      <c r="E66">
+        <v>1.488861E-3</v>
+      </c>
+      <c r="G66">
+        <v>1975</v>
+      </c>
+      <c r="H66">
+        <v>8686</v>
+      </c>
+      <c r="I66">
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <v>1.381534E-3</v>
+      </c>
+      <c r="K66">
+        <v>2.5384930000000002E-3</v>
+      </c>
+      <c r="M66">
+        <v>1.2412972250000001</v>
+      </c>
+      <c r="P66">
+        <v>1.7049892639999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1976</v>
+      </c>
+      <c r="B67">
+        <v>113236</v>
+      </c>
+      <c r="C67">
+        <v>138</v>
+      </c>
+      <c r="D67">
+        <v>1.218694E-3</v>
+      </c>
+      <c r="E67">
+        <v>1.3603930000000001E-3</v>
+      </c>
+      <c r="G67">
+        <v>1976</v>
+      </c>
+      <c r="H67">
+        <v>8657</v>
+      </c>
+      <c r="I67">
+        <v>15</v>
+      </c>
+      <c r="J67">
+        <v>1.732702E-3</v>
+      </c>
+      <c r="K67">
+        <v>2.220372E-3</v>
+      </c>
+      <c r="M67">
+        <v>1.421769767</v>
+      </c>
+      <c r="P67">
+        <v>1.6321544910000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1977</v>
+      </c>
+      <c r="B68">
+        <v>109281</v>
+      </c>
+      <c r="C68">
+        <v>106</v>
+      </c>
+      <c r="D68">
+        <v>9.69976E-4</v>
+      </c>
+      <c r="E68">
+        <v>1.250337E-3</v>
+      </c>
+      <c r="G68">
+        <v>1977</v>
+      </c>
+      <c r="H68">
+        <v>8567</v>
+      </c>
+      <c r="I68">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <v>1.634178E-3</v>
+      </c>
+      <c r="K68">
+        <v>1.947888E-3</v>
+      </c>
+      <c r="M68">
+        <v>1.6847600819999999</v>
+      </c>
+      <c r="P68">
+        <v>1.5578908520000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1978</v>
+      </c>
+      <c r="B69">
+        <v>106369</v>
+      </c>
+      <c r="C69">
+        <v>97</v>
+      </c>
+      <c r="D69">
+        <v>9.1191999999999998E-4</v>
+      </c>
+      <c r="E69">
+        <v>1.138912E-3</v>
+      </c>
+      <c r="G69">
+        <v>1978</v>
+      </c>
+      <c r="H69">
+        <v>8352</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>1.197318E-3</v>
+      </c>
+      <c r="K69">
+        <v>1.7490559999999999E-3</v>
+      </c>
+      <c r="M69">
+        <v>1.312964115</v>
+      </c>
+      <c r="P69">
+        <v>1.535726033</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1979</v>
+      </c>
+      <c r="B70">
+        <v>101779</v>
+      </c>
+      <c r="C70">
+        <v>98</v>
+      </c>
+      <c r="D70">
+        <v>9.6287100000000002E-4</v>
+      </c>
+      <c r="E70">
+        <v>1.039328E-3</v>
+      </c>
+      <c r="G70">
+        <v>1979</v>
+      </c>
+      <c r="H70">
+        <v>8057</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>6.2057799999999999E-4</v>
+      </c>
+      <c r="K70">
+        <v>1.323283E-3</v>
+      </c>
+      <c r="M70">
+        <v>0.64450864100000005</v>
+      </c>
+      <c r="P70">
+        <v>1.273209576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1980</v>
+      </c>
+      <c r="B71">
+        <v>91218</v>
+      </c>
+      <c r="C71">
+        <v>84</v>
+      </c>
+      <c r="D71">
+        <v>9.2087099999999997E-4</v>
+      </c>
+      <c r="E71">
+        <v>1.0021400000000001E-3</v>
+      </c>
+      <c r="G71">
+        <v>1980</v>
+      </c>
+      <c r="H71">
+        <v>7087</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>1.128827E-3</v>
+      </c>
+      <c r="K71">
+        <v>1.2770139999999999E-3</v>
+      </c>
+      <c r="M71">
+        <v>1.225825959</v>
+      </c>
+      <c r="P71">
+        <v>1.2742863639999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1981</v>
+      </c>
+      <c r="B72">
+        <v>84206</v>
+      </c>
+      <c r="C72">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>6.8878699999999995E-4</v>
+      </c>
+      <c r="E72">
+        <v>8.9884800000000005E-4</v>
+      </c>
+      <c r="G72">
+        <v>1981</v>
+      </c>
+      <c r="H72">
+        <v>6657</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>1.2017429999999999E-3</v>
+      </c>
+      <c r="K72">
+        <v>1.16219E-3</v>
+      </c>
+      <c r="M72">
+        <v>1.744722952</v>
+      </c>
+      <c r="P72">
+        <v>1.2929771299999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1982</v>
+      </c>
+      <c r="B73">
+        <v>81310</v>
+      </c>
+      <c r="C73">
+        <v>58</v>
+      </c>
+      <c r="D73">
+        <v>7.1331900000000002E-4</v>
+      </c>
+      <c r="E73">
+        <v>8.4967799999999998E-4</v>
+      </c>
+      <c r="G73">
+        <v>1982</v>
+      </c>
+      <c r="H73">
+        <v>6440</v>
+      </c>
+      <c r="I73">
+        <v>9</v>
+      </c>
+      <c r="J73">
+        <v>1.3975159999999999E-3</v>
+      </c>
+      <c r="K73">
+        <v>1.093105E-3</v>
+      </c>
+      <c r="M73">
+        <v>1.9591722</v>
+      </c>
+      <c r="P73">
+        <v>1.286493543</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1983</v>
+      </c>
+      <c r="B74">
+        <v>78274</v>
+      </c>
+      <c r="C74">
+        <v>47</v>
+      </c>
+      <c r="D74">
+        <v>6.0045499999999996E-4</v>
+      </c>
+      <c r="E74">
+        <v>7.8985899999999996E-4</v>
+      </c>
+      <c r="G74">
+        <v>1983</v>
+      </c>
+      <c r="H74">
+        <v>6137</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>6.5178399999999998E-4</v>
+      </c>
+      <c r="K74">
+        <v>9.8900500000000005E-4</v>
+      </c>
+      <c r="M74">
+        <v>1.0854842790000001</v>
+      </c>
+      <c r="P74">
+        <v>1.2521285520000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1984</v>
+      </c>
+      <c r="B75">
+        <v>77175</v>
+      </c>
+      <c r="C75">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>6.4787799999999995E-4</v>
+      </c>
+      <c r="E75">
+        <v>7.2055399999999999E-4</v>
+      </c>
+      <c r="G75">
+        <v>1984</v>
+      </c>
+      <c r="H75">
+        <v>6053</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>8.2603699999999995E-4</v>
+      </c>
+      <c r="K75">
+        <v>1.0502249999999999E-3</v>
+      </c>
+      <c r="M75">
+        <v>1.2749876090000001</v>
+      </c>
+      <c r="P75">
+        <v>1.4575255659999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1985</v>
+      </c>
+      <c r="B76">
+        <v>76034</v>
+      </c>
+      <c r="C76">
+        <v>51</v>
+      </c>
+      <c r="D76">
+        <v>6.7075299999999995E-4</v>
+      </c>
+      <c r="E76">
+        <v>6.6498900000000005E-4</v>
+      </c>
+      <c r="G76">
+        <v>1985</v>
+      </c>
+      <c r="H76">
+        <v>5813</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>6.8811299999999996E-4</v>
+      </c>
+      <c r="K76">
+        <v>9.6462999999999996E-4</v>
+      </c>
+      <c r="M76">
+        <v>1.025881813</v>
+      </c>
+      <c r="P76">
+        <v>1.4505955859999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1986</v>
+      </c>
+      <c r="B77">
+        <v>74066</v>
+      </c>
+      <c r="C77">
+        <v>33</v>
+      </c>
+      <c r="D77">
+        <v>4.45549E-4</v>
+      </c>
+      <c r="E77">
+        <v>6.1779599999999999E-4</v>
+      </c>
+      <c r="G77">
+        <v>1986</v>
+      </c>
+      <c r="H77">
+        <v>5851</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>3.4182199999999998E-4</v>
+      </c>
+      <c r="K77">
+        <v>7.9223599999999998E-4</v>
+      </c>
+      <c r="M77">
+        <v>0.76719338299999995</v>
+      </c>
+      <c r="P77">
+        <v>1.2823584109999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1987</v>
+      </c>
+      <c r="B78">
+        <v>72437</v>
+      </c>
+      <c r="C78">
+        <v>35</v>
+      </c>
+      <c r="D78">
+        <v>4.8317800000000001E-4</v>
+      </c>
+      <c r="E78">
+        <v>5.7145000000000004E-4</v>
+      </c>
+      <c r="G78">
+        <v>1987</v>
+      </c>
+      <c r="H78">
+        <v>5696</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>7.0224700000000003E-4</v>
+      </c>
+      <c r="K78">
+        <v>6.42978E-4</v>
+      </c>
+      <c r="M78">
+        <v>1.453390851</v>
+      </c>
+      <c r="P78">
+        <v>1.125169831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1988</v>
+      </c>
+      <c r="B79">
+        <v>72590</v>
+      </c>
+      <c r="C79">
+        <v>27</v>
+      </c>
+      <c r="D79">
+        <v>3.7195199999999999E-4</v>
+      </c>
+      <c r="E79">
+        <v>5.2645399999999998E-4</v>
+      </c>
+      <c r="G79">
+        <v>1988</v>
+      </c>
+      <c r="H79">
+        <v>5474</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>5.4804500000000004E-4</v>
+      </c>
+      <c r="K79">
+        <v>6.2311799999999998E-4</v>
+      </c>
+      <c r="M79">
+        <v>1.473429952</v>
+      </c>
+      <c r="P79">
+        <v>1.1836120050000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1989</v>
+      </c>
+      <c r="B80">
+        <v>69823</v>
+      </c>
+      <c r="C80">
+        <v>36</v>
+      </c>
+      <c r="D80">
+        <v>5.15589E-4</v>
+      </c>
+      <c r="E80">
+        <v>4.98698E-4</v>
+      </c>
+      <c r="G80">
+        <v>1989</v>
+      </c>
+      <c r="H80">
+        <v>5203</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>7.6878700000000005E-4</v>
+      </c>
+      <c r="K80">
+        <v>6.0634199999999995E-4</v>
+      </c>
+      <c r="M80">
+        <v>1.4910842040000001</v>
+      </c>
+      <c r="P80">
+        <v>1.2158482100000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1990</v>
+      </c>
+      <c r="B81">
+        <v>70427</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>4.2597300000000001E-4</v>
+      </c>
+      <c r="E81">
+        <v>4.4804000000000003E-4</v>
+      </c>
+      <c r="G81">
+        <v>1990</v>
+      </c>
+      <c r="H81">
+        <v>5430</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>9.2080999999999999E-4</v>
+      </c>
+      <c r="K81">
+        <v>6.5090000000000005E-4</v>
+      </c>
+      <c r="M81">
+        <v>2.161663597</v>
+      </c>
+      <c r="P81">
+        <v>1.452773334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1991</v>
+      </c>
+      <c r="B82">
+        <v>68539</v>
+      </c>
+      <c r="C82">
+        <v>27</v>
+      </c>
+      <c r="D82">
+        <v>3.93936E-4</v>
+      </c>
+      <c r="E82">
+        <v>4.38081E-4</v>
+      </c>
+      <c r="G82">
+        <v>1991</v>
+      </c>
+      <c r="H82">
+        <v>5415</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>3.6934400000000002E-4</v>
+      </c>
+      <c r="K82">
+        <v>6.6132699999999997E-4</v>
+      </c>
+      <c r="M82">
+        <v>0.93757395399999999</v>
+      </c>
+      <c r="P82">
+        <v>1.5096006200000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1992</v>
+      </c>
+      <c r="B83">
+        <v>63550</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>2.36035E-4</v>
+      </c>
+      <c r="E83">
+        <v>3.9138500000000001E-4</v>
+      </c>
+      <c r="G83">
+        <v>1992</v>
+      </c>
+      <c r="H83">
+        <v>5432</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1.8409399999999999E-4</v>
+      </c>
+      <c r="K83">
+        <v>5.5650399999999998E-4</v>
+      </c>
+      <c r="M83">
+        <v>0.77994599899999995</v>
+      </c>
+      <c r="P83">
+        <v>1.421883373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>1993</v>
+      </c>
+      <c r="B84">
+        <v>63528</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>1.8889300000000001E-4</v>
+      </c>
+      <c r="E84">
+        <v>3.5728399999999998E-4</v>
+      </c>
+      <c r="G84">
+        <v>1993</v>
+      </c>
+      <c r="H84">
+        <v>5347</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>3.7404199999999999E-4</v>
+      </c>
+      <c r="K84">
+        <v>5.21862E-4</v>
+      </c>
+      <c r="M84">
+        <v>1.9801758</v>
+      </c>
+      <c r="P84">
+        <v>1.460636051</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1994</v>
+      </c>
+      <c r="B85">
+        <v>57124</v>
+      </c>
+      <c r="C85">
+        <v>19</v>
+      </c>
+      <c r="D85">
+        <v>3.3261E-4</v>
+      </c>
+      <c r="E85">
+        <v>3.1871999999999998E-4</v>
+      </c>
+      <c r="G85">
+        <v>1994</v>
+      </c>
+      <c r="H85">
+        <v>4757</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>6.3064999999999996E-4</v>
+      </c>
+      <c r="K85">
+        <v>4.9277900000000005E-4</v>
+      </c>
+      <c r="M85">
+        <v>1.8960645249999999</v>
+      </c>
+      <c r="P85">
+        <v>1.5461200930000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1995</v>
+      </c>
+      <c r="B86">
+        <v>52774</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>3.4107700000000001E-4</v>
+      </c>
+      <c r="E86">
+        <v>2.9785800000000002E-4</v>
+      </c>
+      <c r="G86">
+        <v>1995</v>
+      </c>
+      <c r="H86">
+        <v>4199</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>7.1445600000000003E-4</v>
+      </c>
+      <c r="K86">
+        <v>4.3737600000000001E-4</v>
+      </c>
+      <c r="M86">
+        <v>2.0947050890000001</v>
+      </c>
+      <c r="P86">
+        <v>1.468404955</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1996</v>
+      </c>
+      <c r="B87">
+        <v>50170</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>3.1891599999999998E-4</v>
+      </c>
+      <c r="E87">
+        <v>2.78604E-4</v>
+      </c>
+      <c r="G87">
+        <v>1996</v>
+      </c>
+      <c r="H87">
+        <v>4025</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>9.9378899999999991E-4</v>
+      </c>
+      <c r="K87">
+        <v>5.4713799999999996E-4</v>
+      </c>
+      <c r="M87">
+        <v>3.1161490679999999</v>
+      </c>
+      <c r="P87">
+        <v>1.963856271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1997</v>
+      </c>
+      <c r="B88">
+        <v>51113</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>2.93467E-4</v>
+      </c>
+      <c r="E88">
+        <v>2.9121699999999997E-4</v>
+      </c>
+      <c r="G88">
+        <v>1997</v>
+      </c>
+      <c r="H88">
+        <v>3977</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>7.54337E-4</v>
+      </c>
+      <c r="K88">
+        <v>6.7249499999999995E-4</v>
+      </c>
+      <c r="M88">
+        <v>2.5704299719999999</v>
+      </c>
+      <c r="P88">
+        <v>2.3092552120000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1998</v>
+      </c>
+      <c r="B89">
+        <v>51415</v>
+      </c>
+      <c r="C89">
+        <v>17</v>
+      </c>
+      <c r="D89">
+        <v>3.3064299999999999E-4</v>
+      </c>
+      <c r="E89">
+        <v>3.2369099999999997E-4</v>
+      </c>
+      <c r="G89">
+        <v>1998</v>
+      </c>
+      <c r="H89">
+        <v>3820</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>5.2355999999999995E-4</v>
+      </c>
+      <c r="K89">
+        <v>7.2191699999999998E-4</v>
+      </c>
+      <c r="M89">
+        <v>1.583461657</v>
+      </c>
+      <c r="P89">
+        <v>2.2302661750000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1999</v>
+      </c>
+      <c r="B90">
+        <v>51303</v>
+      </c>
+      <c r="C90">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>4.0933300000000001E-4</v>
+      </c>
+      <c r="E90">
+        <v>3.3881800000000001E-4</v>
+      </c>
+      <c r="G90">
+        <v>1999</v>
+      </c>
+      <c r="H90">
+        <v>3801</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>5.2617699999999996E-4</v>
+      </c>
+      <c r="K90">
+        <v>7.0628599999999998E-4</v>
+      </c>
+      <c r="M90">
+        <v>1.285451197</v>
+      </c>
+      <c r="P90">
+        <v>2.0845583159999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2000</v>
+      </c>
+      <c r="B91">
+        <v>53216</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>3.5703500000000001E-4</v>
+      </c>
+      <c r="E91">
+        <v>3.4212400000000002E-4</v>
+      </c>
+      <c r="G91">
+        <v>2000</v>
+      </c>
+      <c r="H91">
+        <v>3898</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>1.0261669999999999E-3</v>
+      </c>
+      <c r="K91">
+        <v>7.6840299999999997E-4</v>
+      </c>
+      <c r="M91">
+        <v>2.874132484</v>
+      </c>
+      <c r="P91">
+        <v>2.2459815999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2001</v>
+      </c>
+      <c r="B92">
+        <v>54213</v>
+      </c>
+      <c r="C92">
+        <v>22</v>
+      </c>
+      <c r="D92">
+        <v>4.05807E-4</v>
+      </c>
+      <c r="E92">
+        <v>3.5979499999999999E-4</v>
+      </c>
+      <c r="G92">
+        <v>2001</v>
+      </c>
+      <c r="H92">
+        <v>3543</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>2.8224700000000001E-4</v>
+      </c>
+      <c r="K92">
+        <v>6.3028499999999996E-4</v>
+      </c>
+      <c r="M92">
+        <v>0.69551997499999996</v>
+      </c>
+      <c r="P92">
+        <v>1.7517905579999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2002</v>
+      </c>
+      <c r="B93">
+        <v>56004</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>2.8569400000000002E-4</v>
+      </c>
+      <c r="E93">
+        <v>3.5693999999999998E-4</v>
+      </c>
+      <c r="G93">
+        <v>2002</v>
+      </c>
+      <c r="H93">
+        <v>3160</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>3.1645600000000001E-4</v>
+      </c>
+      <c r="K93">
+        <v>5.4878700000000002E-4</v>
+      </c>
+      <c r="M93">
+        <v>1.107674051</v>
+      </c>
+      <c r="P93">
+        <v>1.537476388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2003</v>
+      </c>
+      <c r="B94">
+        <v>57968</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>3.45018E-4</v>
+      </c>
+      <c r="E94">
+        <v>3.5936399999999998E-4</v>
+      </c>
+      <c r="G94">
+        <v>2003</v>
+      </c>
+      <c r="H94">
+        <v>2020</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2004</v>
+      </c>
+      <c r="B95">
+        <v>59035</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>1.52452E-4</v>
+      </c>
+      <c r="E95">
+        <v>3.0666500000000002E-4</v>
+      </c>
+      <c r="G95">
+        <v>2004</v>
+      </c>
+      <c r="H95">
+        <v>1373</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2005</v>
+      </c>
+      <c r="B96">
+        <v>57690</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>1.7333999999999999E-4</v>
+      </c>
+      <c r="E96">
+        <v>2.7026099999999999E-4</v>
+      </c>
+      <c r="G96">
+        <v>2005</v>
+      </c>
+      <c r="H96">
+        <v>1250</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2006</v>
+      </c>
+      <c r="B97">
+        <v>52666</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>1.8987600000000001E-4</v>
+      </c>
+      <c r="E97">
+        <v>2.2938799999999999E-4</v>
+      </c>
+      <c r="G97">
+        <v>2006</v>
+      </c>
+      <c r="H97">
+        <v>1005</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2007</v>
+      </c>
+      <c r="B98">
+        <v>48582</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>1.0291899999999999E-4</v>
+      </c>
+      <c r="E98">
+        <v>1.95694E-4</v>
+      </c>
+      <c r="G98">
+        <v>2007</v>
+      </c>
+      <c r="H98">
+        <v>1009</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2008</v>
+      </c>
+      <c r="B99">
+        <v>45162</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>1.54998E-4</v>
+      </c>
+      <c r="E99">
+        <v>1.55814E-4</v>
+      </c>
+      <c r="G99">
+        <v>2008</v>
+      </c>
+      <c r="H99">
+        <v>937</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2009</v>
+      </c>
+      <c r="B100">
+        <v>33243</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>2009</v>
+      </c>
+      <c r="H100">
+        <v>751</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2010</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2011</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2012</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2013</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2014</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2015</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2016</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="1">
+        <v>5313824</v>
+      </c>
+      <c r="C108" s="1">
+        <v>49859</v>
+      </c>
+      <c r="D108" s="1">
+        <v>9.3828850000000005E-3</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1">
+        <v>496643</v>
+      </c>
+      <c r="I108" s="1">
+        <v>9498</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1.9124400999999999E-2</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1">
+        <v>2.0382218299999999</v>
+      </c>
+      <c r="O108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F430EF45-2729-4C48-96C0-97D857084911}">
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23:P95"/>
     </sheetView>
   </sheetViews>
@@ -11333,3812 +15139,6 @@
       <c r="M113" s="1">
         <f t="shared" si="15"/>
         <v>2.2534916329536414</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U110"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:M108"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1912</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1912</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1913</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1914</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1915</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.25</v>
-      </c>
-      <c r="G6">
-        <v>1915</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1916</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.75</v>
-      </c>
-      <c r="G7">
-        <v>1916</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1917</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0.27272727299999999</v>
-      </c>
-      <c r="G8">
-        <v>1917</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1918</v>
-      </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>1918</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1919</v>
-      </c>
-      <c r="B10">
-        <v>54</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>0.37037037</v>
-      </c>
-      <c r="G10">
-        <v>1919</v>
-      </c>
-      <c r="H10">
-        <v>13</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>0.46153846199999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1920</v>
-      </c>
-      <c r="B11">
-        <v>123</v>
-      </c>
-      <c r="C11">
-        <v>46</v>
-      </c>
-      <c r="D11">
-        <v>0.37398374000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.38571428600000002</v>
-      </c>
-      <c r="G11">
-        <v>1920</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-      <c r="K11">
-        <v>0.28205128200000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1921</v>
-      </c>
-      <c r="B12">
-        <v>247</v>
-      </c>
-      <c r="C12">
-        <v>84</v>
-      </c>
-      <c r="D12">
-        <v>0.34008097199999998</v>
-      </c>
-      <c r="E12">
-        <v>0.35761589399999999</v>
-      </c>
-      <c r="G12">
-        <v>1921</v>
-      </c>
-      <c r="H12">
-        <v>42</v>
-      </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="J12">
-        <v>0.35714285699999998</v>
-      </c>
-      <c r="K12">
-        <v>0.3125</v>
-      </c>
-      <c r="M12">
-        <v>1.0501700679999999</v>
-      </c>
-      <c r="P12">
-        <v>0.873842593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1922</v>
-      </c>
-      <c r="B13">
-        <v>414</v>
-      </c>
-      <c r="C13">
-        <v>136</v>
-      </c>
-      <c r="D13">
-        <v>0.32850241499999999</v>
-      </c>
-      <c r="E13">
-        <v>0.34462616800000001</v>
-      </c>
-      <c r="G13">
-        <v>1922</v>
-      </c>
-      <c r="H13">
-        <v>93</v>
-      </c>
-      <c r="I13">
-        <v>25</v>
-      </c>
-      <c r="J13">
-        <v>0.26881720399999998</v>
-      </c>
-      <c r="K13">
-        <v>0.29411764699999998</v>
-      </c>
-      <c r="M13">
-        <v>0.81831119500000005</v>
-      </c>
-      <c r="P13">
-        <v>0.85343968100000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1923</v>
-      </c>
-      <c r="B14">
-        <v>710</v>
-      </c>
-      <c r="C14">
-        <v>213</v>
-      </c>
-      <c r="D14">
-        <v>0.3</v>
-      </c>
-      <c r="E14">
-        <v>0.32235142100000003</v>
-      </c>
-      <c r="G14">
-        <v>1923</v>
-      </c>
-      <c r="H14">
-        <v>139</v>
-      </c>
-      <c r="I14">
-        <v>35</v>
-      </c>
-      <c r="J14">
-        <v>0.25179856099999998</v>
-      </c>
-      <c r="K14">
-        <v>0.276872964</v>
-      </c>
-      <c r="M14">
-        <v>0.83932853699999999</v>
-      </c>
-      <c r="P14">
-        <v>0.85891653000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1924</v>
-      </c>
-      <c r="B15">
-        <v>1047</v>
-      </c>
-      <c r="C15">
-        <v>296</v>
-      </c>
-      <c r="D15">
-        <v>0.28271251200000003</v>
-      </c>
-      <c r="E15">
-        <v>0.30499803199999997</v>
-      </c>
-      <c r="G15">
-        <v>1924</v>
-      </c>
-      <c r="H15">
-        <v>258</v>
-      </c>
-      <c r="I15">
-        <v>85</v>
-      </c>
-      <c r="J15">
-        <v>0.32945736399999997</v>
-      </c>
-      <c r="K15">
-        <v>0.29710144900000002</v>
-      </c>
-      <c r="M15">
-        <v>1.1653441229999999</v>
-      </c>
-      <c r="P15">
-        <v>0.97410939699999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1925</v>
-      </c>
-      <c r="B16">
-        <v>1559</v>
-      </c>
-      <c r="C16">
-        <v>386</v>
-      </c>
-      <c r="D16">
-        <v>0.24759461199999999</v>
-      </c>
-      <c r="E16">
-        <v>0.28036208200000001</v>
-      </c>
-      <c r="G16">
-        <v>1925</v>
-      </c>
-      <c r="H16">
-        <v>320</v>
-      </c>
-      <c r="I16">
-        <v>86</v>
-      </c>
-      <c r="J16">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="K16">
-        <v>0.288732394</v>
-      </c>
-      <c r="M16">
-        <v>1.085443653</v>
-      </c>
-      <c r="P16">
-        <v>1.029855365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1926</v>
-      </c>
-      <c r="B17">
-        <v>2387</v>
-      </c>
-      <c r="C17">
-        <v>595</v>
-      </c>
-      <c r="D17">
-        <v>0.24926686200000001</v>
-      </c>
-      <c r="E17">
-        <v>0.265816577</v>
-      </c>
-      <c r="G17">
-        <v>1926</v>
-      </c>
-      <c r="H17">
-        <v>467</v>
-      </c>
-      <c r="I17">
-        <v>138</v>
-      </c>
-      <c r="J17">
-        <v>0.29550321200000002</v>
-      </c>
-      <c r="K17">
-        <v>0.28895849600000001</v>
-      </c>
-      <c r="M17">
-        <v>1.1854893559999999</v>
-      </c>
-      <c r="P17">
-        <v>1.0870597310000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1927</v>
-      </c>
-      <c r="B18">
-        <v>3303</v>
-      </c>
-      <c r="C18">
-        <v>781</v>
-      </c>
-      <c r="D18">
-        <v>0.23645171100000001</v>
-      </c>
-      <c r="E18">
-        <v>0.25216522299999999</v>
-      </c>
-      <c r="G18">
-        <v>1927</v>
-      </c>
-      <c r="H18">
-        <v>667</v>
-      </c>
-      <c r="I18">
-        <v>159</v>
-      </c>
-      <c r="J18">
-        <v>0.23838081</v>
-      </c>
-      <c r="K18">
-        <v>0.27174500299999998</v>
-      </c>
-      <c r="M18">
-        <v>1.008158533</v>
-      </c>
-      <c r="P18">
-        <v>1.077646629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1928</v>
-      </c>
-      <c r="B19">
-        <v>4653</v>
-      </c>
-      <c r="C19">
-        <v>902</v>
-      </c>
-      <c r="D19">
-        <v>0.19385342799999999</v>
-      </c>
-      <c r="E19">
-        <v>0.22858908</v>
-      </c>
-      <c r="G19">
-        <v>1928</v>
-      </c>
-      <c r="H19">
-        <v>888</v>
-      </c>
-      <c r="I19">
-        <v>187</v>
-      </c>
-      <c r="J19">
-        <v>0.21058558599999999</v>
-      </c>
-      <c r="K19">
-        <v>0.251923077</v>
-      </c>
-      <c r="M19">
-        <v>1.0863134480000001</v>
-      </c>
-      <c r="P19">
-        <v>1.1020783519999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1929</v>
-      </c>
-      <c r="B20">
-        <v>6172</v>
-      </c>
-      <c r="C20">
-        <v>1098</v>
-      </c>
-      <c r="D20">
-        <v>0.17790019400000001</v>
-      </c>
-      <c r="E20">
-        <v>0.20814429600000001</v>
-      </c>
-      <c r="G20">
-        <v>1929</v>
-      </c>
-      <c r="H20">
-        <v>1175</v>
-      </c>
-      <c r="I20">
-        <v>242</v>
-      </c>
-      <c r="J20">
-        <v>0.20595744699999999</v>
-      </c>
-      <c r="K20">
-        <v>0.23087858999999999</v>
-      </c>
-      <c r="M20">
-        <v>1.1577134440000001</v>
-      </c>
-      <c r="P20">
-        <v>1.1092237190000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1930</v>
-      </c>
-      <c r="B21">
-        <v>8601</v>
-      </c>
-      <c r="C21">
-        <v>1339</v>
-      </c>
-      <c r="D21">
-        <v>0.15567957199999999</v>
-      </c>
-      <c r="E21">
-        <v>0.18772893800000001</v>
-      </c>
-      <c r="G21">
-        <v>1930</v>
-      </c>
-      <c r="H21">
-        <v>1531</v>
-      </c>
-      <c r="I21">
-        <v>288</v>
-      </c>
-      <c r="J21">
-        <v>0.18811234499999999</v>
-      </c>
-      <c r="K21">
-        <v>0.21446700499999999</v>
-      </c>
-      <c r="M21">
-        <v>1.208330305</v>
-      </c>
-      <c r="P21">
-        <v>1.1424291200000001</v>
-      </c>
-      <c r="R21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1931</v>
-      </c>
-      <c r="B22">
-        <v>10558</v>
-      </c>
-      <c r="C22">
-        <v>1429</v>
-      </c>
-      <c r="D22">
-        <v>0.13534760400000001</v>
-      </c>
-      <c r="E22">
-        <v>0.166701715</v>
-      </c>
-      <c r="G22">
-        <v>1931</v>
-      </c>
-      <c r="H22">
-        <v>1916</v>
-      </c>
-      <c r="I22">
-        <v>297</v>
-      </c>
-      <c r="J22">
-        <v>0.155010438</v>
-      </c>
-      <c r="K22">
-        <v>0.18989800900000001</v>
-      </c>
-      <c r="M22">
-        <v>1.1452765629999999</v>
-      </c>
-      <c r="P22">
-        <v>1.139148498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1932</v>
-      </c>
-      <c r="B23">
-        <v>13035</v>
-      </c>
-      <c r="C23">
-        <v>1604</v>
-      </c>
-      <c r="D23">
-        <v>0.12305331799999999</v>
-      </c>
-      <c r="E23">
-        <v>0.14812059799999999</v>
-      </c>
-      <c r="G23">
-        <v>1932</v>
-      </c>
-      <c r="H23">
-        <v>2151</v>
-      </c>
-      <c r="I23">
-        <v>316</v>
-      </c>
-      <c r="J23">
-        <v>0.14690841499999999</v>
-      </c>
-      <c r="K23">
-        <v>0.17360657900000001</v>
-      </c>
-      <c r="M23">
-        <v>1.1938598410000001</v>
-      </c>
-      <c r="P23">
-        <v>1.172062369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1933</v>
-      </c>
-      <c r="B24">
-        <v>14653</v>
-      </c>
-      <c r="C24">
-        <v>1571</v>
-      </c>
-      <c r="D24">
-        <v>0.10721354</v>
-      </c>
-      <c r="E24">
-        <v>0.13280144899999999</v>
-      </c>
-      <c r="G24">
-        <v>1933</v>
-      </c>
-      <c r="H24">
-        <v>2562</v>
-      </c>
-      <c r="I24">
-        <v>342</v>
-      </c>
-      <c r="J24">
-        <v>0.133489461</v>
-      </c>
-      <c r="K24">
-        <v>0.159078736</v>
-      </c>
-      <c r="M24">
-        <v>1.245080253</v>
-      </c>
-      <c r="P24">
-        <v>1.1978689819999999</v>
-      </c>
-      <c r="R24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>1934</v>
-      </c>
-      <c r="B25">
-        <v>16938</v>
-      </c>
-      <c r="C25">
-        <v>1631</v>
-      </c>
-      <c r="D25">
-        <v>9.6292359999999994E-2</v>
-      </c>
-      <c r="E25">
-        <v>0.118742651</v>
-      </c>
-      <c r="G25">
-        <v>1934</v>
-      </c>
-      <c r="H25">
-        <v>2641</v>
-      </c>
-      <c r="I25">
-        <v>313</v>
-      </c>
-      <c r="J25">
-        <v>0.11851571399999999</v>
-      </c>
-      <c r="K25">
-        <v>0.144060735</v>
-      </c>
-      <c r="M25">
-        <v>1.23079041</v>
-      </c>
-      <c r="P25">
-        <v>1.2132181129999999</v>
-      </c>
-      <c r="T25" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1935</v>
-      </c>
-      <c r="B26">
-        <v>19362</v>
-      </c>
-      <c r="C26">
-        <v>1591</v>
-      </c>
-      <c r="D26">
-        <v>8.2171262999999994E-2</v>
-      </c>
-      <c r="E26">
-        <v>0.10498215900000001</v>
-      </c>
-      <c r="G26">
-        <v>1935</v>
-      </c>
-      <c r="H26">
-        <v>2740</v>
-      </c>
-      <c r="I26">
-        <v>314</v>
-      </c>
-      <c r="J26">
-        <v>0.11459854</v>
-      </c>
-      <c r="K26">
-        <v>0.13172356399999999</v>
-      </c>
-      <c r="M26">
-        <v>1.3946303799999999</v>
-      </c>
-      <c r="P26">
-        <v>1.25472333</v>
-      </c>
-      <c r="R26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T26">
-        <v>420903</v>
-      </c>
-      <c r="U26">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>1936</v>
-      </c>
-      <c r="B27">
-        <v>21565</v>
-      </c>
-      <c r="C27">
-        <v>1560</v>
-      </c>
-      <c r="D27">
-        <v>7.2339439000000005E-2</v>
-      </c>
-      <c r="E27">
-        <v>9.3006673999999998E-2</v>
-      </c>
-      <c r="G27">
-        <v>1936</v>
-      </c>
-      <c r="H27">
-        <v>3041</v>
-      </c>
-      <c r="I27">
-        <v>295</v>
-      </c>
-      <c r="J27">
-        <v>9.7007563000000005E-2</v>
-      </c>
-      <c r="K27">
-        <v>0.120289303</v>
-      </c>
-      <c r="M27">
-        <v>1.3410051940000001</v>
-      </c>
-      <c r="P27">
-        <v>1.2933405520000001</v>
-      </c>
-      <c r="R27" t="s">
-        <v>12</v>
-      </c>
-      <c r="T27">
-        <v>4808</v>
-      </c>
-      <c r="U27">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1937</v>
-      </c>
-      <c r="B28">
-        <v>24067</v>
-      </c>
-      <c r="C28">
-        <v>1523</v>
-      </c>
-      <c r="D28">
-        <v>6.3281671999999997E-2</v>
-      </c>
-      <c r="E28">
-        <v>8.1544752999999998E-2</v>
-      </c>
-      <c r="G28">
-        <v>1937</v>
-      </c>
-      <c r="H28">
-        <v>3409</v>
-      </c>
-      <c r="I28">
-        <v>281</v>
-      </c>
-      <c r="J28">
-        <v>8.2428865000000004E-2</v>
-      </c>
-      <c r="K28">
-        <v>0.10734384800000001</v>
-      </c>
-      <c r="M28">
-        <v>1.3025709050000001</v>
-      </c>
-      <c r="P28">
-        <v>1.316379575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>1938</v>
-      </c>
-      <c r="B29">
-        <v>27694</v>
-      </c>
-      <c r="C29">
-        <v>1642</v>
-      </c>
-      <c r="D29">
-        <v>5.9290821E-2</v>
-      </c>
-      <c r="E29">
-        <v>7.2491926999999998E-2</v>
-      </c>
-      <c r="G29">
-        <v>1938</v>
-      </c>
-      <c r="H29">
-        <v>4015</v>
-      </c>
-      <c r="I29">
-        <v>290</v>
-      </c>
-      <c r="J29">
-        <v>7.2229140999999997E-2</v>
-      </c>
-      <c r="K29">
-        <v>9.4219361000000001E-2</v>
-      </c>
-      <c r="M29">
-        <v>1.218217919</v>
-      </c>
-      <c r="P29">
-        <v>1.299722123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>1939</v>
-      </c>
-      <c r="B30">
-        <v>31223</v>
-      </c>
-      <c r="C30">
-        <v>1639</v>
-      </c>
-      <c r="D30">
-        <v>5.2493353999999999E-2</v>
-      </c>
-      <c r="E30">
-        <v>6.4199303999999999E-2</v>
-      </c>
-      <c r="G30">
-        <v>1939</v>
-      </c>
-      <c r="H30">
-        <v>4183</v>
-      </c>
-      <c r="I30">
-        <v>279</v>
-      </c>
-      <c r="J30">
-        <v>6.6698542E-2</v>
-      </c>
-      <c r="K30">
-        <v>8.3908442999999999E-2</v>
-      </c>
-      <c r="M30">
-        <v>1.270609254</v>
-      </c>
-      <c r="P30">
-        <v>1.3069992500000001</v>
-      </c>
-      <c r="R30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>1940</v>
-      </c>
-      <c r="B31">
-        <v>38045</v>
-      </c>
-      <c r="C31">
-        <v>1731</v>
-      </c>
-      <c r="D31">
-        <v>4.5498750999999997E-2</v>
-      </c>
-      <c r="E31">
-        <v>5.6769569999999998E-2</v>
-      </c>
-      <c r="G31">
-        <v>1940</v>
-      </c>
-      <c r="H31">
-        <v>4756</v>
-      </c>
-      <c r="I31">
-        <v>306</v>
-      </c>
-      <c r="J31">
-        <v>6.4339780999999999E-2</v>
-      </c>
-      <c r="K31">
-        <v>7.4778395999999997E-2</v>
-      </c>
-      <c r="M31">
-        <v>1.414099931</v>
-      </c>
-      <c r="P31">
-        <v>1.3172267609999999</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>1941</v>
-      </c>
-      <c r="B32">
-        <v>35586</v>
-      </c>
-      <c r="C32">
-        <v>1509</v>
-      </c>
-      <c r="D32">
-        <v>4.2404315999999997E-2</v>
-      </c>
-      <c r="E32">
-        <v>5.1361618999999997E-2</v>
-      </c>
-      <c r="G32">
-        <v>1941</v>
-      </c>
-      <c r="H32">
-        <v>6779</v>
-      </c>
-      <c r="I32">
-        <v>376</v>
-      </c>
-      <c r="J32">
-        <v>5.5465408000000001E-2</v>
-      </c>
-      <c r="K32">
-        <v>6.6199983000000004E-2</v>
-      </c>
-      <c r="M32">
-        <v>1.308013257</v>
-      </c>
-      <c r="P32">
-        <v>1.2888998380000001</v>
-      </c>
-      <c r="R32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>1942</v>
-      </c>
-      <c r="B33">
-        <v>39371</v>
-      </c>
-      <c r="C33">
-        <v>1490</v>
-      </c>
-      <c r="D33">
-        <v>3.7845113999999999E-2</v>
-      </c>
-      <c r="E33">
-        <v>4.6597526E-2</v>
-      </c>
-      <c r="G33">
-        <v>1942</v>
-      </c>
-      <c r="H33">
-        <v>7623</v>
-      </c>
-      <c r="I33">
-        <v>326</v>
-      </c>
-      <c r="J33">
-        <v>4.2765314999999998E-2</v>
-      </c>
-      <c r="K33">
-        <v>5.7647316999999997E-2</v>
-      </c>
-      <c r="M33">
-        <v>1.1300088829999999</v>
-      </c>
-      <c r="P33">
-        <v>1.237132576</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1943</v>
-      </c>
-      <c r="B34">
-        <v>46531</v>
-      </c>
-      <c r="C34">
-        <v>1584</v>
-      </c>
-      <c r="D34">
-        <v>3.4041821999999999E-2</v>
-      </c>
-      <c r="E34">
-        <v>4.1692003999999998E-2</v>
-      </c>
-      <c r="G34">
-        <v>1943</v>
-      </c>
-      <c r="H34">
-        <v>8982</v>
-      </c>
-      <c r="I34">
-        <v>358</v>
-      </c>
-      <c r="J34">
-        <v>3.9857493000000001E-2</v>
-      </c>
-      <c r="K34">
-        <v>5.0892553E-2</v>
-      </c>
-      <c r="M34">
-        <v>1.1708390120000001</v>
-      </c>
-      <c r="P34">
-        <v>1.2206789760000001</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>1944</v>
-      </c>
-      <c r="B35">
-        <v>50073</v>
-      </c>
-      <c r="C35">
-        <v>1545</v>
-      </c>
-      <c r="D35">
-        <v>3.0854952000000001E-2</v>
-      </c>
-      <c r="E35">
-        <v>3.7494156000000001E-2</v>
-      </c>
-      <c r="G35">
-        <v>1944</v>
-      </c>
-      <c r="H35">
-        <v>9783</v>
-      </c>
-      <c r="I35">
-        <v>348</v>
-      </c>
-      <c r="J35">
-        <v>3.5571909999999998E-2</v>
-      </c>
-      <c r="K35">
-        <v>4.5196845999999999E-2</v>
-      </c>
-      <c r="M35">
-        <v>1.152875257</v>
-      </c>
-      <c r="P35">
-        <v>1.205437098</v>
-      </c>
-      <c r="R35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>1945</v>
-      </c>
-      <c r="B36">
-        <v>49846</v>
-      </c>
-      <c r="C36">
-        <v>1408</v>
-      </c>
-      <c r="D36">
-        <v>2.8247001000000001E-2</v>
-      </c>
-      <c r="E36">
-        <v>3.4036864E-2</v>
-      </c>
-      <c r="G36">
-        <v>1945</v>
-      </c>
-      <c r="H36">
-        <v>9636</v>
-      </c>
-      <c r="I36">
-        <v>313</v>
-      </c>
-      <c r="J36">
-        <v>3.2482358000000003E-2</v>
-      </c>
-      <c r="K36">
-        <v>4.0207461999999999E-2</v>
-      </c>
-      <c r="M36">
-        <v>1.1499400630000001</v>
-      </c>
-      <c r="P36">
-        <v>1.181291608</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>1946</v>
-      </c>
-      <c r="B37">
-        <v>65083</v>
-      </c>
-      <c r="C37">
-        <v>1692</v>
-      </c>
-      <c r="D37">
-        <v>2.5997572E-2</v>
-      </c>
-      <c r="E37">
-        <v>3.0764755000000001E-2</v>
-      </c>
-      <c r="G37">
-        <v>1946</v>
-      </c>
-      <c r="H37">
-        <v>11917</v>
-      </c>
-      <c r="I37">
-        <v>379</v>
-      </c>
-      <c r="J37">
-        <v>3.1803306000000003E-2</v>
-      </c>
-      <c r="K37">
-        <v>3.5960868999999999E-2</v>
-      </c>
-      <c r="M37">
-        <v>1.2233183080000001</v>
-      </c>
-      <c r="P37">
-        <v>1.1688982729999999</v>
-      </c>
-      <c r="R37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>1947</v>
-      </c>
-      <c r="B38">
-        <v>69763</v>
-      </c>
-      <c r="C38">
-        <v>1519</v>
-      </c>
-      <c r="D38">
-        <v>2.177372E-2</v>
-      </c>
-      <c r="E38">
-        <v>2.7543939E-2</v>
-      </c>
-      <c r="G38">
-        <v>1947</v>
-      </c>
-      <c r="H38">
-        <v>12235</v>
-      </c>
-      <c r="I38">
-        <v>331</v>
-      </c>
-      <c r="J38">
-        <v>2.7053535E-2</v>
-      </c>
-      <c r="K38">
-        <v>3.2900119999999998E-2</v>
-      </c>
-      <c r="M38">
-        <v>1.2424856870000001</v>
-      </c>
-      <c r="P38">
-        <v>1.194459489</v>
-      </c>
-      <c r="R38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>1948</v>
-      </c>
-      <c r="B39">
-        <v>69209</v>
-      </c>
-      <c r="C39">
-        <v>1487</v>
-      </c>
-      <c r="D39">
-        <v>2.1485645000000001E-2</v>
-      </c>
-      <c r="E39">
-        <v>2.5169916000000001E-2</v>
-      </c>
-      <c r="G39">
-        <v>1948</v>
-      </c>
-      <c r="H39">
-        <v>11680</v>
-      </c>
-      <c r="I39">
-        <v>297</v>
-      </c>
-      <c r="J39">
-        <v>2.5428082000000001E-2</v>
-      </c>
-      <c r="K39">
-        <v>3.0189499000000002E-2</v>
-      </c>
-      <c r="M39">
-        <v>1.1834916879999999</v>
-      </c>
-      <c r="P39">
-        <v>1.1994278810000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>1949</v>
-      </c>
-      <c r="B40">
-        <v>69106</v>
-      </c>
-      <c r="C40">
-        <v>1265</v>
-      </c>
-      <c r="D40">
-        <v>1.8305212000000001E-2</v>
-      </c>
-      <c r="E40">
-        <v>2.2819939000000001E-2</v>
-      </c>
-      <c r="G40">
-        <v>1949</v>
-      </c>
-      <c r="H40">
-        <v>11157</v>
-      </c>
-      <c r="I40">
-        <v>236</v>
-      </c>
-      <c r="J40">
-        <v>2.115264E-2</v>
-      </c>
-      <c r="K40">
-        <v>2.7479028999999999E-2</v>
-      </c>
-      <c r="M40">
-        <v>1.1555528159999999</v>
-      </c>
-      <c r="P40">
-        <v>1.204167497</v>
-      </c>
-      <c r="R40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>1950</v>
-      </c>
-      <c r="B41">
-        <v>72779</v>
-      </c>
-      <c r="C41">
-        <v>1201</v>
-      </c>
-      <c r="D41">
-        <v>1.6502012999999999E-2</v>
-      </c>
-      <c r="E41">
-        <v>2.0708793E-2</v>
-      </c>
-      <c r="G41">
-        <v>1950</v>
-      </c>
-      <c r="H41">
-        <v>11948</v>
-      </c>
-      <c r="I41">
-        <v>260</v>
-      </c>
-      <c r="J41">
-        <v>2.1760964000000001E-2</v>
-      </c>
-      <c r="K41">
-        <v>2.5501807000000001E-2</v>
-      </c>
-      <c r="M41">
-        <v>1.318685439</v>
-      </c>
-      <c r="P41">
-        <v>1.23144823</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>1951</v>
-      </c>
-      <c r="B42">
-        <v>78707</v>
-      </c>
-      <c r="C42">
-        <v>1263</v>
-      </c>
-      <c r="D42">
-        <v>1.6046857000000001E-2</v>
-      </c>
-      <c r="E42">
-        <v>1.8731019000000002E-2</v>
-      </c>
-      <c r="G42">
-        <v>1951</v>
-      </c>
-      <c r="H42">
-        <v>10576</v>
-      </c>
-      <c r="I42">
-        <v>230</v>
-      </c>
-      <c r="J42">
-        <v>2.1747352000000001E-2</v>
-      </c>
-      <c r="K42">
-        <v>2.3508576999999999E-2</v>
-      </c>
-      <c r="M42">
-        <v>1.355240596</v>
-      </c>
-      <c r="P42">
-        <v>1.2550613180000001</v>
-      </c>
-      <c r="R42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>1952</v>
-      </c>
-      <c r="B43">
-        <v>83865</v>
-      </c>
-      <c r="C43">
-        <v>1109</v>
-      </c>
-      <c r="D43">
-        <v>1.3223633E-2</v>
-      </c>
-      <c r="E43">
-        <v>1.6926881000000001E-2</v>
-      </c>
-      <c r="G43">
-        <v>1952</v>
-      </c>
-      <c r="H43">
-        <v>9352</v>
-      </c>
-      <c r="I43">
-        <v>192</v>
-      </c>
-      <c r="J43">
-        <v>2.0530368E-2</v>
-      </c>
-      <c r="K43">
-        <v>2.2206788000000002E-2</v>
-      </c>
-      <c r="M43">
-        <v>1.5525512159999999</v>
-      </c>
-      <c r="P43">
-        <v>1.31192438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>1953</v>
-      </c>
-      <c r="B44">
-        <v>84084</v>
-      </c>
-      <c r="C44">
-        <v>1045</v>
-      </c>
-      <c r="D44">
-        <v>1.2428048000000001E-2</v>
-      </c>
-      <c r="E44">
-        <v>1.5141259000000001E-2</v>
-      </c>
-      <c r="G44">
-        <v>1953</v>
-      </c>
-      <c r="H44">
-        <v>9154</v>
-      </c>
-      <c r="I44">
-        <v>182</v>
-      </c>
-      <c r="J44">
-        <v>1.9882019000000001E-2</v>
-      </c>
-      <c r="K44">
-        <v>2.1078046E-2</v>
-      </c>
-      <c r="M44">
-        <v>1.599770017</v>
-      </c>
-      <c r="P44">
-        <v>1.392093349</v>
-      </c>
-      <c r="R44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>1954</v>
-      </c>
-      <c r="B45">
-        <v>85381</v>
-      </c>
-      <c r="C45">
-        <v>951</v>
-      </c>
-      <c r="D45">
-        <v>1.1138309000000001E-2</v>
-      </c>
-      <c r="E45">
-        <v>1.3756867000000001E-2</v>
-      </c>
-      <c r="G45">
-        <v>1954</v>
-      </c>
-      <c r="H45">
-        <v>8978</v>
-      </c>
-      <c r="I45">
-        <v>146</v>
-      </c>
-      <c r="J45">
-        <v>1.6261973999999998E-2</v>
-      </c>
-      <c r="K45">
-        <v>2.0196769E-2</v>
-      </c>
-      <c r="M45">
-        <v>1.4600037619999999</v>
-      </c>
-      <c r="P45">
-        <v>1.4681226510000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>1955</v>
-      </c>
-      <c r="B46">
-        <v>86254</v>
-      </c>
-      <c r="C46">
-        <v>910</v>
-      </c>
-      <c r="D46">
-        <v>1.0550235E-2</v>
-      </c>
-      <c r="E46">
-        <v>1.2618010000000001E-2</v>
-      </c>
-      <c r="G46">
-        <v>1955</v>
-      </c>
-      <c r="H46">
-        <v>8781</v>
-      </c>
-      <c r="I46">
-        <v>150</v>
-      </c>
-      <c r="J46">
-        <v>1.7082337E-2</v>
-      </c>
-      <c r="K46">
-        <v>1.9213937E-2</v>
-      </c>
-      <c r="M46">
-        <v>1.619142729</v>
-      </c>
-      <c r="P46">
-        <v>1.5227390519999999</v>
-      </c>
-      <c r="R46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>1956</v>
-      </c>
-      <c r="B47">
-        <v>86127</v>
-      </c>
-      <c r="C47">
-        <v>793</v>
-      </c>
-      <c r="D47">
-        <v>9.2073329999999998E-3</v>
-      </c>
-      <c r="E47">
-        <v>1.1294047E-2</v>
-      </c>
-      <c r="G47">
-        <v>1956</v>
-      </c>
-      <c r="H47">
-        <v>8400</v>
-      </c>
-      <c r="I47">
-        <v>112</v>
-      </c>
-      <c r="J47">
-        <v>1.3333332999999999E-2</v>
-      </c>
-      <c r="K47">
-        <v>1.7508116000000001E-2</v>
-      </c>
-      <c r="M47">
-        <v>1.448121059</v>
-      </c>
-      <c r="P47">
-        <v>1.550207479</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>1957</v>
-      </c>
-      <c r="B48">
-        <v>84138</v>
-      </c>
-      <c r="C48">
-        <v>703</v>
-      </c>
-      <c r="D48">
-        <v>8.3553210000000006E-3</v>
-      </c>
-      <c r="E48">
-        <v>1.0333721000000001E-2</v>
-      </c>
-      <c r="G48">
-        <v>1957</v>
-      </c>
-      <c r="H48">
-        <v>7794</v>
-      </c>
-      <c r="I48">
-        <v>96</v>
-      </c>
-      <c r="J48">
-        <v>1.2317167E-2</v>
-      </c>
-      <c r="K48">
-        <v>1.5913889000000001E-2</v>
-      </c>
-      <c r="M48">
-        <v>1.474170414</v>
-      </c>
-      <c r="P48">
-        <v>1.539995902</v>
-      </c>
-      <c r="R48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>1958</v>
-      </c>
-      <c r="B49">
-        <v>78639</v>
-      </c>
-      <c r="C49">
-        <v>566</v>
-      </c>
-      <c r="D49">
-        <v>7.197447E-3</v>
-      </c>
-      <c r="E49">
-        <v>9.3285050000000008E-3</v>
-      </c>
-      <c r="G49">
-        <v>1958</v>
-      </c>
-      <c r="H49">
-        <v>7243</v>
-      </c>
-      <c r="I49">
-        <v>88</v>
-      </c>
-      <c r="J49">
-        <v>1.2149662E-2</v>
-      </c>
-      <c r="K49">
-        <v>1.4370327E-2</v>
-      </c>
-      <c r="M49">
-        <v>1.6880516780000001</v>
-      </c>
-      <c r="P49">
-        <v>1.5404749010000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>1959</v>
-      </c>
-      <c r="B50">
-        <v>72984</v>
-      </c>
-      <c r="C50">
-        <v>478</v>
-      </c>
-      <c r="D50">
-        <v>6.549381E-3</v>
-      </c>
-      <c r="E50">
-        <v>8.4529400000000008E-3</v>
-      </c>
-      <c r="G50">
-        <v>1959</v>
-      </c>
-      <c r="H50">
-        <v>6716</v>
-      </c>
-      <c r="I50">
-        <v>70</v>
-      </c>
-      <c r="J50">
-        <v>1.0422871E-2</v>
-      </c>
-      <c r="K50">
-        <v>1.3253198000000001E-2</v>
-      </c>
-      <c r="M50">
-        <v>1.59142845</v>
-      </c>
-      <c r="P50">
-        <v>1.567880181</v>
-      </c>
-      <c r="R50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>1960</v>
-      </c>
-      <c r="B51">
-        <v>73516</v>
-      </c>
-      <c r="C51">
-        <v>423</v>
-      </c>
-      <c r="D51">
-        <v>5.7538499999999996E-3</v>
-      </c>
-      <c r="E51">
-        <v>7.4936009999999999E-3</v>
-      </c>
-      <c r="G51">
-        <v>1960</v>
-      </c>
-      <c r="H51">
-        <v>6842</v>
-      </c>
-      <c r="I51">
-        <v>61</v>
-      </c>
-      <c r="J51">
-        <v>8.9155220000000004E-3</v>
-      </c>
-      <c r="K51">
-        <v>1.15421E-2</v>
-      </c>
-      <c r="M51">
-        <v>1.549488177</v>
-      </c>
-      <c r="P51">
-        <v>1.5402607559999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>1961</v>
-      </c>
-      <c r="B52">
-        <v>75388</v>
-      </c>
-      <c r="C52">
-        <v>414</v>
-      </c>
-      <c r="D52">
-        <v>5.4915900000000002E-3</v>
-      </c>
-      <c r="E52">
-        <v>6.7175330000000004E-3</v>
-      </c>
-      <c r="G52">
-        <v>1961</v>
-      </c>
-      <c r="H52">
-        <v>6886</v>
-      </c>
-      <c r="I52">
-        <v>54</v>
-      </c>
-      <c r="J52">
-        <v>7.8419979999999993E-3</v>
-      </c>
-      <c r="K52">
-        <v>1.0399932000000001E-2</v>
-      </c>
-      <c r="M52">
-        <v>1.428001364</v>
-      </c>
-      <c r="P52">
-        <v>1.548177237</v>
-      </c>
-      <c r="R52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>1962</v>
-      </c>
-      <c r="B53">
-        <v>77557</v>
-      </c>
-      <c r="C53">
-        <v>406</v>
-      </c>
-      <c r="D53">
-        <v>5.23486E-3</v>
-      </c>
-      <c r="E53">
-        <v>6.0489200000000002E-3</v>
-      </c>
-      <c r="G53">
-        <v>1962</v>
-      </c>
-      <c r="H53">
-        <v>6850</v>
-      </c>
-      <c r="I53">
-        <v>56</v>
-      </c>
-      <c r="J53">
-        <v>8.1751819999999996E-3</v>
-      </c>
-      <c r="K53">
-        <v>9.526016E-3</v>
-      </c>
-      <c r="M53">
-        <v>1.5616813490000001</v>
-      </c>
-      <c r="P53">
-        <v>1.5748290659999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>1963</v>
-      </c>
-      <c r="B54">
-        <v>86991</v>
-      </c>
-      <c r="C54">
-        <v>330</v>
-      </c>
-      <c r="D54">
-        <v>3.7934959999999999E-3</v>
-      </c>
-      <c r="E54">
-        <v>5.3074769999999997E-3</v>
-      </c>
-      <c r="G54">
-        <v>1963</v>
-      </c>
-      <c r="H54">
-        <v>7707</v>
-      </c>
-      <c r="I54">
-        <v>50</v>
-      </c>
-      <c r="J54">
-        <v>6.4876090000000001E-3</v>
-      </c>
-      <c r="K54">
-        <v>8.3140479999999992E-3</v>
-      </c>
-      <c r="M54">
-        <v>1.710192623</v>
-      </c>
-      <c r="P54">
-        <v>1.5664785560000001</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1964</v>
-      </c>
-      <c r="B55">
-        <v>90282</v>
-      </c>
-      <c r="C55">
-        <v>380</v>
-      </c>
-      <c r="D55">
-        <v>4.2090340000000004E-3</v>
-      </c>
-      <c r="E55">
-        <v>4.837343E-3</v>
-      </c>
-      <c r="G55">
-        <v>1964</v>
-      </c>
-      <c r="H55">
-        <v>7641</v>
-      </c>
-      <c r="I55">
-        <v>47</v>
-      </c>
-      <c r="J55">
-        <v>6.1510269999999999E-3</v>
-      </c>
-      <c r="K55">
-        <v>7.4597780000000002E-3</v>
-      </c>
-      <c r="M55">
-        <v>1.4613869770000001</v>
-      </c>
-      <c r="P55">
-        <v>1.5421229830000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>1965</v>
-      </c>
-      <c r="B56">
-        <v>86404</v>
-      </c>
-      <c r="C56">
-        <v>329</v>
-      </c>
-      <c r="D56">
-        <v>3.8076939999999999E-3</v>
-      </c>
-      <c r="E56">
-        <v>4.4620780000000004E-3</v>
-      </c>
-      <c r="G56">
-        <v>1965</v>
-      </c>
-      <c r="H56">
-        <v>7284</v>
-      </c>
-      <c r="I56">
-        <v>44</v>
-      </c>
-      <c r="J56">
-        <v>6.0406369999999997E-3</v>
-      </c>
-      <c r="K56">
-        <v>6.9016720000000002E-3</v>
-      </c>
-      <c r="M56">
-        <v>1.586429181</v>
-      </c>
-      <c r="P56">
-        <v>1.546739273</v>
-      </c>
-      <c r="R56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>1966</v>
-      </c>
-      <c r="B57">
-        <v>82953</v>
-      </c>
-      <c r="C57">
-        <v>270</v>
-      </c>
-      <c r="D57">
-        <v>3.2548550000000001E-3</v>
-      </c>
-      <c r="E57">
-        <v>4.0430279999999997E-3</v>
-      </c>
-      <c r="G57">
-        <v>1966</v>
-      </c>
-      <c r="H57">
-        <v>7294</v>
-      </c>
-      <c r="I57">
-        <v>38</v>
-      </c>
-      <c r="J57">
-        <v>5.2097610000000003E-3</v>
-      </c>
-      <c r="K57">
-        <v>6.3900370000000003E-3</v>
-      </c>
-      <c r="M57">
-        <v>1.6006123750000001</v>
-      </c>
-      <c r="P57">
-        <v>1.580507648</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>1967</v>
-      </c>
-      <c r="B58">
-        <v>81794</v>
-      </c>
-      <c r="C58">
-        <v>262</v>
-      </c>
-      <c r="D58">
-        <v>3.2031690000000001E-3</v>
-      </c>
-      <c r="E58">
-        <v>3.6669279999999999E-3</v>
-      </c>
-      <c r="G58">
-        <v>1967</v>
-      </c>
-      <c r="H58">
-        <v>7436</v>
-      </c>
-      <c r="I58">
-        <v>26</v>
-      </c>
-      <c r="J58">
-        <v>3.4965030000000002E-3</v>
-      </c>
-      <c r="K58">
-        <v>5.4868579999999998E-3</v>
-      </c>
-      <c r="M58">
-        <v>1.0915763629999999</v>
-      </c>
-      <c r="P58">
-        <v>1.496309219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>1968</v>
-      </c>
-      <c r="B59">
-        <v>82035</v>
-      </c>
-      <c r="C59">
-        <v>236</v>
-      </c>
-      <c r="D59">
-        <v>2.8768209999999999E-3</v>
-      </c>
-      <c r="E59">
-        <v>3.487867E-3</v>
-      </c>
-      <c r="G59">
-        <v>1968</v>
-      </c>
-      <c r="H59">
-        <v>7085</v>
-      </c>
-      <c r="I59">
-        <v>37</v>
-      </c>
-      <c r="J59">
-        <v>5.2223010000000004E-3</v>
-      </c>
-      <c r="K59">
-        <v>5.2259120000000001E-3</v>
-      </c>
-      <c r="M59">
-        <v>1.8153026809999999</v>
-      </c>
-      <c r="P59">
-        <v>1.4983117290000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>1969</v>
-      </c>
-      <c r="B60">
-        <v>86487</v>
-      </c>
-      <c r="C60">
-        <v>218</v>
-      </c>
-      <c r="D60">
-        <v>2.52061E-3</v>
-      </c>
-      <c r="E60">
-        <v>3.133392E-3</v>
-      </c>
-      <c r="G60">
-        <v>1969</v>
-      </c>
-      <c r="H60">
-        <v>7298</v>
-      </c>
-      <c r="I60">
-        <v>30</v>
-      </c>
-      <c r="J60">
-        <v>4.110715E-3</v>
-      </c>
-      <c r="K60">
-        <v>4.8080889999999998E-3</v>
-      </c>
-      <c r="M60">
-        <v>1.630841427</v>
-      </c>
-      <c r="P60">
-        <v>1.534467649</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>1970</v>
-      </c>
-      <c r="B61">
-        <v>90862</v>
-      </c>
-      <c r="C61">
-        <v>209</v>
-      </c>
-      <c r="D61">
-        <v>2.300191E-3</v>
-      </c>
-      <c r="E61">
-        <v>2.8175259999999999E-3</v>
-      </c>
-      <c r="G61">
-        <v>1970</v>
-      </c>
-      <c r="H61">
-        <v>7205</v>
-      </c>
-      <c r="I61">
-        <v>22</v>
-      </c>
-      <c r="J61">
-        <v>3.0534350000000002E-3</v>
-      </c>
-      <c r="K61">
-        <v>4.212787E-3</v>
-      </c>
-      <c r="M61">
-        <v>1.3274699590000001</v>
-      </c>
-      <c r="P61">
-        <v>1.49520802</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>1971</v>
-      </c>
-      <c r="B62">
-        <v>94584</v>
-      </c>
-      <c r="C62">
-        <v>182</v>
-      </c>
-      <c r="D62">
-        <v>1.9242160000000001E-3</v>
-      </c>
-      <c r="E62">
-        <v>2.5403779999999998E-3</v>
-      </c>
-      <c r="G62">
-        <v>1971</v>
-      </c>
-      <c r="H62">
-        <v>7572</v>
-      </c>
-      <c r="I62">
-        <v>26</v>
-      </c>
-      <c r="J62">
-        <v>3.4337030000000002E-3</v>
-      </c>
-      <c r="K62">
-        <v>3.8528799999999999E-3</v>
-      </c>
-      <c r="M62">
-        <v>1.7844690969999999</v>
-      </c>
-      <c r="P62">
-        <v>1.5166564920000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>1972</v>
-      </c>
-      <c r="B63">
-        <v>100096</v>
-      </c>
-      <c r="C63">
-        <v>156</v>
-      </c>
-      <c r="D63">
-        <v>1.5585040000000001E-3</v>
-      </c>
-      <c r="E63">
-        <v>2.2045350000000001E-3</v>
-      </c>
-      <c r="G63">
-        <v>1972</v>
-      </c>
-      <c r="H63">
-        <v>8166</v>
-      </c>
-      <c r="I63">
-        <v>25</v>
-      </c>
-      <c r="J63">
-        <v>3.0614739999999998E-3</v>
-      </c>
-      <c r="K63">
-        <v>3.7507370000000001E-3</v>
-      </c>
-      <c r="M63">
-        <v>1.9643675780000001</v>
-      </c>
-      <c r="P63">
-        <v>1.7013731590000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>1973</v>
-      </c>
-      <c r="B64">
-        <v>110520</v>
-      </c>
-      <c r="C64">
-        <v>165</v>
-      </c>
-      <c r="D64">
-        <v>1.4929419999999999E-3</v>
-      </c>
-      <c r="E64">
-        <v>1.9272650000000001E-3</v>
-      </c>
-      <c r="G64">
-        <v>1973</v>
-      </c>
-      <c r="H64">
-        <v>8537</v>
-      </c>
-      <c r="I64">
-        <v>19</v>
-      </c>
-      <c r="J64">
-        <v>2.2256060000000002E-3</v>
-      </c>
-      <c r="K64">
-        <v>3.1461140000000002E-3</v>
-      </c>
-      <c r="M64">
-        <v>1.4907514879999999</v>
-      </c>
-      <c r="P64">
-        <v>1.632423717</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>1974</v>
-      </c>
-      <c r="B65">
-        <v>118006</v>
-      </c>
-      <c r="C65">
-        <v>171</v>
-      </c>
-      <c r="D65">
-        <v>1.449079E-3</v>
-      </c>
-      <c r="E65">
-        <v>1.7176719999999999E-3</v>
-      </c>
-      <c r="G65">
-        <v>1974</v>
-      </c>
-      <c r="H65">
-        <v>9190</v>
-      </c>
-      <c r="I65">
-        <v>25</v>
-      </c>
-      <c r="J65">
-        <v>2.720348E-3</v>
-      </c>
-      <c r="K65">
-        <v>2.8768130000000002E-3</v>
-      </c>
-      <c r="M65">
-        <v>1.877294797</v>
-      </c>
-      <c r="P65">
-        <v>1.6748331809999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>1975</v>
-      </c>
-      <c r="B66">
-        <v>116804</v>
-      </c>
-      <c r="C66">
-        <v>130</v>
-      </c>
-      <c r="D66">
-        <v>1.1129759999999999E-3</v>
-      </c>
-      <c r="E66">
-        <v>1.488861E-3</v>
-      </c>
-      <c r="G66">
-        <v>1975</v>
-      </c>
-      <c r="H66">
-        <v>8686</v>
-      </c>
-      <c r="I66">
-        <v>12</v>
-      </c>
-      <c r="J66">
-        <v>1.381534E-3</v>
-      </c>
-      <c r="K66">
-        <v>2.5384930000000002E-3</v>
-      </c>
-      <c r="M66">
-        <v>1.2412972250000001</v>
-      </c>
-      <c r="P66">
-        <v>1.7049892639999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>1976</v>
-      </c>
-      <c r="B67">
-        <v>113236</v>
-      </c>
-      <c r="C67">
-        <v>138</v>
-      </c>
-      <c r="D67">
-        <v>1.218694E-3</v>
-      </c>
-      <c r="E67">
-        <v>1.3603930000000001E-3</v>
-      </c>
-      <c r="G67">
-        <v>1976</v>
-      </c>
-      <c r="H67">
-        <v>8657</v>
-      </c>
-      <c r="I67">
-        <v>15</v>
-      </c>
-      <c r="J67">
-        <v>1.732702E-3</v>
-      </c>
-      <c r="K67">
-        <v>2.220372E-3</v>
-      </c>
-      <c r="M67">
-        <v>1.421769767</v>
-      </c>
-      <c r="P67">
-        <v>1.6321544910000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>1977</v>
-      </c>
-      <c r="B68">
-        <v>109281</v>
-      </c>
-      <c r="C68">
-        <v>106</v>
-      </c>
-      <c r="D68">
-        <v>9.69976E-4</v>
-      </c>
-      <c r="E68">
-        <v>1.250337E-3</v>
-      </c>
-      <c r="G68">
-        <v>1977</v>
-      </c>
-      <c r="H68">
-        <v>8567</v>
-      </c>
-      <c r="I68">
-        <v>14</v>
-      </c>
-      <c r="J68">
-        <v>1.634178E-3</v>
-      </c>
-      <c r="K68">
-        <v>1.947888E-3</v>
-      </c>
-      <c r="M68">
-        <v>1.6847600819999999</v>
-      </c>
-      <c r="P68">
-        <v>1.5578908520000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>1978</v>
-      </c>
-      <c r="B69">
-        <v>106369</v>
-      </c>
-      <c r="C69">
-        <v>97</v>
-      </c>
-      <c r="D69">
-        <v>9.1191999999999998E-4</v>
-      </c>
-      <c r="E69">
-        <v>1.138912E-3</v>
-      </c>
-      <c r="G69">
-        <v>1978</v>
-      </c>
-      <c r="H69">
-        <v>8352</v>
-      </c>
-      <c r="I69">
-        <v>10</v>
-      </c>
-      <c r="J69">
-        <v>1.197318E-3</v>
-      </c>
-      <c r="K69">
-        <v>1.7490559999999999E-3</v>
-      </c>
-      <c r="M69">
-        <v>1.312964115</v>
-      </c>
-      <c r="P69">
-        <v>1.535726033</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>1979</v>
-      </c>
-      <c r="B70">
-        <v>101779</v>
-      </c>
-      <c r="C70">
-        <v>98</v>
-      </c>
-      <c r="D70">
-        <v>9.6287100000000002E-4</v>
-      </c>
-      <c r="E70">
-        <v>1.039328E-3</v>
-      </c>
-      <c r="G70">
-        <v>1979</v>
-      </c>
-      <c r="H70">
-        <v>8057</v>
-      </c>
-      <c r="I70">
-        <v>5</v>
-      </c>
-      <c r="J70">
-        <v>6.2057799999999999E-4</v>
-      </c>
-      <c r="K70">
-        <v>1.323283E-3</v>
-      </c>
-      <c r="M70">
-        <v>0.64450864100000005</v>
-      </c>
-      <c r="P70">
-        <v>1.273209576</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>1980</v>
-      </c>
-      <c r="B71">
-        <v>91218</v>
-      </c>
-      <c r="C71">
-        <v>84</v>
-      </c>
-      <c r="D71">
-        <v>9.2087099999999997E-4</v>
-      </c>
-      <c r="E71">
-        <v>1.0021400000000001E-3</v>
-      </c>
-      <c r="G71">
-        <v>1980</v>
-      </c>
-      <c r="H71">
-        <v>7087</v>
-      </c>
-      <c r="I71">
-        <v>8</v>
-      </c>
-      <c r="J71">
-        <v>1.128827E-3</v>
-      </c>
-      <c r="K71">
-        <v>1.2770139999999999E-3</v>
-      </c>
-      <c r="M71">
-        <v>1.225825959</v>
-      </c>
-      <c r="P71">
-        <v>1.2742863639999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>1981</v>
-      </c>
-      <c r="B72">
-        <v>84206</v>
-      </c>
-      <c r="C72">
-        <v>58</v>
-      </c>
-      <c r="D72">
-        <v>6.8878699999999995E-4</v>
-      </c>
-      <c r="E72">
-        <v>8.9884800000000005E-4</v>
-      </c>
-      <c r="G72">
-        <v>1981</v>
-      </c>
-      <c r="H72">
-        <v>6657</v>
-      </c>
-      <c r="I72">
-        <v>8</v>
-      </c>
-      <c r="J72">
-        <v>1.2017429999999999E-3</v>
-      </c>
-      <c r="K72">
-        <v>1.16219E-3</v>
-      </c>
-      <c r="M72">
-        <v>1.744722952</v>
-      </c>
-      <c r="P72">
-        <v>1.2929771299999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>1982</v>
-      </c>
-      <c r="B73">
-        <v>81310</v>
-      </c>
-      <c r="C73">
-        <v>58</v>
-      </c>
-      <c r="D73">
-        <v>7.1331900000000002E-4</v>
-      </c>
-      <c r="E73">
-        <v>8.4967799999999998E-4</v>
-      </c>
-      <c r="G73">
-        <v>1982</v>
-      </c>
-      <c r="H73">
-        <v>6440</v>
-      </c>
-      <c r="I73">
-        <v>9</v>
-      </c>
-      <c r="J73">
-        <v>1.3975159999999999E-3</v>
-      </c>
-      <c r="K73">
-        <v>1.093105E-3</v>
-      </c>
-      <c r="M73">
-        <v>1.9591722</v>
-      </c>
-      <c r="P73">
-        <v>1.286493543</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>1983</v>
-      </c>
-      <c r="B74">
-        <v>78274</v>
-      </c>
-      <c r="C74">
-        <v>47</v>
-      </c>
-      <c r="D74">
-        <v>6.0045499999999996E-4</v>
-      </c>
-      <c r="E74">
-        <v>7.8985899999999996E-4</v>
-      </c>
-      <c r="G74">
-        <v>1983</v>
-      </c>
-      <c r="H74">
-        <v>6137</v>
-      </c>
-      <c r="I74">
-        <v>4</v>
-      </c>
-      <c r="J74">
-        <v>6.5178399999999998E-4</v>
-      </c>
-      <c r="K74">
-        <v>9.8900500000000005E-4</v>
-      </c>
-      <c r="M74">
-        <v>1.0854842790000001</v>
-      </c>
-      <c r="P74">
-        <v>1.2521285520000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>1984</v>
-      </c>
-      <c r="B75">
-        <v>77175</v>
-      </c>
-      <c r="C75">
-        <v>50</v>
-      </c>
-      <c r="D75">
-        <v>6.4787799999999995E-4</v>
-      </c>
-      <c r="E75">
-        <v>7.2055399999999999E-4</v>
-      </c>
-      <c r="G75">
-        <v>1984</v>
-      </c>
-      <c r="H75">
-        <v>6053</v>
-      </c>
-      <c r="I75">
-        <v>5</v>
-      </c>
-      <c r="J75">
-        <v>8.2603699999999995E-4</v>
-      </c>
-      <c r="K75">
-        <v>1.0502249999999999E-3</v>
-      </c>
-      <c r="M75">
-        <v>1.2749876090000001</v>
-      </c>
-      <c r="P75">
-        <v>1.4575255659999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>1985</v>
-      </c>
-      <c r="B76">
-        <v>76034</v>
-      </c>
-      <c r="C76">
-        <v>51</v>
-      </c>
-      <c r="D76">
-        <v>6.7075299999999995E-4</v>
-      </c>
-      <c r="E76">
-        <v>6.6498900000000005E-4</v>
-      </c>
-      <c r="G76">
-        <v>1985</v>
-      </c>
-      <c r="H76">
-        <v>5813</v>
-      </c>
-      <c r="I76">
-        <v>4</v>
-      </c>
-      <c r="J76">
-        <v>6.8811299999999996E-4</v>
-      </c>
-      <c r="K76">
-        <v>9.6462999999999996E-4</v>
-      </c>
-      <c r="M76">
-        <v>1.025881813</v>
-      </c>
-      <c r="P76">
-        <v>1.4505955859999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>1986</v>
-      </c>
-      <c r="B77">
-        <v>74066</v>
-      </c>
-      <c r="C77">
-        <v>33</v>
-      </c>
-      <c r="D77">
-        <v>4.45549E-4</v>
-      </c>
-      <c r="E77">
-        <v>6.1779599999999999E-4</v>
-      </c>
-      <c r="G77">
-        <v>1986</v>
-      </c>
-      <c r="H77">
-        <v>5851</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-      <c r="J77">
-        <v>3.4182199999999998E-4</v>
-      </c>
-      <c r="K77">
-        <v>7.9223599999999998E-4</v>
-      </c>
-      <c r="M77">
-        <v>0.76719338299999995</v>
-      </c>
-      <c r="P77">
-        <v>1.2823584109999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>1987</v>
-      </c>
-      <c r="B78">
-        <v>72437</v>
-      </c>
-      <c r="C78">
-        <v>35</v>
-      </c>
-      <c r="D78">
-        <v>4.8317800000000001E-4</v>
-      </c>
-      <c r="E78">
-        <v>5.7145000000000004E-4</v>
-      </c>
-      <c r="G78">
-        <v>1987</v>
-      </c>
-      <c r="H78">
-        <v>5696</v>
-      </c>
-      <c r="I78">
-        <v>4</v>
-      </c>
-      <c r="J78">
-        <v>7.0224700000000003E-4</v>
-      </c>
-      <c r="K78">
-        <v>6.42978E-4</v>
-      </c>
-      <c r="M78">
-        <v>1.453390851</v>
-      </c>
-      <c r="P78">
-        <v>1.125169831</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>1988</v>
-      </c>
-      <c r="B79">
-        <v>72590</v>
-      </c>
-      <c r="C79">
-        <v>27</v>
-      </c>
-      <c r="D79">
-        <v>3.7195199999999999E-4</v>
-      </c>
-      <c r="E79">
-        <v>5.2645399999999998E-4</v>
-      </c>
-      <c r="G79">
-        <v>1988</v>
-      </c>
-      <c r="H79">
-        <v>5474</v>
-      </c>
-      <c r="I79">
-        <v>3</v>
-      </c>
-      <c r="J79">
-        <v>5.4804500000000004E-4</v>
-      </c>
-      <c r="K79">
-        <v>6.2311799999999998E-4</v>
-      </c>
-      <c r="M79">
-        <v>1.473429952</v>
-      </c>
-      <c r="P79">
-        <v>1.1836120050000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>1989</v>
-      </c>
-      <c r="B80">
-        <v>69823</v>
-      </c>
-      <c r="C80">
-        <v>36</v>
-      </c>
-      <c r="D80">
-        <v>5.15589E-4</v>
-      </c>
-      <c r="E80">
-        <v>4.98698E-4</v>
-      </c>
-      <c r="G80">
-        <v>1989</v>
-      </c>
-      <c r="H80">
-        <v>5203</v>
-      </c>
-      <c r="I80">
-        <v>4</v>
-      </c>
-      <c r="J80">
-        <v>7.6878700000000005E-4</v>
-      </c>
-      <c r="K80">
-        <v>6.0634199999999995E-4</v>
-      </c>
-      <c r="M80">
-        <v>1.4910842040000001</v>
-      </c>
-      <c r="P80">
-        <v>1.2158482100000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>1990</v>
-      </c>
-      <c r="B81">
-        <v>70427</v>
-      </c>
-      <c r="C81">
-        <v>30</v>
-      </c>
-      <c r="D81">
-        <v>4.2597300000000001E-4</v>
-      </c>
-      <c r="E81">
-        <v>4.4804000000000003E-4</v>
-      </c>
-      <c r="G81">
-        <v>1990</v>
-      </c>
-      <c r="H81">
-        <v>5430</v>
-      </c>
-      <c r="I81">
-        <v>5</v>
-      </c>
-      <c r="J81">
-        <v>9.2080999999999999E-4</v>
-      </c>
-      <c r="K81">
-        <v>6.5090000000000005E-4</v>
-      </c>
-      <c r="M81">
-        <v>2.161663597</v>
-      </c>
-      <c r="P81">
-        <v>1.452773334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>1991</v>
-      </c>
-      <c r="B82">
-        <v>68539</v>
-      </c>
-      <c r="C82">
-        <v>27</v>
-      </c>
-      <c r="D82">
-        <v>3.93936E-4</v>
-      </c>
-      <c r="E82">
-        <v>4.38081E-4</v>
-      </c>
-      <c r="G82">
-        <v>1991</v>
-      </c>
-      <c r="H82">
-        <v>5415</v>
-      </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82">
-        <v>3.6934400000000002E-4</v>
-      </c>
-      <c r="K82">
-        <v>6.6132699999999997E-4</v>
-      </c>
-      <c r="M82">
-        <v>0.93757395399999999</v>
-      </c>
-      <c r="P82">
-        <v>1.5096006200000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>1992</v>
-      </c>
-      <c r="B83">
-        <v>63550</v>
-      </c>
-      <c r="C83">
-        <v>15</v>
-      </c>
-      <c r="D83">
-        <v>2.36035E-4</v>
-      </c>
-      <c r="E83">
-        <v>3.9138500000000001E-4</v>
-      </c>
-      <c r="G83">
-        <v>1992</v>
-      </c>
-      <c r="H83">
-        <v>5432</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1.8409399999999999E-4</v>
-      </c>
-      <c r="K83">
-        <v>5.5650399999999998E-4</v>
-      </c>
-      <c r="M83">
-        <v>0.77994599899999995</v>
-      </c>
-      <c r="P83">
-        <v>1.421883373</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>1993</v>
-      </c>
-      <c r="B84">
-        <v>63528</v>
-      </c>
-      <c r="C84">
-        <v>12</v>
-      </c>
-      <c r="D84">
-        <v>1.8889300000000001E-4</v>
-      </c>
-      <c r="E84">
-        <v>3.5728399999999998E-4</v>
-      </c>
-      <c r="G84">
-        <v>1993</v>
-      </c>
-      <c r="H84">
-        <v>5347</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84">
-        <v>3.7404199999999999E-4</v>
-      </c>
-      <c r="K84">
-        <v>5.21862E-4</v>
-      </c>
-      <c r="M84">
-        <v>1.9801758</v>
-      </c>
-      <c r="P84">
-        <v>1.460636051</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>1994</v>
-      </c>
-      <c r="B85">
-        <v>57124</v>
-      </c>
-      <c r="C85">
-        <v>19</v>
-      </c>
-      <c r="D85">
-        <v>3.3261E-4</v>
-      </c>
-      <c r="E85">
-        <v>3.1871999999999998E-4</v>
-      </c>
-      <c r="G85">
-        <v>1994</v>
-      </c>
-      <c r="H85">
-        <v>4757</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
-      </c>
-      <c r="J85">
-        <v>6.3064999999999996E-4</v>
-      </c>
-      <c r="K85">
-        <v>4.9277900000000005E-4</v>
-      </c>
-      <c r="M85">
-        <v>1.8960645249999999</v>
-      </c>
-      <c r="P85">
-        <v>1.5461200930000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>1995</v>
-      </c>
-      <c r="B86">
-        <v>52774</v>
-      </c>
-      <c r="C86">
-        <v>18</v>
-      </c>
-      <c r="D86">
-        <v>3.4107700000000001E-4</v>
-      </c>
-      <c r="E86">
-        <v>2.9785800000000002E-4</v>
-      </c>
-      <c r="G86">
-        <v>1995</v>
-      </c>
-      <c r="H86">
-        <v>4199</v>
-      </c>
-      <c r="I86">
-        <v>3</v>
-      </c>
-      <c r="J86">
-        <v>7.1445600000000003E-4</v>
-      </c>
-      <c r="K86">
-        <v>4.3737600000000001E-4</v>
-      </c>
-      <c r="M86">
-        <v>2.0947050890000001</v>
-      </c>
-      <c r="P86">
-        <v>1.468404955</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>1996</v>
-      </c>
-      <c r="B87">
-        <v>50170</v>
-      </c>
-      <c r="C87">
-        <v>16</v>
-      </c>
-      <c r="D87">
-        <v>3.1891599999999998E-4</v>
-      </c>
-      <c r="E87">
-        <v>2.78604E-4</v>
-      </c>
-      <c r="G87">
-        <v>1996</v>
-      </c>
-      <c r="H87">
-        <v>4025</v>
-      </c>
-      <c r="I87">
-        <v>4</v>
-      </c>
-      <c r="J87">
-        <v>9.9378899999999991E-4</v>
-      </c>
-      <c r="K87">
-        <v>5.4713799999999996E-4</v>
-      </c>
-      <c r="M87">
-        <v>3.1161490679999999</v>
-      </c>
-      <c r="P87">
-        <v>1.963856271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>1997</v>
-      </c>
-      <c r="B88">
-        <v>51113</v>
-      </c>
-      <c r="C88">
-        <v>15</v>
-      </c>
-      <c r="D88">
-        <v>2.93467E-4</v>
-      </c>
-      <c r="E88">
-        <v>2.9121699999999997E-4</v>
-      </c>
-      <c r="G88">
-        <v>1997</v>
-      </c>
-      <c r="H88">
-        <v>3977</v>
-      </c>
-      <c r="I88">
-        <v>3</v>
-      </c>
-      <c r="J88">
-        <v>7.54337E-4</v>
-      </c>
-      <c r="K88">
-        <v>6.7249499999999995E-4</v>
-      </c>
-      <c r="M88">
-        <v>2.5704299719999999</v>
-      </c>
-      <c r="P88">
-        <v>2.3092552120000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>1998</v>
-      </c>
-      <c r="B89">
-        <v>51415</v>
-      </c>
-      <c r="C89">
-        <v>17</v>
-      </c>
-      <c r="D89">
-        <v>3.3064299999999999E-4</v>
-      </c>
-      <c r="E89">
-        <v>3.2369099999999997E-4</v>
-      </c>
-      <c r="G89">
-        <v>1998</v>
-      </c>
-      <c r="H89">
-        <v>3820</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89">
-        <v>5.2355999999999995E-4</v>
-      </c>
-      <c r="K89">
-        <v>7.2191699999999998E-4</v>
-      </c>
-      <c r="M89">
-        <v>1.583461657</v>
-      </c>
-      <c r="P89">
-        <v>2.2302661750000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>1999</v>
-      </c>
-      <c r="B90">
-        <v>51303</v>
-      </c>
-      <c r="C90">
-        <v>21</v>
-      </c>
-      <c r="D90">
-        <v>4.0933300000000001E-4</v>
-      </c>
-      <c r="E90">
-        <v>3.3881800000000001E-4</v>
-      </c>
-      <c r="G90">
-        <v>1999</v>
-      </c>
-      <c r="H90">
-        <v>3801</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90">
-        <v>5.2617699999999996E-4</v>
-      </c>
-      <c r="K90">
-        <v>7.0628599999999998E-4</v>
-      </c>
-      <c r="M90">
-        <v>1.285451197</v>
-      </c>
-      <c r="P90">
-        <v>2.0845583159999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>2000</v>
-      </c>
-      <c r="B91">
-        <v>53216</v>
-      </c>
-      <c r="C91">
-        <v>19</v>
-      </c>
-      <c r="D91">
-        <v>3.5703500000000001E-4</v>
-      </c>
-      <c r="E91">
-        <v>3.4212400000000002E-4</v>
-      </c>
-      <c r="G91">
-        <v>2000</v>
-      </c>
-      <c r="H91">
-        <v>3898</v>
-      </c>
-      <c r="I91">
-        <v>4</v>
-      </c>
-      <c r="J91">
-        <v>1.0261669999999999E-3</v>
-      </c>
-      <c r="K91">
-        <v>7.6840299999999997E-4</v>
-      </c>
-      <c r="M91">
-        <v>2.874132484</v>
-      </c>
-      <c r="P91">
-        <v>2.2459815999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>2001</v>
-      </c>
-      <c r="B92">
-        <v>54213</v>
-      </c>
-      <c r="C92">
-        <v>22</v>
-      </c>
-      <c r="D92">
-        <v>4.05807E-4</v>
-      </c>
-      <c r="E92">
-        <v>3.5979499999999999E-4</v>
-      </c>
-      <c r="G92">
-        <v>2001</v>
-      </c>
-      <c r="H92">
-        <v>3543</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>2.8224700000000001E-4</v>
-      </c>
-      <c r="K92">
-        <v>6.3028499999999996E-4</v>
-      </c>
-      <c r="M92">
-        <v>0.69551997499999996</v>
-      </c>
-      <c r="P92">
-        <v>1.7517905579999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>2002</v>
-      </c>
-      <c r="B93">
-        <v>56004</v>
-      </c>
-      <c r="C93">
-        <v>16</v>
-      </c>
-      <c r="D93">
-        <v>2.8569400000000002E-4</v>
-      </c>
-      <c r="E93">
-        <v>3.5693999999999998E-4</v>
-      </c>
-      <c r="G93">
-        <v>2002</v>
-      </c>
-      <c r="H93">
-        <v>3160</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>3.1645600000000001E-4</v>
-      </c>
-      <c r="K93">
-        <v>5.4878700000000002E-4</v>
-      </c>
-      <c r="M93">
-        <v>1.107674051</v>
-      </c>
-      <c r="P93">
-        <v>1.537476388</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>2003</v>
-      </c>
-      <c r="B94">
-        <v>57968</v>
-      </c>
-      <c r="C94">
-        <v>20</v>
-      </c>
-      <c r="D94">
-        <v>3.45018E-4</v>
-      </c>
-      <c r="E94">
-        <v>3.5936399999999998E-4</v>
-      </c>
-      <c r="G94">
-        <v>2003</v>
-      </c>
-      <c r="H94">
-        <v>2020</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>2004</v>
-      </c>
-      <c r="B95">
-        <v>59035</v>
-      </c>
-      <c r="C95">
-        <v>9</v>
-      </c>
-      <c r="D95">
-        <v>1.52452E-4</v>
-      </c>
-      <c r="E95">
-        <v>3.0666500000000002E-4</v>
-      </c>
-      <c r="G95">
-        <v>2004</v>
-      </c>
-      <c r="H95">
-        <v>1373</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>2005</v>
-      </c>
-      <c r="B96">
-        <v>57690</v>
-      </c>
-      <c r="C96">
-        <v>10</v>
-      </c>
-      <c r="D96">
-        <v>1.7333999999999999E-4</v>
-      </c>
-      <c r="E96">
-        <v>2.7026099999999999E-4</v>
-      </c>
-      <c r="G96">
-        <v>2005</v>
-      </c>
-      <c r="H96">
-        <v>1250</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>2006</v>
-      </c>
-      <c r="B97">
-        <v>52666</v>
-      </c>
-      <c r="C97">
-        <v>10</v>
-      </c>
-      <c r="D97">
-        <v>1.8987600000000001E-4</v>
-      </c>
-      <c r="E97">
-        <v>2.2938799999999999E-4</v>
-      </c>
-      <c r="G97">
-        <v>2006</v>
-      </c>
-      <c r="H97">
-        <v>1005</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>2007</v>
-      </c>
-      <c r="B98">
-        <v>48582</v>
-      </c>
-      <c r="C98">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>1.0291899999999999E-4</v>
-      </c>
-      <c r="E98">
-        <v>1.95694E-4</v>
-      </c>
-      <c r="G98">
-        <v>2007</v>
-      </c>
-      <c r="H98">
-        <v>1009</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>2008</v>
-      </c>
-      <c r="B99">
-        <v>45162</v>
-      </c>
-      <c r="C99">
-        <v>7</v>
-      </c>
-      <c r="D99">
-        <v>1.54998E-4</v>
-      </c>
-      <c r="E99">
-        <v>1.55814E-4</v>
-      </c>
-      <c r="G99">
-        <v>2008</v>
-      </c>
-      <c r="H99">
-        <v>937</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>2009</v>
-      </c>
-      <c r="B100">
-        <v>33243</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>2009</v>
-      </c>
-      <c r="H100">
-        <v>751</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>2010</v>
-      </c>
-      <c r="B101">
-        <v>7</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>2011</v>
-      </c>
-      <c r="B102">
-        <v>7</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>2012</v>
-      </c>
-      <c r="B103">
-        <v>10</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>2013</v>
-      </c>
-      <c r="B104">
-        <v>5</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>2014</v>
-      </c>
-      <c r="B105">
-        <v>7</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>2015</v>
-      </c>
-      <c r="B106">
-        <v>9</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>2016</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="1">
-        <v>5313824</v>
-      </c>
-      <c r="C108" s="1">
-        <v>49859</v>
-      </c>
-      <c r="D108" s="1">
-        <v>9.3828850000000005E-3</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1">
-        <v>496643</v>
-      </c>
-      <c r="I108" s="1">
-        <v>9498</v>
-      </c>
-      <c r="J108" s="1">
-        <v>1.9124400999999999E-2</v>
-      </c>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1">
-        <v>2.0382218299999999</v>
-      </c>
-      <c r="O108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O110" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Pfizer v. Moderna mortality by age.xlsx
+++ b/analysis/Pfizer v. Moderna mortality by age.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\Czech\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E4AAC9-1FCC-4C8A-8AF9-5BFFB82834AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F383E6-948C-4924-B325-77520F2AC0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>Pfizer</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Died Within 1 Year</t>
-  </si>
-  <si>
-    <t>5 yr roll</t>
   </si>
   <si>
     <t>5 yr roll ratio</t>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>Overall, Moderna has double the death rate of pfizer over all ages</t>
   </si>
   <si>
     <t>To reduce noise, we can compute death rate ratio in ranges, e.g., 60 to 70, under 21, etc. That will reduce the statistical noise.</t>
@@ -260,6 +254,27 @@
   </si>
   <si>
     <t>But of course our result isn't a simpson's paradox because we computed the CMR ratios by single digit age groups and five year brackets and plotted it.</t>
+  </si>
+  <si>
+    <t>MR 5 yr roll</t>
+  </si>
+  <si>
+    <t># vaxxed</t>
+  </si>
+  <si>
+    <t>Died 1 yr</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Overall, Moderna has double the death rate of pfizer over all ages (ratio of CMR of each vaccine)</t>
+  </si>
+  <si>
+    <t>Let's look at the 5 year interval ages 65-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In lay terms, this means that for the 65-70 year olds, we are 95% certain that the absolute MR for Moderna was at least 40% </t>
   </si>
 </sst>
 </file>
@@ -850,14 +865,36 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>For every single age with &gt;300 death counts, Moderna is the more deadly vaccine. Even if Pfizer is a</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MRR=MR (Moderna)/MR (Pfizer)</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> placebo, you simply cannot give someone a vaccine which elevates their ACM by 50% or more. This is with 5 year smoothing.</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> computed for the 5 year age range beginning with the indicated age. Only ages with at least 10 deaths are shown.</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -893,14 +930,14 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -909,255 +946,390 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Combined Pfizer Moderna deaths '!$P$16:$P$93</c:f>
+              <c:f>'Combined Pfizer Moderna deaths '!$O$12:$O$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>1.029855365</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0870597310000001</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.077646629</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1020783519999999</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1092237190000001</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1424291200000001</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.139148498</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.172062369</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1978689819999999</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2132181129999999</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.25472333</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2933405520000001</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.316379575</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.299722123</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3069992500000001</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3172267609999999</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2888998380000001</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.237132576</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2206789760000001</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.205437098</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.181291608</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1688982729999999</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.194459489</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1994278810000001</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.204167497</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.23144823</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2550613180000001</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.31192438</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.392093349</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4681226510000001</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5227390519999999</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.550207479</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.539995902</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5404749010000001</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.567880181</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5402607559999999</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.548177237</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5748290659999999</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5664785560000001</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5421229830000001</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.546739273</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.580507648</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.496309219</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4983117290000001</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.534467649</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.49520802</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.5166564920000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7013731590000001</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.632423717</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6748331809999999</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7049892639999999</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6321544910000001</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5578908520000001</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.535726033</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.273209576</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2742863639999999</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2929771299999999</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.286493543</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.2521285520000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4575255659999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.4505955859999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.2823584109999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.125169831</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.1836120050000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.2158482100000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.452773334</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.5096006200000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.421883373</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.460636051</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.5461200930000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.468404955</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.963856271</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.3092552120000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2302661750000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.0845583159999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.2459815999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.7517905579999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.537476388</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Combined Pfizer Moderna deaths '!$P$12:$P$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0.87384259259259256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85343968095712863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85891653012866132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97410939691444587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0298553653761133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0870597312081187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0776466289420479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1020783523908524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1092237188641121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1425200919411533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1392511643584013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1721713494449717</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1979819478033131</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2133322357877112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2547906559679693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2933859043175493</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3163426345114595</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.299687526474238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3069662764257184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3171464261258579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.288862517818091</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2371593118751842</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2207307975813169</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2054770404181208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1813324466033817</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1689426817699649</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1945032018230821</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1994456162920979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2041857151932263</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2315096708879063</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2551259397076009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3119864547736499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3921319474906813</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.468120583625703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5227369403804358</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5501757364606028</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5399840026072666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.540570744105586</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5680705174803</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5404708415521799</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5483890524535942</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5750717167774586</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.566728849674796</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5423181105965134</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5469281902806042</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5807616632936403</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4966279026787879</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4985991908769833</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5347626187710319</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4954623971667291</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5169428140607548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7017771590738193</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.632793467616511</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6753055591959596</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7054179725099778</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6325057070680031</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5580711287446602</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.535988865280689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-12F5-4C71-AE5F-F9B23E1187AA}"/>
+              <c16:uniqueId val="{00000000-DD6C-445F-81B3-F979AF3730E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1169,17 +1341,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="404117807"/>
-        <c:axId val="404117327"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="404117807"/>
+        <c:axId val="203554735"/>
+        <c:axId val="203560975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="203554735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1189,8 +1376,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1217,15 +1404,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404117327"/>
+        <c:crossAx val="203560975"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="404117327"/>
+        <c:axId val="203560975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,8 +1435,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1276,9 +1466,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404117807"/>
+        <c:crossAx val="203554735"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1326,515 +1516,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Chart</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for each age, without the 5 year smoothing.</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Combined Pfizer Moderna deaths '!$M$16:$M$93</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
-                <c:pt idx="0">
-                  <c:v>1.085443653</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1854893559999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.008158533</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0863134480000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1577134440000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.208330305</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1452765629999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1938598410000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.245080253</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.23079041</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3946303799999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3410051940000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3025709050000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.218217919</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.270609254</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.414099931</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.308013257</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1300088829999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1708390120000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.152875257</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1499400630000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2233183080000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.2424856870000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1834916879999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1555528159999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.318685439</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.355240596</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5525512159999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.599770017</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.4600037619999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.619142729</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.448121059</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.474170414</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.6880516780000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.59142845</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.549488177</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.428001364</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.5616813490000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.710192623</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.4613869770000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.586429181</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.6006123750000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0915763629999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.8153026809999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.630841427</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.3274699590000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.7844690969999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.9643675780000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.4907514879999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.877294797</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2412972250000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.421769767</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.6847600819999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.312964115</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.64450864100000005</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.225825959</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.744722952</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.9591722</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.0854842790000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.2749876090000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.025881813</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.76719338299999995</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.453390851</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.473429952</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.4910842040000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.161663597</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.93757395399999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.77994599899999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.9801758</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.8960645249999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.0947050890000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.1161490679999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.5704299719999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.583461657</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.285451197</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.874132484</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.69551997499999996</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.107674051</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6C0-47EA-AB98-9148E349470C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1386777935"/>
-        <c:axId val="1386785135"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1386777935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1386785135"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1386785135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1386777935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2343,7 +2024,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2852,7 +2533,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3511,48 +3192,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3579,8 +3220,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3660,11 +3301,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3675,11 +3311,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3691,7 +3322,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3711,9 +3342,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3726,10 +3354,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3769,22 +3397,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3889,8 +3518,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4022,19 +3651,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4048,6 +3678,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5615,547 +5256,33 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDAD64C-9B4B-F0A7-B909-7F93ED72C526}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955F83B5-50D7-46B7-BE4E-F14655038732}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6164,42 +5291,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347AFD83-A7DB-D923-9099-3852496F49C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6659,77 +5750,77 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6739,10 +5830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:M108"/>
+      <selection activeCell="R31" sqref="R31:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6760,13 +5851,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -6778,13 +5872,16 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" t="s">
         <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -6798,6 +5895,7 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <f>C3/B3</f>
         <v>0</v>
       </c>
       <c r="G3">
@@ -6807,9 +5905,6 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
         <v>1</v>
       </c>
     </row>
@@ -6824,6 +5919,7 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/B4</f>
         <v>0</v>
       </c>
     </row>
@@ -6838,6 +5934,7 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6852,6 +5949,7 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="G6">
@@ -6862,9 +5960,6 @@
       </c>
       <c r="I6">
         <v>3</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -6878,7 +5973,12 @@
         <v>3</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>0.75</v>
+      </c>
+      <c r="E7">
+        <f>SUM(C3:C7)/SUM(B3:B7)</f>
+        <v>0.45454545454545453</v>
       </c>
       <c r="G7">
         <v>1916</v>
@@ -6890,6 +5990,11 @@
         <v>1</v>
       </c>
       <c r="J7">
+        <f t="shared" ref="J7" si="1">I7/H7</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>SUM(I3:I7)/SUM(H3:H7)</f>
         <v>1</v>
       </c>
     </row>
@@ -6904,7 +6009,12 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0.27272727299999999</v>
+        <f t="shared" ref="D8:D71" si="2">C8/B8</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E71" si="3">SUM(C4:C8)/SUM(B4:B8)</f>
+        <v>0.38095238095238093</v>
       </c>
       <c r="G8">
         <v>1917</v>
@@ -6916,7 +6026,12 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <f t="shared" ref="J8:J71" si="4">I8/H8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K71" si="5">SUM(I4:I8)/SUM(H4:H8)</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -6930,7 +6045,12 @@
         <v>9</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
         <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0.44736842105263158</v>
       </c>
       <c r="G9">
         <v>1918</v>
@@ -6942,7 +6062,12 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -6956,7 +6081,12 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>0.37037037</v>
+        <f t="shared" si="2"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.39560439560439559</v>
       </c>
       <c r="G10">
         <v>1919</v>
@@ -6968,7 +6098,12 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>0.46153846199999998</v>
+        <f t="shared" si="4"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -6982,10 +6117,12 @@
         <v>46</v>
       </c>
       <c r="D11">
-        <v>0.37398374000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.37398373983739835</v>
       </c>
       <c r="E11">
-        <v>0.38571428600000002</v>
+        <f t="shared" si="3"/>
+        <v>0.38571428571428573</v>
       </c>
       <c r="G11">
         <v>1920</v>
@@ -6997,10 +6134,12 @@
         <v>4</v>
       </c>
       <c r="J11">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="K11">
-        <v>0.28205128200000001</v>
+        <f t="shared" si="5"/>
+        <v>0.28205128205128205</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -7014,10 +6153,12 @@
         <v>84</v>
       </c>
       <c r="D12">
-        <v>0.34008097199999998</v>
+        <f t="shared" si="2"/>
+        <v>0.34008097165991902</v>
       </c>
       <c r="E12">
-        <v>0.35761589399999999</v>
+        <f t="shared" si="3"/>
+        <v>0.35761589403973509</v>
       </c>
       <c r="G12">
         <v>1921</v>
@@ -7029,16 +6170,24 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <v>0.35714285699999998</v>
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="K12">
+        <f t="shared" si="5"/>
         <v>0.3125</v>
       </c>
       <c r="M12">
-        <v>1.0501700679999999</v>
+        <f>J12/D12</f>
+        <v>1.050170068027211</v>
+      </c>
+      <c r="O12">
+        <f>2024-$A12</f>
+        <v>103</v>
       </c>
       <c r="P12">
-        <v>0.873842593</v>
+        <f>K12/E12</f>
+        <v>0.87384259259259256</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -7052,10 +6201,12 @@
         <v>136</v>
       </c>
       <c r="D13">
-        <v>0.32850241499999999</v>
+        <f t="shared" si="2"/>
+        <v>0.32850241545893721</v>
       </c>
       <c r="E13">
-        <v>0.34462616800000001</v>
+        <f t="shared" si="3"/>
+        <v>0.34462616822429909</v>
       </c>
       <c r="G13">
         <v>1922</v>
@@ -7067,16 +6218,24 @@
         <v>25</v>
       </c>
       <c r="J13">
-        <v>0.26881720399999998</v>
+        <f t="shared" si="4"/>
+        <v>0.26881720430107525</v>
       </c>
       <c r="K13">
-        <v>0.29411764699999998</v>
+        <f t="shared" si="5"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M13">
-        <v>0.81831119500000005</v>
+        <f t="shared" ref="M13:M76" si="6">J13/D13</f>
+        <v>0.81831119544592024</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O76" si="7">2024-$A13</f>
+        <v>102</v>
       </c>
       <c r="P13">
-        <v>0.85343968100000001</v>
+        <f t="shared" ref="P13:P76" si="8">K13/E13</f>
+        <v>0.85343968095712863</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -7090,10 +6249,12 @@
         <v>213</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="E14">
-        <v>0.32235142100000003</v>
+        <f t="shared" si="3"/>
+        <v>0.32235142118863047</v>
       </c>
       <c r="G14">
         <v>1923</v>
@@ -7105,16 +6266,24 @@
         <v>35</v>
       </c>
       <c r="J14">
-        <v>0.25179856099999998</v>
+        <f t="shared" si="4"/>
+        <v>0.25179856115107913</v>
       </c>
       <c r="K14">
-        <v>0.276872964</v>
+        <f t="shared" si="5"/>
+        <v>0.27687296416938112</v>
       </c>
       <c r="M14">
-        <v>0.83932853699999999</v>
+        <f t="shared" si="6"/>
+        <v>0.83932853717026379</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>101</v>
       </c>
       <c r="P14">
-        <v>0.85891653000000001</v>
+        <f t="shared" si="8"/>
+        <v>0.85891653012866132</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -7128,10 +6297,12 @@
         <v>296</v>
       </c>
       <c r="D15">
-        <v>0.28271251200000003</v>
+        <f t="shared" si="2"/>
+        <v>0.28271251193887298</v>
       </c>
       <c r="E15">
-        <v>0.30499803199999997</v>
+        <f t="shared" si="3"/>
+        <v>0.30499803227075956</v>
       </c>
       <c r="G15">
         <v>1924</v>
@@ -7143,16 +6314,24 @@
         <v>85</v>
       </c>
       <c r="J15">
-        <v>0.32945736399999997</v>
+        <f t="shared" si="4"/>
+        <v>0.32945736434108525</v>
       </c>
       <c r="K15">
-        <v>0.29710144900000002</v>
+        <f t="shared" si="5"/>
+        <v>0.29710144927536231</v>
       </c>
       <c r="M15">
-        <v>1.1653441229999999</v>
+        <f t="shared" si="6"/>
+        <v>1.1653441231929602</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="P15">
-        <v>0.97410939699999999</v>
+        <f t="shared" si="8"/>
+        <v>0.97410939691444587</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -7166,10 +6345,12 @@
         <v>386</v>
       </c>
       <c r="D16">
-        <v>0.24759461199999999</v>
+        <f t="shared" si="2"/>
+        <v>0.24759461193072482</v>
       </c>
       <c r="E16">
-        <v>0.28036208200000001</v>
+        <f t="shared" si="3"/>
+        <v>0.28036208197133516</v>
       </c>
       <c r="G16">
         <v>1925</v>
@@ -7181,16 +6362,24 @@
         <v>86</v>
       </c>
       <c r="J16">
+        <f t="shared" si="4"/>
         <v>0.26874999999999999</v>
       </c>
       <c r="K16">
-        <v>0.288732394</v>
+        <f t="shared" si="5"/>
+        <v>0.28873239436619719</v>
       </c>
       <c r="M16">
-        <v>1.085443653</v>
+        <f t="shared" si="6"/>
+        <v>1.0854436528497409</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>99</v>
       </c>
       <c r="P16">
-        <v>1.029855365</v>
+        <f t="shared" si="8"/>
+        <v>1.0298553653761133</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -7204,10 +6393,12 @@
         <v>595</v>
       </c>
       <c r="D17">
-        <v>0.24926686200000001</v>
+        <f t="shared" si="2"/>
+        <v>0.24926686217008798</v>
       </c>
       <c r="E17">
-        <v>0.265816577</v>
+        <f t="shared" si="3"/>
+        <v>0.26581657675331044</v>
       </c>
       <c r="G17">
         <v>1926</v>
@@ -7219,16 +6410,24 @@
         <v>138</v>
       </c>
       <c r="J17">
-        <v>0.29550321200000002</v>
+        <f t="shared" si="4"/>
+        <v>0.2955032119914347</v>
       </c>
       <c r="K17">
-        <v>0.28895849600000001</v>
+        <f t="shared" si="5"/>
+        <v>0.28895849647611588</v>
       </c>
       <c r="M17">
-        <v>1.1854893559999999</v>
+        <f t="shared" si="6"/>
+        <v>1.1854893563421087</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>98</v>
       </c>
       <c r="P17">
-        <v>1.0870597310000001</v>
+        <f t="shared" si="8"/>
+        <v>1.0870597312081187</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
@@ -7242,10 +6441,12 @@
         <v>781</v>
       </c>
       <c r="D18">
-        <v>0.23645171100000001</v>
+        <f t="shared" si="2"/>
+        <v>0.236451710566152</v>
       </c>
       <c r="E18">
-        <v>0.25216522299999999</v>
+        <f t="shared" si="3"/>
+        <v>0.25216522318454365</v>
       </c>
       <c r="G18">
         <v>1927</v>
@@ -7257,16 +6458,24 @@
         <v>159</v>
       </c>
       <c r="J18">
-        <v>0.23838081</v>
+        <f t="shared" si="4"/>
+        <v>0.23838080959520239</v>
       </c>
       <c r="K18">
-        <v>0.27174500299999998</v>
+        <f t="shared" si="5"/>
+        <v>0.27174500270124258</v>
       </c>
       <c r="M18">
-        <v>1.008158533</v>
+        <f t="shared" si="6"/>
+        <v>1.0081585327694667</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>97</v>
       </c>
       <c r="P18">
-        <v>1.077646629</v>
+        <f t="shared" si="8"/>
+        <v>1.0776466289420479</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -7280,10 +6489,12 @@
         <v>902</v>
       </c>
       <c r="D19">
-        <v>0.19385342799999999</v>
+        <f t="shared" si="2"/>
+        <v>0.19385342789598109</v>
       </c>
       <c r="E19">
-        <v>0.22858908</v>
+        <f t="shared" si="3"/>
+        <v>0.22858908023785621</v>
       </c>
       <c r="G19">
         <v>1928</v>
@@ -7295,16 +6506,24 @@
         <v>187</v>
       </c>
       <c r="J19">
-        <v>0.21058558599999999</v>
+        <f t="shared" si="4"/>
+        <v>0.21058558558558557</v>
       </c>
       <c r="K19">
-        <v>0.251923077</v>
+        <f t="shared" si="5"/>
+        <v>0.25192307692307692</v>
       </c>
       <c r="M19">
-        <v>1.0863134480000001</v>
+        <f t="shared" si="6"/>
+        <v>1.0863134475939353</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>96</v>
       </c>
       <c r="P19">
-        <v>1.1020783519999999</v>
+        <f t="shared" si="8"/>
+        <v>1.1020783523908524</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -7318,10 +6537,12 @@
         <v>1098</v>
       </c>
       <c r="D20">
-        <v>0.17790019400000001</v>
+        <f t="shared" si="2"/>
+        <v>0.177900194426442</v>
       </c>
       <c r="E20">
-        <v>0.20814429600000001</v>
+        <f t="shared" si="3"/>
+        <v>0.20814429567334292</v>
       </c>
       <c r="G20">
         <v>1929</v>
@@ -7333,16 +6554,24 @@
         <v>242</v>
       </c>
       <c r="J20">
-        <v>0.20595744699999999</v>
+        <f t="shared" si="4"/>
+        <v>0.20595744680851064</v>
       </c>
       <c r="K20">
-        <v>0.23087858999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.23087858970713676</v>
       </c>
       <c r="M20">
-        <v>1.1577134440000001</v>
+        <f t="shared" si="6"/>
+        <v>1.157713444173158</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>95</v>
       </c>
       <c r="P20">
-        <v>1.1092237190000001</v>
+        <f t="shared" si="8"/>
+        <v>1.1092237188641121</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -7350,16 +6579,18 @@
         <v>1930</v>
       </c>
       <c r="B21">
-        <v>8601</v>
+        <v>8603</v>
       </c>
       <c r="C21">
         <v>1339</v>
       </c>
       <c r="D21">
-        <v>0.15567957199999999</v>
+        <f t="shared" si="2"/>
+        <v>0.15564338021620364</v>
       </c>
       <c r="E21">
-        <v>0.18772893800000001</v>
+        <f t="shared" si="3"/>
+        <v>0.18771398996735408</v>
       </c>
       <c r="G21">
         <v>1930</v>
@@ -7371,19 +6602,24 @@
         <v>288</v>
       </c>
       <c r="J21">
-        <v>0.18811234499999999</v>
+        <f t="shared" si="4"/>
+        <v>0.18811234487263226</v>
       </c>
       <c r="K21">
-        <v>0.21446700499999999</v>
+        <f t="shared" si="5"/>
+        <v>0.21446700507614214</v>
       </c>
       <c r="M21">
-        <v>1.208330305</v>
+        <f t="shared" si="6"/>
+        <v>1.2086112792675545</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>94</v>
       </c>
       <c r="P21">
-        <v>1.1424291200000001</v>
-      </c>
-      <c r="R21" t="s">
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>1.1425200919411533</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
@@ -7391,16 +6627,18 @@
         <v>1931</v>
       </c>
       <c r="B22">
-        <v>10558</v>
+        <v>10559</v>
       </c>
       <c r="C22">
         <v>1429</v>
       </c>
       <c r="D22">
-        <v>0.13534760400000001</v>
+        <f t="shared" si="2"/>
+        <v>0.1353347854910503</v>
       </c>
       <c r="E22">
-        <v>0.166701715</v>
+        <f t="shared" si="3"/>
+        <v>0.16668669270051067</v>
       </c>
       <c r="G22">
         <v>1931</v>
@@ -7412,16 +6650,24 @@
         <v>297</v>
       </c>
       <c r="J22">
-        <v>0.155010438</v>
+        <f t="shared" si="4"/>
+        <v>0.15501043841336118</v>
       </c>
       <c r="K22">
-        <v>0.18989800900000001</v>
+        <f t="shared" si="5"/>
+        <v>0.18989800874210783</v>
       </c>
       <c r="M22">
-        <v>1.1452765629999999</v>
+        <f t="shared" si="6"/>
+        <v>1.1453850379332964</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>93</v>
       </c>
       <c r="P22">
-        <v>1.139148498</v>
+        <f t="shared" si="8"/>
+        <v>1.1392511643584013</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
@@ -7429,16 +6675,18 @@
         <v>1932</v>
       </c>
       <c r="B23">
-        <v>13035</v>
+        <v>13036</v>
       </c>
       <c r="C23">
         <v>1604</v>
       </c>
       <c r="D23">
-        <v>0.12305331799999999</v>
+        <f t="shared" si="2"/>
+        <v>0.12304387849033446</v>
       </c>
       <c r="E23">
-        <v>0.14812059799999999</v>
+        <f t="shared" si="3"/>
+        <v>0.14810682658113103</v>
       </c>
       <c r="G23">
         <v>1932</v>
@@ -7450,16 +6698,24 @@
         <v>316</v>
       </c>
       <c r="J23">
-        <v>0.14690841499999999</v>
+        <f t="shared" si="4"/>
+        <v>0.14690841469084148</v>
       </c>
       <c r="K23">
-        <v>0.17360657900000001</v>
+        <f t="shared" si="5"/>
+        <v>0.17360657877561675</v>
       </c>
       <c r="M23">
-        <v>1.1938598410000001</v>
+        <f t="shared" si="6"/>
+        <v>1.1939514301183352</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>92</v>
       </c>
       <c r="P23">
-        <v>1.172062369</v>
+        <f t="shared" si="8"/>
+        <v>1.1721713494449717</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -7467,16 +6723,18 @@
         <v>1933</v>
       </c>
       <c r="B24">
-        <v>14653</v>
+        <v>14654</v>
       </c>
       <c r="C24">
         <v>1571</v>
       </c>
       <c r="D24">
-        <v>0.10721354</v>
+        <f t="shared" si="2"/>
+        <v>0.10720622355670807</v>
       </c>
       <c r="E24">
-        <v>0.13280144899999999</v>
+        <f t="shared" si="3"/>
+        <v>0.13278892576946288</v>
       </c>
       <c r="G24">
         <v>1933</v>
@@ -7488,19 +6746,27 @@
         <v>342</v>
       </c>
       <c r="J24">
-        <v>0.133489461</v>
+        <f t="shared" si="4"/>
+        <v>0.13348946135831383</v>
       </c>
       <c r="K24">
-        <v>0.159078736</v>
+        <f t="shared" si="5"/>
+        <v>0.15907873594001071</v>
       </c>
       <c r="M24">
-        <v>1.245080253</v>
+        <f t="shared" si="6"/>
+        <v>1.2451652238986193</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>91</v>
       </c>
       <c r="P24">
-        <v>1.1978689819999999</v>
+        <f t="shared" si="8"/>
+        <v>1.1979819478033131</v>
       </c>
       <c r="R24" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -7508,16 +6774,18 @@
         <v>1934</v>
       </c>
       <c r="B25">
-        <v>16938</v>
+        <v>16939</v>
       </c>
       <c r="C25">
         <v>1631</v>
       </c>
       <c r="D25">
-        <v>9.6292359999999994E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.6286675718755529E-2</v>
       </c>
       <c r="E25">
-        <v>0.118742651</v>
+        <f t="shared" si="3"/>
+        <v>0.118731482497531</v>
       </c>
       <c r="G25">
         <v>1934</v>
@@ -7529,16 +6797,24 @@
         <v>313</v>
       </c>
       <c r="J25">
-        <v>0.11851571399999999</v>
+        <f t="shared" si="4"/>
+        <v>0.11851571374479364</v>
       </c>
       <c r="K25">
-        <v>0.144060735</v>
+        <f t="shared" si="5"/>
+        <v>0.14406073511711878</v>
       </c>
       <c r="M25">
-        <v>1.23079041</v>
+        <f t="shared" si="6"/>
+        <v>1.2308630748761862</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="P25">
-        <v>1.2132181129999999</v>
+        <f t="shared" si="8"/>
+        <v>1.2133322357877112</v>
       </c>
       <c r="T25" t="s">
         <v>0</v>
@@ -7558,10 +6834,12 @@
         <v>1591</v>
       </c>
       <c r="D26">
-        <v>8.2171262999999994E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.2171263299245942E-2</v>
       </c>
       <c r="E26">
-        <v>0.10498215900000001</v>
+        <f t="shared" si="3"/>
+        <v>0.10497652582159625</v>
       </c>
       <c r="G26">
         <v>1935</v>
@@ -7573,25 +6851,27 @@
         <v>314</v>
       </c>
       <c r="J26">
-        <v>0.11459854</v>
+        <f t="shared" si="4"/>
+        <v>0.1145985401459854</v>
       </c>
       <c r="K26">
-        <v>0.13172356399999999</v>
+        <f t="shared" si="5"/>
+        <v>0.13172356369691923</v>
       </c>
       <c r="M26">
-        <v>1.3946303799999999</v>
+        <f t="shared" si="6"/>
+        <v>1.3946303798281392</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>89</v>
       </c>
       <c r="P26">
-        <v>1.25472333</v>
+        <f t="shared" si="8"/>
+        <v>1.2547906559679693</v>
       </c>
       <c r="R26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T26">
-        <v>420903</v>
-      </c>
-      <c r="U26">
-        <v>43883</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -7605,10 +6885,12 @@
         <v>1560</v>
       </c>
       <c r="D27">
-        <v>7.2339439000000005E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.2339438905634129E-2</v>
       </c>
       <c r="E27">
-        <v>9.3006673999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.3003412969283272E-2</v>
       </c>
       <c r="G27">
         <v>1936</v>
@@ -7620,25 +6902,27 @@
         <v>295</v>
       </c>
       <c r="J27">
-        <v>9.7007563000000005E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.7007563301545544E-2</v>
       </c>
       <c r="K27">
-        <v>0.120289303</v>
+        <f t="shared" si="5"/>
+        <v>0.12028930338789494</v>
       </c>
       <c r="M27">
-        <v>1.3410051940000001</v>
+        <f t="shared" si="6"/>
+        <v>1.3410051939729677</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>88</v>
       </c>
       <c r="P27">
-        <v>1.2933405520000001</v>
+        <f t="shared" si="8"/>
+        <v>1.2933859043175493</v>
       </c>
       <c r="R27" t="s">
-        <v>12</v>
-      </c>
-      <c r="T27">
-        <v>4808</v>
-      </c>
-      <c r="U27">
-        <v>782</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
@@ -7646,37 +6930,47 @@
         <v>1937</v>
       </c>
       <c r="B28">
-        <v>24067</v>
+        <v>24069</v>
       </c>
       <c r="C28">
         <v>1523</v>
       </c>
       <c r="D28">
-        <v>6.3281671999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.3276413644106522E-2</v>
       </c>
       <c r="E28">
-        <v>8.1544752999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.1541376347203098E-2</v>
       </c>
       <c r="G28">
         <v>1937</v>
       </c>
       <c r="H28">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="I28">
         <v>281</v>
       </c>
       <c r="J28">
-        <v>8.2428865000000004E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.240469208211143E-2</v>
       </c>
       <c r="K28">
-        <v>0.10734384800000001</v>
+        <f t="shared" si="5"/>
+        <v>0.10733639016256774</v>
       </c>
       <c r="M28">
-        <v>1.3025709050000001</v>
+        <f t="shared" si="6"/>
+        <v>1.3022971331085622</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>87</v>
       </c>
       <c r="P28">
-        <v>1.316379575</v>
+        <f t="shared" si="8"/>
+        <v>1.3163426345114595</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
@@ -7684,16 +6978,18 @@
         <v>1938</v>
       </c>
       <c r="B29">
-        <v>27694</v>
+        <v>27695</v>
       </c>
       <c r="C29">
         <v>1642</v>
       </c>
       <c r="D29">
-        <v>5.9290821E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.9288680267196248E-2</v>
       </c>
       <c r="E29">
-        <v>7.2491926999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.2489282130803606E-2</v>
       </c>
       <c r="G29">
         <v>1938</v>
@@ -7705,16 +7001,24 @@
         <v>290</v>
       </c>
       <c r="J29">
-        <v>7.2229140999999997E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.2229140722291404E-2</v>
       </c>
       <c r="K29">
-        <v>9.4219361000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.421341578847732E-2</v>
       </c>
       <c r="M29">
-        <v>1.218217919</v>
+        <f t="shared" si="6"/>
+        <v>1.2182619076150185</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>86</v>
       </c>
       <c r="P29">
-        <v>1.299722123</v>
+        <f t="shared" si="8"/>
+        <v>1.299687526474238</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -7722,16 +7026,18 @@
         <v>1939</v>
       </c>
       <c r="B30">
-        <v>31223</v>
+        <v>31224</v>
       </c>
       <c r="C30">
         <v>1639</v>
       </c>
       <c r="D30">
-        <v>5.2493353999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.2491673071995898E-2</v>
       </c>
       <c r="E30">
-        <v>6.4199303999999999E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.4197231973530236E-2</v>
       </c>
       <c r="G30">
         <v>1939</v>
@@ -7743,19 +7049,24 @@
         <v>279</v>
       </c>
       <c r="J30">
-        <v>6.6698542E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.6698541716471438E-2</v>
       </c>
       <c r="K30">
-        <v>8.3908442999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.3903617229282884E-2</v>
       </c>
       <c r="M30">
-        <v>1.270609254</v>
+        <f t="shared" si="6"/>
+        <v>1.2706499490879222</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
       <c r="P30">
-        <v>1.3069992500000001</v>
-      </c>
-      <c r="R30" t="s">
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>1.3069662764257184</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -7763,57 +7074,67 @@
         <v>1940</v>
       </c>
       <c r="B31">
-        <v>38045</v>
+        <v>38047</v>
       </c>
       <c r="C31">
         <v>1731</v>
       </c>
       <c r="D31">
-        <v>4.5498750999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.5496359765553135E-2</v>
       </c>
       <c r="E31">
-        <v>5.6769569999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.6767180925666197E-2</v>
       </c>
       <c r="G31">
         <v>1940</v>
       </c>
       <c r="H31">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="I31">
         <v>306</v>
       </c>
       <c r="J31">
-        <v>6.4339780999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.4326256043725036E-2</v>
       </c>
       <c r="K31">
-        <v>7.4778395999999997E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.4770689477481195E-2</v>
       </c>
       <c r="M31">
-        <v>1.414099931</v>
+        <f t="shared" si="6"/>
+        <v>1.4138769865370342</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>84</v>
       </c>
       <c r="P31">
-        <v>1.3172267609999999</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1.3171464261258579</v>
+      </c>
+      <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1941</v>
       </c>
       <c r="B32">
-        <v>35586</v>
+        <v>35589</v>
       </c>
       <c r="C32">
         <v>1509</v>
       </c>
       <c r="D32">
-        <v>4.2404315999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.2400741802242264E-2</v>
       </c>
       <c r="E32">
-        <v>5.1361618999999997E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.1358667892532434E-2</v>
       </c>
       <c r="G32">
         <v>1941</v>
@@ -7825,19 +7146,24 @@
         <v>376</v>
       </c>
       <c r="J32">
-        <v>5.5465408000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.546540787726803E-2</v>
       </c>
       <c r="K32">
-        <v>6.6199983000000004E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.6194262011752505E-2</v>
       </c>
       <c r="M32">
-        <v>1.308013257</v>
+        <f t="shared" si="6"/>
+        <v>1.3081235261392259</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>83</v>
       </c>
       <c r="P32">
-        <v>1.2888998380000001</v>
-      </c>
-      <c r="R32" t="s">
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>1.288862517818091</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -7845,16 +7171,18 @@
         <v>1942</v>
       </c>
       <c r="B33">
-        <v>39371</v>
+        <v>39374</v>
       </c>
       <c r="C33">
         <v>1490</v>
       </c>
       <c r="D33">
-        <v>3.7845113999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7842230913800984E-2</v>
       </c>
       <c r="E33">
-        <v>4.6597526E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.6594815301665225E-2</v>
       </c>
       <c r="G33">
         <v>1942</v>
@@ -7866,36 +7194,44 @@
         <v>326</v>
       </c>
       <c r="J33">
-        <v>4.2765314999999998E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.2765315492588218E-2</v>
       </c>
       <c r="K33">
-        <v>5.7647316999999997E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.7645209635559455E-2</v>
       </c>
       <c r="M33">
-        <v>1.1300088829999999</v>
+        <f t="shared" si="6"/>
+        <v>1.13009498805716</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>82</v>
       </c>
       <c r="P33">
-        <v>1.237132576</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>16</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1.2371593118751842</v>
+      </c>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1943</v>
       </c>
       <c r="B34">
-        <v>46531</v>
+        <v>46536</v>
       </c>
       <c r="C34">
         <v>1584</v>
       </c>
       <c r="D34">
-        <v>3.4041821999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4038164002062922E-2</v>
       </c>
       <c r="E34">
-        <v>4.1692003999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.1688944802641924E-2</v>
       </c>
       <c r="G34">
         <v>1943</v>
@@ -7907,60 +7243,73 @@
         <v>358</v>
       </c>
       <c r="J34">
-        <v>3.9857493000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.9857492763304386E-2</v>
       </c>
       <c r="K34">
-        <v>5.0892553E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.0890978839252567E-2</v>
       </c>
       <c r="M34">
-        <v>1.1708390120000001</v>
+        <f t="shared" si="6"/>
+        <v>1.1709648252734424</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>81</v>
       </c>
       <c r="P34">
-        <v>1.2206789760000001</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1.2207307975813169</v>
+      </c>
+      <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1944</v>
       </c>
       <c r="B35">
-        <v>50073</v>
+        <v>50078</v>
       </c>
       <c r="C35">
         <v>1545</v>
       </c>
       <c r="D35">
-        <v>3.0854952000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.0851871081113463E-2</v>
       </c>
       <c r="E35">
-        <v>3.7494156000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.7490936152348969E-2</v>
       </c>
       <c r="G35">
         <v>1944</v>
       </c>
       <c r="H35">
-        <v>9783</v>
+        <v>9784</v>
       </c>
       <c r="I35">
         <v>348</v>
       </c>
       <c r="J35">
-        <v>3.5571909999999998E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.5568274734260018E-2</v>
       </c>
       <c r="K35">
-        <v>4.5196845999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.5194462755438362E-2</v>
       </c>
       <c r="M35">
-        <v>1.152875257</v>
+        <f t="shared" si="6"/>
+        <v>1.1528725321309212</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="P35">
-        <v>1.205437098</v>
-      </c>
-      <c r="R35" t="s">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>1.2054770404181208</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -7968,37 +7317,47 @@
         <v>1945</v>
       </c>
       <c r="B36">
-        <v>49846</v>
+        <v>49848</v>
       </c>
       <c r="C36">
         <v>1408</v>
       </c>
       <c r="D36">
-        <v>2.8247001000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.8245867437008507E-2</v>
       </c>
       <c r="E36">
-        <v>3.4036864E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.4034097324150386E-2</v>
       </c>
       <c r="G36">
         <v>1945</v>
       </c>
       <c r="H36">
-        <v>9636</v>
+        <v>9637</v>
       </c>
       <c r="I36">
         <v>313</v>
       </c>
       <c r="J36">
-        <v>3.2482358000000003E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.2478987236691917E-2</v>
       </c>
       <c r="K36">
-        <v>4.0207461999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.0205583459876182E-2</v>
       </c>
       <c r="M36">
-        <v>1.1499400630000001</v>
+        <f t="shared" si="6"/>
+        <v>1.1498668719990188</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>79</v>
       </c>
       <c r="P36">
-        <v>1.181291608</v>
+        <f t="shared" si="8"/>
+        <v>1.1813324466033817</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
@@ -8006,16 +7365,18 @@
         <v>1946</v>
       </c>
       <c r="B37">
-        <v>65083</v>
+        <v>65088</v>
       </c>
       <c r="C37">
         <v>1692</v>
       </c>
       <c r="D37">
-        <v>2.5997572E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5995575221238937E-2</v>
       </c>
       <c r="E37">
-        <v>3.0764755000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0762302529849676E-2</v>
       </c>
       <c r="G37">
         <v>1946</v>
@@ -8027,19 +7388,27 @@
         <v>379</v>
       </c>
       <c r="J37">
-        <v>3.1803306000000003E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1803306201225137E-2</v>
       </c>
       <c r="K37">
-        <v>3.5960868999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5959368416661454E-2</v>
       </c>
       <c r="M37">
-        <v>1.2233183080000001</v>
+        <f t="shared" si="6"/>
+        <v>1.2234122896130861</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>78</v>
       </c>
       <c r="P37">
-        <v>1.1688982729999999</v>
+        <f t="shared" si="8"/>
+        <v>1.1689426817699649</v>
       </c>
       <c r="R37" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -8047,16 +7416,18 @@
         <v>1947</v>
       </c>
       <c r="B38">
-        <v>69763</v>
+        <v>69767</v>
       </c>
       <c r="C38">
         <v>1519</v>
       </c>
       <c r="D38">
-        <v>2.177372E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.1772471225651097E-2</v>
       </c>
       <c r="E38">
-        <v>2.7543939E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.7541883355787243E-2</v>
       </c>
       <c r="G38">
         <v>1947</v>
@@ -8068,19 +7439,24 @@
         <v>331</v>
       </c>
       <c r="J38">
-        <v>2.7053535E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.7053534940743768E-2</v>
       </c>
       <c r="K38">
-        <v>3.2900119999999998E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.2898867852725715E-2</v>
       </c>
       <c r="M38">
-        <v>1.2424856870000001</v>
+        <f t="shared" si="6"/>
+        <v>1.2425569270644308</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>77</v>
       </c>
       <c r="P38">
-        <v>1.194459489</v>
-      </c>
-      <c r="R38" t="s">
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>1.1945032018230821</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -8088,37 +7464,47 @@
         <v>1948</v>
       </c>
       <c r="B39">
-        <v>69209</v>
+        <v>69214</v>
       </c>
       <c r="C39">
         <v>1487</v>
       </c>
       <c r="D39">
-        <v>2.1485645000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.1484092813592627E-2</v>
       </c>
       <c r="E39">
-        <v>2.5169916000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.5168177108176121E-2</v>
       </c>
       <c r="G39">
         <v>1948</v>
       </c>
       <c r="H39">
-        <v>11680</v>
+        <v>11681</v>
       </c>
       <c r="I39">
         <v>297</v>
       </c>
       <c r="J39">
-        <v>2.5428082000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5425905316325659E-2</v>
       </c>
       <c r="K39">
-        <v>3.0189499000000002E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.0187859702464979E-2</v>
       </c>
       <c r="M39">
-        <v>1.1834916879999999</v>
+        <f t="shared" si="6"/>
+        <v>1.1834758645354162</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>76</v>
       </c>
       <c r="P39">
-        <v>1.1994278810000001</v>
+        <f t="shared" si="8"/>
+        <v>1.1994456162920979</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -8126,40 +7512,47 @@
         <v>1949</v>
       </c>
       <c r="B40">
-        <v>69106</v>
+        <v>69112</v>
       </c>
       <c r="C40">
         <v>1265</v>
       </c>
       <c r="D40">
-        <v>1.8305212000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8303623104525987E-2</v>
       </c>
       <c r="E40">
-        <v>2.2819939000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.2818384727067847E-2</v>
       </c>
       <c r="G40">
         <v>1949</v>
       </c>
       <c r="H40">
-        <v>11157</v>
+        <v>11158</v>
       </c>
       <c r="I40">
         <v>236</v>
       </c>
       <c r="J40">
-        <v>2.115264E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.1150743860906974E-2</v>
       </c>
       <c r="K40">
-        <v>2.7479028999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.7477572932118388E-2</v>
       </c>
       <c r="M40">
-        <v>1.1555528159999999</v>
+        <f t="shared" si="6"/>
+        <v>1.1555495728972354</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
       <c r="P40">
-        <v>1.204167497</v>
-      </c>
-      <c r="R40" t="s">
-        <v>24</v>
+        <f t="shared" si="8"/>
+        <v>1.2041857151932263</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -8167,16 +7560,18 @@
         <v>1950</v>
       </c>
       <c r="B41">
-        <v>72779</v>
+        <v>72788</v>
       </c>
       <c r="C41">
         <v>1201</v>
       </c>
       <c r="D41">
-        <v>1.6502012999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6499972522943343E-2</v>
       </c>
       <c r="E41">
-        <v>2.0708793E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.0707057568741707E-2</v>
       </c>
       <c r="G41">
         <v>1950</v>
@@ -8188,16 +7583,24 @@
         <v>260</v>
       </c>
       <c r="J41">
-        <v>2.1760964000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.1760964178105122E-2</v>
       </c>
       <c r="K41">
-        <v>2.5501807000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.5500941651538031E-2</v>
       </c>
       <c r="M41">
-        <v>1.318685439</v>
+        <f t="shared" si="6"/>
+        <v>1.3188485100715366</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>74</v>
       </c>
       <c r="P41">
-        <v>1.23144823</v>
+        <f t="shared" si="8"/>
+        <v>1.2315096708879063</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
@@ -8205,16 +7608,18 @@
         <v>1951</v>
       </c>
       <c r="B42">
-        <v>78707</v>
+        <v>78714</v>
       </c>
       <c r="C42">
         <v>1263</v>
       </c>
       <c r="D42">
-        <v>1.6046857000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6045430291942983E-2</v>
       </c>
       <c r="E42">
-        <v>1.8731019000000002E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.872940391273516E-2</v>
       </c>
       <c r="G42">
         <v>1951</v>
@@ -8226,19 +7631,24 @@
         <v>230</v>
       </c>
       <c r="J42">
-        <v>2.1747352000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.1747352496217853E-2</v>
       </c>
       <c r="K42">
-        <v>2.3508576999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3507760686134936E-2</v>
       </c>
       <c r="M42">
-        <v>1.355240596</v>
+        <f t="shared" si="6"/>
+        <v>1.3553611277809121</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>73</v>
       </c>
       <c r="P42">
-        <v>1.2550613180000001</v>
-      </c>
-      <c r="R42" t="s">
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>1.2551259397076009</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -8246,37 +7656,47 @@
         <v>1952</v>
       </c>
       <c r="B43">
-        <v>83865</v>
+        <v>83883</v>
       </c>
       <c r="C43">
         <v>1109</v>
       </c>
       <c r="D43">
-        <v>1.3223633E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3220795632011255E-2</v>
       </c>
       <c r="E43">
-        <v>1.6926881000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.6924842993650175E-2</v>
       </c>
       <c r="G43">
         <v>1952</v>
       </c>
       <c r="H43">
-        <v>9352</v>
+        <v>9354</v>
       </c>
       <c r="I43">
         <v>192</v>
       </c>
       <c r="J43">
-        <v>2.0530368E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.052597819114817E-2</v>
       </c>
       <c r="K43">
-        <v>2.2206788000000002E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.220516475683974E-2</v>
       </c>
       <c r="M43">
-        <v>1.5525512159999999</v>
+        <f t="shared" si="6"/>
+        <v>1.552552415336413</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>72</v>
       </c>
       <c r="P43">
-        <v>1.31192438</v>
+        <f t="shared" si="8"/>
+        <v>1.3119864547736499</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
@@ -8284,40 +7704,47 @@
         <v>1953</v>
       </c>
       <c r="B44">
-        <v>84084</v>
+        <v>84092</v>
       </c>
       <c r="C44">
         <v>1045</v>
       </c>
       <c r="D44">
-        <v>1.2428048000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.2426865813632688E-2</v>
       </c>
       <c r="E44">
-        <v>1.5141259000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.5139388917339399E-2</v>
       </c>
       <c r="G44">
         <v>1953</v>
       </c>
       <c r="H44">
-        <v>9154</v>
+        <v>9156</v>
       </c>
       <c r="I44">
         <v>182</v>
       </c>
       <c r="J44">
-        <v>1.9882019000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.9877675840978593E-2</v>
       </c>
       <c r="K44">
-        <v>2.1078046E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.1076026977314533E-2</v>
       </c>
       <c r="M44">
-        <v>1.599770017</v>
+        <f t="shared" si="6"/>
+        <v>1.5995727433680114</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>71</v>
       </c>
       <c r="P44">
-        <v>1.392093349</v>
-      </c>
-      <c r="R44" t="s">
-        <v>26</v>
+        <f t="shared" si="8"/>
+        <v>1.3921319474906813</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
@@ -8325,37 +7752,47 @@
         <v>1954</v>
       </c>
       <c r="B45">
-        <v>85381</v>
+        <v>85387</v>
       </c>
       <c r="C45">
         <v>951</v>
       </c>
       <c r="D45">
-        <v>1.1138309000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1137526789792357E-2</v>
       </c>
       <c r="E45">
-        <v>1.3756867000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.3755236326272527E-2</v>
       </c>
       <c r="G45">
         <v>1954</v>
       </c>
       <c r="H45">
-        <v>8978</v>
+        <v>8980</v>
       </c>
       <c r="I45">
         <v>146</v>
       </c>
       <c r="J45">
-        <v>1.6261973999999998E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.6258351893095768E-2</v>
       </c>
       <c r="K45">
-        <v>2.0196769E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.0194345583236694E-2</v>
       </c>
       <c r="M45">
-        <v>1.4600037619999999</v>
+        <f t="shared" si="6"/>
+        <v>1.4597811704477059</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
       <c r="P45">
-        <v>1.4681226510000001</v>
+        <f t="shared" si="8"/>
+        <v>1.468120583625703</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -8363,16 +7800,18 @@
         <v>1955</v>
       </c>
       <c r="B46">
-        <v>86254</v>
+        <v>86268</v>
       </c>
       <c r="C46">
         <v>910</v>
       </c>
       <c r="D46">
-        <v>1.0550235E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0548523206751054E-2</v>
       </c>
       <c r="E46">
-        <v>1.2618010000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.261641137437133E-2</v>
       </c>
       <c r="G46">
         <v>1955</v>
@@ -8384,19 +7823,24 @@
         <v>150</v>
       </c>
       <c r="J46">
-        <v>1.7082337E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.7082336863682952E-2</v>
       </c>
       <c r="K46">
-        <v>1.9213937E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.921147565479113E-2</v>
       </c>
       <c r="M46">
-        <v>1.619142729</v>
+        <f t="shared" si="6"/>
+        <v>1.6194055346771439</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>69</v>
       </c>
       <c r="P46">
-        <v>1.5227390519999999</v>
-      </c>
-      <c r="R46" t="s">
-        <v>27</v>
+        <f t="shared" si="8"/>
+        <v>1.5227369403804358</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -8404,37 +7848,47 @@
         <v>1956</v>
       </c>
       <c r="B47">
-        <v>86127</v>
+        <v>86139</v>
       </c>
       <c r="C47">
         <v>793</v>
       </c>
       <c r="D47">
-        <v>9.2073329999999998E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.2060506855199155E-3</v>
       </c>
       <c r="E47">
-        <v>1.1294047E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1292508378956664E-2</v>
       </c>
       <c r="G47">
         <v>1956</v>
       </c>
       <c r="H47">
-        <v>8400</v>
+        <v>8401</v>
       </c>
       <c r="I47">
         <v>112</v>
       </c>
       <c r="J47">
-        <v>1.3333332999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.3331746220688013E-2</v>
       </c>
       <c r="K47">
-        <v>1.7508116000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.7505372492836676E-2</v>
       </c>
       <c r="M47">
-        <v>1.448121059</v>
+        <f t="shared" si="6"/>
+        <v>1.4481504258560465</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>68</v>
       </c>
       <c r="P47">
-        <v>1.550207479</v>
+        <f t="shared" si="8"/>
+        <v>1.5501757364606028</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -8442,40 +7896,47 @@
         <v>1957</v>
       </c>
       <c r="B48">
-        <v>84138</v>
+        <v>84154</v>
       </c>
       <c r="C48">
         <v>703</v>
       </c>
       <c r="D48">
-        <v>8.3553210000000006E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.3537324429022973E-3</v>
       </c>
       <c r="E48">
-        <v>1.0333721000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.0332363158388884E-2</v>
       </c>
       <c r="G48">
         <v>1957</v>
       </c>
       <c r="H48">
-        <v>7794</v>
+        <v>7795</v>
       </c>
       <c r="I48">
         <v>96</v>
       </c>
       <c r="J48">
-        <v>1.2317167E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.2315586914688903E-2</v>
       </c>
       <c r="K48">
-        <v>1.5913889000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.5911673973047574E-2</v>
       </c>
       <c r="M48">
-        <v>1.474170414</v>
+        <f t="shared" si="6"/>
+        <v>1.4742615949057325</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>67</v>
       </c>
       <c r="P48">
-        <v>1.539995902</v>
-      </c>
-      <c r="R48" t="s">
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>1.5399840026072666</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -8483,16 +7944,18 @@
         <v>1958</v>
       </c>
       <c r="B49">
-        <v>78639</v>
+        <v>78658</v>
       </c>
       <c r="C49">
         <v>566</v>
       </c>
       <c r="D49">
-        <v>7.197447E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.1957080017290044E-3</v>
       </c>
       <c r="E49">
-        <v>9.3285050000000008E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.3270186350170939E-3</v>
       </c>
       <c r="G49">
         <v>1958</v>
@@ -8504,16 +7967,24 @@
         <v>88</v>
       </c>
       <c r="J49">
-        <v>1.2149662E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.2149661742371946E-2</v>
       </c>
       <c r="K49">
-        <v>1.4370327E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.4368932038834952E-2</v>
       </c>
       <c r="M49">
-        <v>1.6880516780000001</v>
+        <f t="shared" si="6"/>
+        <v>1.688459528854227</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>66</v>
       </c>
       <c r="P49">
-        <v>1.5404749010000001</v>
+        <f t="shared" si="8"/>
+        <v>1.540570744105586</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
@@ -8521,40 +7992,47 @@
         <v>1959</v>
       </c>
       <c r="B50">
-        <v>72984</v>
+        <v>73004</v>
       </c>
       <c r="C50">
         <v>478</v>
       </c>
       <c r="D50">
-        <v>6.549381E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.5475864336200758E-3</v>
       </c>
       <c r="E50">
-        <v>8.4529400000000008E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.4512631576368798E-3</v>
       </c>
       <c r="G50">
         <v>1959</v>
       </c>
       <c r="H50">
-        <v>6716</v>
+        <v>6717</v>
       </c>
       <c r="I50">
         <v>70</v>
       </c>
       <c r="J50">
-        <v>1.0422871E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.0421319041238648E-2</v>
       </c>
       <c r="K50">
-        <v>1.3253198000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.3252176592957856E-2</v>
       </c>
       <c r="M50">
-        <v>1.59142845</v>
+        <f t="shared" si="6"/>
+        <v>1.591627563361059</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="P50">
-        <v>1.567880181</v>
-      </c>
-      <c r="R50" t="s">
-        <v>29</v>
+        <f t="shared" si="8"/>
+        <v>1.5680705174803</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -8562,16 +8040,18 @@
         <v>1960</v>
       </c>
       <c r="B51">
-        <v>73516</v>
+        <v>73535</v>
       </c>
       <c r="C51">
         <v>423</v>
       </c>
       <c r="D51">
-        <v>5.7538499999999996E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.752362820425648E-3</v>
       </c>
       <c r="E51">
-        <v>7.4936009999999999E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.4919719841209636E-3</v>
       </c>
       <c r="G51">
         <v>1960</v>
@@ -8583,16 +8063,24 @@
         <v>61</v>
       </c>
       <c r="J51">
-        <v>8.9155220000000004E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.9155217772581112E-3</v>
       </c>
       <c r="K51">
-        <v>1.15421E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1541164387264177E-2</v>
       </c>
       <c r="M51">
-        <v>1.549488177</v>
+        <f t="shared" si="6"/>
+        <v>1.5498886380394212</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>64</v>
       </c>
       <c r="P51">
-        <v>1.5402607559999999</v>
+        <f t="shared" si="8"/>
+        <v>1.5404708415521799</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
@@ -8600,40 +8088,47 @@
         <v>1961</v>
       </c>
       <c r="B52">
-        <v>75388</v>
+        <v>75410</v>
       </c>
       <c r="C52">
         <v>414</v>
       </c>
       <c r="D52">
-        <v>5.4915900000000002E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.4899880652433362E-3</v>
       </c>
       <c r="E52">
-        <v>6.7175330000000004E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.7158573763972957E-3</v>
       </c>
       <c r="G52">
         <v>1961</v>
       </c>
       <c r="H52">
-        <v>6886</v>
+        <v>6888</v>
       </c>
       <c r="I52">
         <v>54</v>
       </c>
       <c r="J52">
-        <v>7.8419979999999993E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.8397212543554005E-3</v>
       </c>
       <c r="K52">
-        <v>1.0399932000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.039876003945329E-2</v>
       </c>
       <c r="M52">
-        <v>1.428001364</v>
+        <f t="shared" si="6"/>
+        <v>1.4280033328283595</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>63</v>
       </c>
       <c r="P52">
-        <v>1.548177237</v>
-      </c>
-      <c r="R52" t="s">
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>1.5483890524535942</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
@@ -8641,37 +8136,47 @@
         <v>1962</v>
       </c>
       <c r="B53">
-        <v>77557</v>
+        <v>77590</v>
       </c>
       <c r="C53">
         <v>406</v>
       </c>
       <c r="D53">
-        <v>5.23486E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.2326330712720711E-3</v>
       </c>
       <c r="E53">
-        <v>6.0489200000000002E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.0471130125305068E-3</v>
       </c>
       <c r="G53">
         <v>1962</v>
       </c>
       <c r="H53">
-        <v>6850</v>
+        <v>6852</v>
       </c>
       <c r="I53">
         <v>56</v>
       </c>
       <c r="J53">
-        <v>8.1751819999999996E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.1727962638645651E-3</v>
       </c>
       <c r="K53">
-        <v>9.526016E-3</v>
+        <f t="shared" si="5"/>
+        <v>9.5246366741937351E-3</v>
       </c>
       <c r="M53">
-        <v>1.5616813490000001</v>
+        <f t="shared" si="6"/>
+        <v>1.5618898081607182</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>62</v>
       </c>
       <c r="P53">
-        <v>1.5748290659999999</v>
+        <f t="shared" si="8"/>
+        <v>1.5750717167774586</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
@@ -8679,78 +8184,96 @@
         <v>1963</v>
       </c>
       <c r="B54">
-        <v>86991</v>
+        <v>87025</v>
       </c>
       <c r="C54">
         <v>330</v>
       </c>
       <c r="D54">
-        <v>3.7934959999999999E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.7920137891410514E-3</v>
       </c>
       <c r="E54">
-        <v>5.3074769999999997E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.3057191047278067E-3</v>
       </c>
       <c r="G54">
         <v>1963</v>
       </c>
       <c r="H54">
-        <v>7707</v>
+        <v>7708</v>
       </c>
       <c r="I54">
         <v>50</v>
       </c>
       <c r="J54">
-        <v>6.4876090000000001E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.4867669953295277E-3</v>
       </c>
       <c r="K54">
-        <v>8.3140479999999992E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.3126231896477852E-3</v>
       </c>
       <c r="M54">
-        <v>1.710192623</v>
+        <f t="shared" si="6"/>
+        <v>1.7106390841471277</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="P54">
-        <v>1.5664785560000001</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>31</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1.566728849674796</v>
+      </c>
+      <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1964</v>
       </c>
       <c r="B55">
-        <v>90282</v>
+        <v>90315</v>
       </c>
       <c r="C55">
         <v>380</v>
       </c>
       <c r="D55">
-        <v>4.2090340000000004E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.2074959862702759E-3</v>
       </c>
       <c r="E55">
-        <v>4.837343E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8356545961002785E-3</v>
       </c>
       <c r="G55">
         <v>1964</v>
       </c>
       <c r="H55">
-        <v>7641</v>
+        <v>7644</v>
       </c>
       <c r="I55">
         <v>47</v>
       </c>
       <c r="J55">
-        <v>6.1510269999999999E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.1486132914704344E-3</v>
       </c>
       <c r="K55">
-        <v>7.4597780000000002E-3</v>
+        <f t="shared" si="5"/>
+        <v>7.458117660154728E-3</v>
       </c>
       <c r="M55">
-        <v>1.4613869770000001</v>
+        <f t="shared" si="6"/>
+        <v>1.4613473932082957</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="P55">
-        <v>1.5421229830000001</v>
+        <f t="shared" si="8"/>
+        <v>1.5423181105965134</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -8758,40 +8281,47 @@
         <v>1965</v>
       </c>
       <c r="B56">
-        <v>86404</v>
+        <v>86436</v>
       </c>
       <c r="C56">
         <v>329</v>
       </c>
       <c r="D56">
-        <v>3.8076939999999999E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.8062844185293163E-3</v>
       </c>
       <c r="E56">
-        <v>4.4620780000000004E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.4604295832773484E-3</v>
       </c>
       <c r="G56">
         <v>1965</v>
       </c>
       <c r="H56">
-        <v>7284</v>
+        <v>7285</v>
       </c>
       <c r="I56">
         <v>44</v>
       </c>
       <c r="J56">
-        <v>6.0406369999999997E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.0398078242964994E-3</v>
       </c>
       <c r="K56">
-        <v>6.9016720000000002E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.8999642631332988E-3</v>
       </c>
       <c r="M56">
-        <v>1.586429181</v>
+        <f t="shared" si="6"/>
+        <v>1.586798872647089</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
       <c r="P56">
-        <v>1.546739273</v>
-      </c>
-      <c r="R56" t="s">
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>1.5469281902806042</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -8799,37 +8329,47 @@
         <v>1966</v>
       </c>
       <c r="B57">
-        <v>82953</v>
+        <v>82993</v>
       </c>
       <c r="C57">
         <v>270</v>
       </c>
       <c r="D57">
-        <v>3.2548550000000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.2532864217464123E-3</v>
       </c>
       <c r="E57">
-        <v>4.0430279999999997E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.0413894839039588E-3</v>
       </c>
       <c r="G57">
         <v>1966</v>
       </c>
       <c r="H57">
-        <v>7294</v>
+        <v>7296</v>
       </c>
       <c r="I57">
         <v>38</v>
       </c>
       <c r="J57">
-        <v>5.2097610000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="K57">
-        <v>6.3900370000000003E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.3884735625934488E-3</v>
       </c>
       <c r="M57">
-        <v>1.6006123750000001</v>
+        <f t="shared" si="6"/>
+        <v>1.6009452160493827</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="7"/>
+        <v>58</v>
       </c>
       <c r="P57">
-        <v>1.580507648</v>
+        <f t="shared" si="8"/>
+        <v>1.5807616632936403</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
@@ -8837,37 +8377,47 @@
         <v>1967</v>
       </c>
       <c r="B58">
-        <v>81794</v>
+        <v>81838</v>
       </c>
       <c r="C58">
         <v>262</v>
       </c>
       <c r="D58">
-        <v>3.2031690000000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.2014467606735256E-3</v>
       </c>
       <c r="E58">
-        <v>3.6669279999999999E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.6653624415840151E-3</v>
       </c>
       <c r="G58">
         <v>1967</v>
       </c>
       <c r="H58">
-        <v>7436</v>
+        <v>7437</v>
       </c>
       <c r="I58">
         <v>26</v>
       </c>
       <c r="J58">
-        <v>3.4965030000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.4960333467796154E-3</v>
       </c>
       <c r="K58">
-        <v>5.4868579999999998E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.4856837035054855E-3</v>
       </c>
       <c r="M58">
-        <v>1.0915763629999999</v>
+        <f t="shared" si="6"/>
+        <v>1.0920167062356876</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="7"/>
+        <v>57</v>
       </c>
       <c r="P58">
-        <v>1.496309219</v>
+        <f t="shared" si="8"/>
+        <v>1.4966279026787879</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
@@ -8875,37 +8425,47 @@
         <v>1968</v>
       </c>
       <c r="B59">
-        <v>82035</v>
+        <v>82071</v>
       </c>
       <c r="C59">
         <v>236</v>
       </c>
       <c r="D59">
-        <v>2.8768209999999999E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.8755589672356864E-3</v>
       </c>
       <c r="E59">
-        <v>3.487867E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.4863437766285144E-3</v>
       </c>
       <c r="G59">
         <v>1968</v>
       </c>
       <c r="H59">
-        <v>7085</v>
+        <v>7087</v>
       </c>
       <c r="I59">
         <v>37</v>
       </c>
       <c r="J59">
-        <v>5.2223010000000004E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.2208268660928463E-3</v>
       </c>
       <c r="K59">
-        <v>5.2259120000000001E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.2246319627744977E-3</v>
       </c>
       <c r="M59">
-        <v>1.8153026809999999</v>
+        <f t="shared" si="6"/>
+        <v>1.8155867869792626</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="7"/>
+        <v>56</v>
       </c>
       <c r="P59">
-        <v>1.4983117290000001</v>
+        <f t="shared" si="8"/>
+        <v>1.4985991908769833</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
@@ -8913,37 +8473,47 @@
         <v>1969</v>
       </c>
       <c r="B60">
-        <v>86487</v>
+        <v>86531</v>
       </c>
       <c r="C60">
         <v>218</v>
       </c>
       <c r="D60">
-        <v>2.52061E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.5193283331985069E-3</v>
       </c>
       <c r="E60">
-        <v>3.133392E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.1319292445977196E-3</v>
       </c>
       <c r="G60">
         <v>1969</v>
       </c>
       <c r="H60">
-        <v>7298</v>
+        <v>7302</v>
       </c>
       <c r="I60">
         <v>30</v>
       </c>
       <c r="J60">
-        <v>4.110715E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.1084634346754316E-3</v>
       </c>
       <c r="K60">
-        <v>4.8080889999999998E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.8067679292443759E-3</v>
       </c>
       <c r="M60">
-        <v>1.630841427</v>
+        <f t="shared" si="6"/>
+        <v>1.6307772911279805</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="7"/>
+        <v>55</v>
       </c>
       <c r="P60">
-        <v>1.534467649</v>
+        <f t="shared" si="8"/>
+        <v>1.5347626187710319</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
@@ -8951,37 +8521,47 @@
         <v>1970</v>
       </c>
       <c r="B61">
-        <v>90862</v>
+        <v>90922</v>
       </c>
       <c r="C61">
         <v>209</v>
       </c>
       <c r="D61">
-        <v>2.300191E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.2986735883504541E-3</v>
       </c>
       <c r="E61">
-        <v>2.8175259999999999E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.8160384583662264E-3</v>
       </c>
       <c r="G61">
         <v>1970</v>
       </c>
       <c r="H61">
-        <v>7205</v>
+        <v>7209</v>
       </c>
       <c r="I61">
         <v>22</v>
       </c>
       <c r="J61">
-        <v>3.0534350000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.0517408794562351E-3</v>
       </c>
       <c r="K61">
-        <v>4.212787E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.2112796234620572E-3</v>
       </c>
       <c r="M61">
-        <v>1.3274699590000001</v>
+        <f t="shared" si="6"/>
+        <v>1.3276094939804777</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="7"/>
+        <v>54</v>
       </c>
       <c r="P61">
-        <v>1.49520802</v>
+        <f t="shared" si="8"/>
+        <v>1.4954623971667291</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
@@ -8989,37 +8569,47 @@
         <v>1971</v>
       </c>
       <c r="B62">
-        <v>94584</v>
+        <v>94649</v>
       </c>
       <c r="C62">
         <v>182</v>
       </c>
       <c r="D62">
-        <v>1.9242160000000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.9228940612156494E-3</v>
       </c>
       <c r="E62">
-        <v>2.5403779999999998E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.5389267701961646E-3</v>
       </c>
       <c r="G62">
         <v>1971</v>
       </c>
       <c r="H62">
-        <v>7572</v>
+        <v>7575</v>
       </c>
       <c r="I62">
         <v>26</v>
       </c>
       <c r="J62">
-        <v>3.4337030000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.4323432343234322E-3</v>
       </c>
       <c r="K62">
-        <v>3.8528799999999999E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.8514067194755533E-3</v>
       </c>
       <c r="M62">
-        <v>1.7844690969999999</v>
+        <f t="shared" si="6"/>
+        <v>1.7849882131070249</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="7"/>
+        <v>53</v>
       </c>
       <c r="P62">
-        <v>1.5166564920000001</v>
+        <f t="shared" si="8"/>
+        <v>1.5169428140607548</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
@@ -9027,16 +8617,18 @@
         <v>1972</v>
       </c>
       <c r="B63">
-        <v>100096</v>
+        <v>100157</v>
       </c>
       <c r="C63">
         <v>156</v>
       </c>
       <c r="D63">
-        <v>1.5585040000000001E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.5575546392164303E-3</v>
       </c>
       <c r="E63">
-        <v>2.2045350000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.2032443378161249E-3</v>
       </c>
       <c r="G63">
         <v>1972</v>
@@ -9048,16 +8640,24 @@
         <v>25</v>
       </c>
       <c r="J63">
-        <v>3.0614739999999998E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.061474406073965E-3</v>
       </c>
       <c r="K63">
-        <v>3.7507370000000001E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.7494308899542034E-3</v>
       </c>
       <c r="M63">
-        <v>1.9643675780000001</v>
+        <f t="shared" si="6"/>
+        <v>1.9655646928791672</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="7"/>
+        <v>52</v>
       </c>
       <c r="P63">
-        <v>1.7013731590000001</v>
+        <f t="shared" si="8"/>
+        <v>1.7017771590738193</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
@@ -9065,37 +8665,47 @@
         <v>1973</v>
       </c>
       <c r="B64">
-        <v>110520</v>
+        <v>110586</v>
       </c>
       <c r="C64">
         <v>165</v>
       </c>
       <c r="D64">
-        <v>1.4929419999999999E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.4920514350821984E-3</v>
       </c>
       <c r="E64">
-        <v>1.9272650000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.9260839399807392E-3</v>
       </c>
       <c r="G64">
         <v>1973</v>
       </c>
       <c r="H64">
-        <v>8537</v>
+        <v>8541</v>
       </c>
       <c r="I64">
         <v>19</v>
       </c>
       <c r="J64">
-        <v>2.2256060000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.2245638683994848E-3</v>
       </c>
       <c r="K64">
-        <v>3.1461140000000002E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.1448972752816228E-3</v>
       </c>
       <c r="M64">
-        <v>1.4907514879999999</v>
+        <f t="shared" si="6"/>
+        <v>1.4909431512171238</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="7"/>
+        <v>51</v>
       </c>
       <c r="P64">
-        <v>1.632423717</v>
+        <f t="shared" si="8"/>
+        <v>1.632793467616511</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -9103,37 +8713,47 @@
         <v>1974</v>
       </c>
       <c r="B65">
-        <v>118006</v>
+        <v>118076</v>
       </c>
       <c r="C65">
         <v>171</v>
       </c>
       <c r="D65">
-        <v>1.449079E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.4482197906433144E-3</v>
       </c>
       <c r="E65">
-        <v>1.7176719999999999E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.716596356849861E-3</v>
       </c>
       <c r="G65">
         <v>1974</v>
       </c>
       <c r="H65">
-        <v>9190</v>
+        <v>9193</v>
       </c>
       <c r="I65">
         <v>25</v>
       </c>
       <c r="J65">
-        <v>2.720348E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.7194604590449257E-3</v>
       </c>
       <c r="K65">
-        <v>2.8768130000000002E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.8758234195261035E-3</v>
       </c>
       <c r="M65">
-        <v>1.877294797</v>
+        <f t="shared" si="6"/>
+        <v>1.8777953986092903</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="P65">
-        <v>1.6748331809999999</v>
+        <f t="shared" si="8"/>
+        <v>1.6753055591959596</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -9141,37 +8761,47 @@
         <v>1975</v>
       </c>
       <c r="B66">
-        <v>116804</v>
+        <v>116870</v>
       </c>
       <c r="C66">
         <v>130</v>
       </c>
       <c r="D66">
-        <v>1.1129759999999999E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.1123470522803114E-3</v>
       </c>
       <c r="E66">
-        <v>1.488861E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.4879575376893722E-3</v>
       </c>
       <c r="G66">
         <v>1975</v>
       </c>
       <c r="H66">
-        <v>8686</v>
+        <v>8691</v>
       </c>
       <c r="I66">
         <v>12</v>
       </c>
       <c r="J66">
-        <v>1.381534E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.380738695201933E-3</v>
       </c>
       <c r="K66">
-        <v>2.5384930000000002E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.5375895271071481E-3</v>
       </c>
       <c r="M66">
-        <v>1.2412972250000001</v>
+        <f t="shared" si="6"/>
+        <v>1.2412840869865378</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="7"/>
+        <v>49</v>
       </c>
       <c r="P66">
-        <v>1.7049892639999999</v>
+        <f t="shared" si="8"/>
+        <v>1.7054179725099778</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -9179,37 +8809,47 @@
         <v>1976</v>
       </c>
       <c r="B67">
-        <v>113236</v>
+        <v>113300</v>
       </c>
       <c r="C67">
         <v>138</v>
       </c>
       <c r="D67">
-        <v>1.218694E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.2180052956751986E-3</v>
       </c>
       <c r="E67">
-        <v>1.3603930000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.3595974160493319E-3</v>
       </c>
       <c r="G67">
         <v>1976</v>
       </c>
       <c r="H67">
-        <v>8657</v>
+        <v>8661</v>
       </c>
       <c r="I67">
         <v>15</v>
       </c>
       <c r="J67">
-        <v>1.732702E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.7319016279875303E-3</v>
       </c>
       <c r="K67">
-        <v>2.220372E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.2195505410154445E-3</v>
       </c>
       <c r="M67">
-        <v>1.421769767</v>
+        <f t="shared" si="6"/>
+        <v>1.4219163366013565</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="7"/>
+        <v>48</v>
       </c>
       <c r="P67">
-        <v>1.6321544910000001</v>
+        <f t="shared" si="8"/>
+        <v>1.6325057070680031</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -9217,37 +8857,47 @@
         <v>1977</v>
       </c>
       <c r="B68">
-        <v>109281</v>
+        <v>109341</v>
       </c>
       <c r="C68">
         <v>106</v>
       </c>
       <c r="D68">
-        <v>9.69976E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.6944421580194074E-4</v>
       </c>
       <c r="E68">
-        <v>1.250337E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.2496193940929963E-3</v>
       </c>
       <c r="G68">
         <v>1977</v>
       </c>
       <c r="H68">
-        <v>8567</v>
+        <v>8571</v>
       </c>
       <c r="I68">
         <v>14</v>
       </c>
       <c r="J68">
-        <v>1.634178E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.6334150040835376E-3</v>
       </c>
       <c r="K68">
-        <v>1.947888E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.9469958998556932E-3</v>
       </c>
       <c r="M68">
-        <v>1.6847600819999999</v>
+        <f t="shared" si="6"/>
+        <v>1.6848983958631893</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="7"/>
+        <v>47</v>
       </c>
       <c r="P68">
-        <v>1.5578908520000001</v>
+        <f t="shared" si="8"/>
+        <v>1.5580711287446602</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -9255,37 +8905,47 @@
         <v>1978</v>
       </c>
       <c r="B69">
-        <v>106369</v>
+        <v>106452</v>
       </c>
       <c r="C69">
         <v>97</v>
       </c>
       <c r="D69">
-        <v>9.1191999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.1120880772554763E-4</v>
       </c>
       <c r="E69">
-        <v>1.138912E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.138219165695989E-3</v>
       </c>
       <c r="G69">
         <v>1978</v>
       </c>
       <c r="H69">
-        <v>8352</v>
+        <v>8355</v>
       </c>
       <c r="I69">
         <v>10</v>
       </c>
       <c r="J69">
-        <v>1.197318E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.1968880909634949E-3</v>
       </c>
       <c r="K69">
-        <v>1.7490559999999999E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.7482919647581147E-3</v>
       </c>
       <c r="M69">
-        <v>1.312964115</v>
+        <f t="shared" si="6"/>
+        <v>1.3135168150437728</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="7"/>
+        <v>46</v>
       </c>
       <c r="P69">
-        <v>1.535726033</v>
+        <f t="shared" si="8"/>
+        <v>1.535988865280689</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -9293,37 +8953,47 @@
         <v>1979</v>
       </c>
       <c r="B70">
-        <v>101779</v>
+        <v>101858</v>
       </c>
       <c r="C70">
         <v>98</v>
       </c>
       <c r="D70">
-        <v>9.6287100000000002E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.6212374089418601E-4</v>
       </c>
       <c r="E70">
-        <v>1.039328E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.0386604383548642E-3</v>
       </c>
       <c r="G70">
         <v>1979</v>
       </c>
       <c r="H70">
-        <v>8057</v>
+        <v>8061</v>
       </c>
       <c r="I70">
         <v>5</v>
       </c>
       <c r="J70">
-        <v>6.2057799999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>6.2027043791092911E-4</v>
       </c>
       <c r="K70">
-        <v>1.323283E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.3226575970145728E-3</v>
       </c>
       <c r="M70">
-        <v>0.64450864100000005</v>
+        <f t="shared" si="6"/>
+        <v>0.64468883943603483</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="P70">
-        <v>1.273209576</v>
+        <f t="shared" si="8"/>
+        <v>1.2734263751390513</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -9331,37 +9001,47 @@
         <v>1980</v>
       </c>
       <c r="B71">
-        <v>91218</v>
+        <v>91301</v>
       </c>
       <c r="C71">
         <v>84</v>
       </c>
       <c r="D71">
-        <v>9.2087099999999997E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2003373457026757E-4</v>
       </c>
       <c r="E71">
-        <v>1.0021400000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.0014322587563091E-3</v>
       </c>
       <c r="G71">
         <v>1980</v>
       </c>
       <c r="H71">
-        <v>7087</v>
+        <v>7089</v>
       </c>
       <c r="I71">
         <v>8</v>
       </c>
       <c r="J71">
-        <v>1.128827E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.1285089575398504E-3</v>
       </c>
       <c r="K71">
-        <v>1.2770139999999999E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.2764808405135381E-3</v>
       </c>
       <c r="M71">
-        <v>1.225825959</v>
+        <f t="shared" si="6"/>
+        <v>1.2265951944326892</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="P71">
-        <v>1.2742863639999999</v>
+        <f t="shared" si="8"/>
+        <v>1.27465520443571</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
@@ -9369,37 +9049,47 @@
         <v>1981</v>
       </c>
       <c r="B72">
-        <v>84206</v>
+        <v>84304</v>
       </c>
       <c r="C72">
         <v>58</v>
       </c>
       <c r="D72">
-        <v>6.8878699999999995E-4</v>
+        <f t="shared" ref="D72:D99" si="9">C72/B72</f>
+        <v>6.8798633516796361E-4</v>
       </c>
       <c r="E72">
-        <v>8.9884800000000005E-4</v>
+        <f t="shared" ref="E72:E99" si="10">SUM(C68:C72)/SUM(B68:B72)</f>
+        <v>8.9811375837293408E-4</v>
       </c>
       <c r="G72">
         <v>1981</v>
       </c>
       <c r="H72">
-        <v>6657</v>
+        <v>6661</v>
       </c>
       <c r="I72">
         <v>8</v>
       </c>
       <c r="J72">
-        <v>1.2017429999999999E-3</v>
+        <f t="shared" ref="J72:J100" si="11">I72/H72</f>
+        <v>1.201020867737577E-3</v>
       </c>
       <c r="K72">
-        <v>1.16219E-3</v>
+        <f t="shared" ref="K72:K100" si="12">SUM(I68:I72)/SUM(H68:H72)</f>
+        <v>1.1616800474998064E-3</v>
       </c>
       <c r="M72">
-        <v>1.744722952</v>
+        <f t="shared" si="6"/>
+        <v>1.7457045385129084</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
       <c r="P72">
-        <v>1.2929771299999999</v>
+        <f t="shared" si="8"/>
+        <v>1.2934664864775722</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
@@ -9407,37 +9097,47 @@
         <v>1982</v>
       </c>
       <c r="B73">
-        <v>81310</v>
+        <v>81408</v>
       </c>
       <c r="C73">
         <v>58</v>
       </c>
       <c r="D73">
-        <v>7.1331900000000002E-4</v>
+        <f t="shared" si="9"/>
+        <v>7.1246069182389932E-4</v>
       </c>
       <c r="E73">
-        <v>8.4967799999999998E-4</v>
+        <f t="shared" si="10"/>
+        <v>8.4887271852025368E-4</v>
       </c>
       <c r="G73">
         <v>1982</v>
       </c>
       <c r="H73">
-        <v>6440</v>
+        <v>6442</v>
       </c>
       <c r="I73">
         <v>9</v>
       </c>
       <c r="J73">
-        <v>1.3975159999999999E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.3970816516609749E-3</v>
       </c>
       <c r="K73">
-        <v>1.093105E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.0926573426573427E-3</v>
       </c>
       <c r="M73">
-        <v>1.9591722</v>
+        <f t="shared" si="6"/>
+        <v>1.9609245361795975</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="P73">
-        <v>1.286493543</v>
+        <f t="shared" si="8"/>
+        <v>1.2871863105249182</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
@@ -9445,37 +9145,47 @@
         <v>1983</v>
       </c>
       <c r="B74">
-        <v>78274</v>
+        <v>78395</v>
       </c>
       <c r="C74">
         <v>47</v>
       </c>
       <c r="D74">
-        <v>6.0045499999999996E-4</v>
+        <f t="shared" si="9"/>
+        <v>5.9952803112443397E-4</v>
       </c>
       <c r="E74">
-        <v>7.8985899999999996E-4</v>
+        <f t="shared" si="10"/>
+        <v>7.8899342734170964E-4</v>
       </c>
       <c r="G74">
         <v>1983</v>
       </c>
       <c r="H74">
-        <v>6137</v>
+        <v>6139</v>
       </c>
       <c r="I74">
         <v>4</v>
       </c>
       <c r="J74">
-        <v>6.5178399999999998E-4</v>
+        <f t="shared" si="11"/>
+        <v>6.5157191725036647E-4</v>
       </c>
       <c r="K74">
-        <v>9.8900500000000005E-4</v>
+        <f t="shared" si="12"/>
+        <v>9.8860200046522453E-4</v>
       </c>
       <c r="M74">
-        <v>1.0854842790000001</v>
+        <f t="shared" si="6"/>
+        <v>1.0868080947413292</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="P74">
-        <v>1.2521285520000001</v>
+        <f t="shared" si="8"/>
+        <v>1.2529914270592082</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
@@ -9483,37 +9193,47 @@
         <v>1984</v>
       </c>
       <c r="B75">
-        <v>77175</v>
+        <v>77298</v>
       </c>
       <c r="C75">
         <v>50</v>
       </c>
       <c r="D75">
-        <v>6.4787799999999995E-4</v>
+        <f t="shared" si="9"/>
+        <v>6.4684726642345208E-4</v>
       </c>
       <c r="E75">
-        <v>7.2055399999999999E-4</v>
+        <f t="shared" si="10"/>
+        <v>7.1964061583790879E-4</v>
       </c>
       <c r="G75">
         <v>1984</v>
       </c>
       <c r="H75">
-        <v>6053</v>
+        <v>6057</v>
       </c>
       <c r="I75">
         <v>5</v>
       </c>
       <c r="J75">
-        <v>8.2603699999999995E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.2549116724451048E-4</v>
       </c>
       <c r="K75">
-        <v>1.0502249999999999E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.0497715203161666E-3</v>
       </c>
       <c r="M75">
-        <v>1.2749876090000001</v>
+        <f t="shared" si="6"/>
+        <v>1.2761763249133236</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="P75">
-        <v>1.4575255659999999</v>
+        <f t="shared" si="8"/>
+        <v>1.4587441247932791</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
@@ -9521,37 +9241,47 @@
         <v>1985</v>
       </c>
       <c r="B76">
-        <v>76034</v>
+        <v>76140</v>
       </c>
       <c r="C76">
         <v>51</v>
       </c>
       <c r="D76">
-        <v>6.7075299999999995E-4</v>
+        <f t="shared" si="9"/>
+        <v>6.6981875492513789E-4</v>
       </c>
       <c r="E76">
-        <v>6.6498900000000005E-4</v>
+        <f t="shared" si="10"/>
+        <v>6.6407576500773498E-4</v>
       </c>
       <c r="G76">
         <v>1985</v>
       </c>
       <c r="H76">
-        <v>5813</v>
+        <v>5818</v>
       </c>
       <c r="I76">
         <v>4</v>
       </c>
       <c r="J76">
-        <v>6.8811299999999996E-4</v>
+        <f t="shared" si="11"/>
+        <v>6.8752148504640774E-4</v>
       </c>
       <c r="K76">
-        <v>9.6462999999999996E-4</v>
+        <f t="shared" si="12"/>
+        <v>9.6410322331844328E-4</v>
       </c>
       <c r="M76">
-        <v>1.025881813</v>
+        <f t="shared" si="6"/>
+        <v>1.02642913473399</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="P76">
-        <v>1.4505955859999999</v>
+        <f t="shared" si="8"/>
+        <v>1.4517970299777672</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
@@ -9559,37 +9289,47 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>74066</v>
+        <v>74197</v>
       </c>
       <c r="C77">
         <v>33</v>
       </c>
       <c r="D77">
-        <v>4.45549E-4</v>
+        <f t="shared" si="9"/>
+        <v>4.4476191759774654E-4</v>
       </c>
       <c r="E77">
-        <v>6.1779599999999999E-4</v>
+        <f t="shared" si="10"/>
+        <v>6.168728932113009E-4</v>
       </c>
       <c r="G77">
         <v>1986</v>
       </c>
       <c r="H77">
-        <v>5851</v>
+        <v>5854</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77">
-        <v>3.4182199999999998E-4</v>
+        <f t="shared" si="11"/>
+        <v>3.4164673727365904E-4</v>
       </c>
       <c r="K77">
-        <v>7.9223599999999998E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.9181788188716594E-4</v>
       </c>
       <c r="M77">
-        <v>0.76719338299999995</v>
+        <f t="shared" ref="M77:M93" si="13">J77/D77</f>
+        <v>0.76815645349980843</v>
+      </c>
+      <c r="O77">
+        <f t="shared" ref="O77:O93" si="14">2024-$A77</f>
+        <v>38</v>
       </c>
       <c r="P77">
-        <v>1.2823584109999999</v>
+        <f t="shared" ref="P77:P93" si="15">K77/E77</f>
+        <v>1.2835997344041832</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
@@ -9597,37 +9337,47 @@
         <v>1987</v>
       </c>
       <c r="B78">
-        <v>72437</v>
+        <v>72575</v>
       </c>
       <c r="C78">
         <v>35</v>
       </c>
       <c r="D78">
-        <v>4.8317800000000001E-4</v>
+        <f t="shared" si="9"/>
+        <v>4.8225973131243543E-4</v>
       </c>
       <c r="E78">
-        <v>5.7145000000000004E-4</v>
+        <f t="shared" si="10"/>
+        <v>5.705154448567768E-4</v>
       </c>
       <c r="G78">
         <v>1987</v>
       </c>
       <c r="H78">
-        <v>5696</v>
+        <v>5705</v>
       </c>
       <c r="I78">
         <v>4</v>
       </c>
       <c r="J78">
-        <v>7.0224700000000003E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.0113935144609991E-4</v>
       </c>
       <c r="K78">
-        <v>6.42978E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.4247793595509416E-4</v>
       </c>
       <c r="M78">
-        <v>1.453390851</v>
+        <f t="shared" si="13"/>
+        <v>1.4538625266057343</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="14"/>
+        <v>37</v>
       </c>
       <c r="P78">
-        <v>1.125169831</v>
+        <f t="shared" si="15"/>
+        <v>1.1261359210290669</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
@@ -9635,37 +9385,47 @@
         <v>1988</v>
       </c>
       <c r="B79">
-        <v>72590</v>
+        <v>72724</v>
       </c>
       <c r="C79">
         <v>27</v>
       </c>
       <c r="D79">
-        <v>3.7195199999999999E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.7126670700181509E-4</v>
       </c>
       <c r="E79">
-        <v>5.2645399999999998E-4</v>
+        <f t="shared" si="10"/>
+        <v>5.2556216381450876E-4</v>
       </c>
       <c r="G79">
         <v>1988</v>
       </c>
       <c r="H79">
-        <v>5474</v>
+        <v>5478</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79">
-        <v>5.4804500000000004E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.4764512595837896E-4</v>
       </c>
       <c r="K79">
-        <v>6.2311799999999998E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.2257885998893189E-4</v>
       </c>
       <c r="M79">
-        <v>1.473429952</v>
+        <f t="shared" si="13"/>
+        <v>1.475072005192487</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="14"/>
+        <v>36</v>
       </c>
       <c r="P79">
-        <v>1.1836120050000001</v>
+        <f t="shared" si="15"/>
+        <v>1.1845960437301648</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
@@ -9673,37 +9433,47 @@
         <v>1989</v>
       </c>
       <c r="B80">
-        <v>69823</v>
+        <v>69978</v>
       </c>
       <c r="C80">
         <v>36</v>
       </c>
       <c r="D80">
-        <v>5.15589E-4</v>
+        <f t="shared" si="9"/>
+        <v>5.1444739775357966E-4</v>
       </c>
       <c r="E80">
-        <v>4.98698E-4</v>
+        <f t="shared" si="10"/>
+        <v>4.9779275410679019E-4</v>
       </c>
       <c r="G80">
         <v>1989</v>
       </c>
       <c r="H80">
-        <v>5203</v>
+        <v>5211</v>
       </c>
       <c r="I80">
         <v>4</v>
       </c>
       <c r="J80">
-        <v>7.6878700000000005E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.6760698522356549E-4</v>
       </c>
       <c r="K80">
-        <v>6.0634199999999995E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.0571510012114298E-4</v>
       </c>
       <c r="M80">
-        <v>1.4910842040000001</v>
+        <f t="shared" si="13"/>
+        <v>1.4921000447770743</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="14"/>
+        <v>35</v>
       </c>
       <c r="P80">
-        <v>1.2158482100000001</v>
+        <f t="shared" si="15"/>
+        <v>1.2168017616246791</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
@@ -9711,37 +9481,47 @@
         <v>1990</v>
       </c>
       <c r="B81">
-        <v>70427</v>
+        <v>70583</v>
       </c>
       <c r="C81">
         <v>30</v>
       </c>
       <c r="D81">
-        <v>4.2597300000000001E-4</v>
+        <f t="shared" si="9"/>
+        <v>4.2503152317130188E-4</v>
       </c>
       <c r="E81">
-        <v>4.4804000000000003E-4</v>
+        <f t="shared" si="10"/>
+        <v>4.4715142324687479E-4</v>
       </c>
       <c r="G81">
         <v>1990</v>
       </c>
       <c r="H81">
-        <v>5430</v>
+        <v>5433</v>
       </c>
       <c r="I81">
         <v>5</v>
       </c>
       <c r="J81">
-        <v>9.2080999999999999E-4</v>
+        <f t="shared" si="11"/>
+        <v>9.2030185900975525E-4</v>
       </c>
       <c r="K81">
-        <v>6.5090000000000005E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.5026552508941154E-4</v>
       </c>
       <c r="M81">
-        <v>2.161663597</v>
+        <f t="shared" si="13"/>
+        <v>2.1652555371495184</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="14"/>
+        <v>34</v>
       </c>
       <c r="P81">
-        <v>1.452773334</v>
+        <f t="shared" si="15"/>
+        <v>1.4542400879945234</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
@@ -9749,37 +9529,47 @@
         <v>1991</v>
       </c>
       <c r="B82">
-        <v>68539</v>
+        <v>68696</v>
       </c>
       <c r="C82">
         <v>27</v>
       </c>
       <c r="D82">
-        <v>3.93936E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.9303598462792593E-4</v>
       </c>
       <c r="E82">
-        <v>4.38081E-4</v>
+        <f t="shared" si="10"/>
+        <v>4.3716648427892914E-4</v>
       </c>
       <c r="G82">
         <v>1991</v>
       </c>
       <c r="H82">
-        <v>5415</v>
+        <v>5421</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82">
-        <v>3.6934400000000002E-4</v>
+        <f t="shared" si="11"/>
+        <v>3.6893562073418186E-4</v>
       </c>
       <c r="K82">
-        <v>6.6132699999999997E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.6059894304169116E-4</v>
       </c>
       <c r="M82">
-        <v>0.93757395399999999</v>
+        <f t="shared" si="13"/>
+        <v>0.938681533405754</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="14"/>
+        <v>33</v>
       </c>
       <c r="P82">
-        <v>1.5096006200000001</v>
+        <f t="shared" si="15"/>
+        <v>1.5110923796715474</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
@@ -9787,37 +9577,47 @@
         <v>1992</v>
       </c>
       <c r="B83">
-        <v>63550</v>
+        <v>63710</v>
       </c>
       <c r="C83">
         <v>15</v>
       </c>
       <c r="D83">
-        <v>2.36035E-4</v>
+        <f t="shared" si="9"/>
+        <v>2.3544184586407157E-4</v>
       </c>
       <c r="E83">
-        <v>3.9138500000000001E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.905221715346943E-4</v>
       </c>
       <c r="G83">
         <v>1992</v>
       </c>
       <c r="H83">
-        <v>5432</v>
+        <v>5436</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83">
-        <v>1.8409399999999999E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.8395879323031641E-4</v>
       </c>
       <c r="K83">
-        <v>5.5650399999999998E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.5598799065940171E-4</v>
       </c>
       <c r="M83">
-        <v>0.77994599899999995</v>
+        <f t="shared" si="13"/>
+        <v>0.78133431444689727</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="14"/>
+        <v>32</v>
       </c>
       <c r="P83">
-        <v>1.421883373</v>
+        <f t="shared" si="15"/>
+        <v>1.4237040331780684</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
@@ -9825,37 +9625,47 @@
         <v>1993</v>
       </c>
       <c r="B84">
-        <v>63528</v>
+        <v>63696</v>
       </c>
       <c r="C84">
         <v>12</v>
       </c>
       <c r="D84">
-        <v>1.8889300000000001E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.8839487565938207E-4</v>
       </c>
       <c r="E84">
-        <v>3.5728399999999998E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.5643952557899147E-4</v>
       </c>
       <c r="G84">
         <v>1993</v>
       </c>
       <c r="H84">
-        <v>5347</v>
+        <v>5352</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84">
-        <v>3.7404199999999999E-4</v>
+        <f t="shared" si="11"/>
+        <v>3.7369207772795218E-4</v>
       </c>
       <c r="K84">
-        <v>5.21862E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.21357017837858E-4</v>
       </c>
       <c r="M84">
-        <v>1.9801758</v>
+        <f t="shared" si="13"/>
+        <v>1.9835575485799701</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="14"/>
+        <v>31</v>
       </c>
       <c r="P84">
-        <v>1.460636051</v>
+        <f t="shared" si="15"/>
+        <v>1.4626801474695565</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
@@ -9863,37 +9673,47 @@
         <v>1994</v>
       </c>
       <c r="B85">
-        <v>57124</v>
+        <v>57304</v>
       </c>
       <c r="C85">
         <v>19</v>
       </c>
       <c r="D85">
-        <v>3.3261E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.3156498673740051E-4</v>
       </c>
       <c r="E85">
-        <v>3.1871999999999998E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.1791202787748965E-4</v>
       </c>
       <c r="G85">
         <v>1994</v>
       </c>
       <c r="H85">
-        <v>4757</v>
+        <v>4760</v>
       </c>
       <c r="I85">
         <v>3</v>
       </c>
       <c r="J85">
-        <v>6.3064999999999996E-4</v>
+        <f t="shared" si="11"/>
+        <v>6.3025210084033617E-4</v>
       </c>
       <c r="K85">
-        <v>4.9277900000000005E-4</v>
+        <f t="shared" si="12"/>
+        <v>4.9238694038330425E-4</v>
       </c>
       <c r="M85">
-        <v>1.8960645249999999</v>
+        <f t="shared" si="13"/>
+        <v>1.9008403361344539</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="14"/>
+        <v>30</v>
       </c>
       <c r="P85">
-        <v>1.5461200930000001</v>
+        <f t="shared" si="15"/>
+        <v>1.5488150721150133</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
@@ -9901,37 +9721,47 @@
         <v>1995</v>
       </c>
       <c r="B86">
-        <v>52774</v>
+        <v>52989</v>
       </c>
       <c r="C86">
         <v>18</v>
       </c>
       <c r="D86">
-        <v>3.4107700000000001E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.3969314386004645E-4</v>
       </c>
       <c r="E86">
-        <v>2.9785800000000002E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.9700223567616965E-4</v>
       </c>
       <c r="G86">
         <v>1995</v>
       </c>
       <c r="H86">
-        <v>4199</v>
+        <v>4209</v>
       </c>
       <c r="I86">
         <v>3</v>
       </c>
       <c r="J86">
-        <v>7.1445600000000003E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.1275837491090524E-4</v>
       </c>
       <c r="K86">
-        <v>4.3737600000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>4.3688934784335529E-4</v>
       </c>
       <c r="M86">
-        <v>2.0947050890000001</v>
+        <f t="shared" si="13"/>
+        <v>2.0982418626752195</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="14"/>
+        <v>29</v>
       </c>
       <c r="P86">
-        <v>1.468404955</v>
+        <f t="shared" si="15"/>
+        <v>1.4709968322248883</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
@@ -9939,37 +9769,47 @@
         <v>1996</v>
       </c>
       <c r="B87">
-        <v>50170</v>
+        <v>50394</v>
       </c>
       <c r="C87">
         <v>16</v>
       </c>
       <c r="D87">
-        <v>3.1891599999999998E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.1749811485494304E-4</v>
       </c>
       <c r="E87">
-        <v>2.78604E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.7768810765967935E-4</v>
       </c>
       <c r="G87">
         <v>1996</v>
       </c>
       <c r="H87">
-        <v>4025</v>
+        <v>4036</v>
       </c>
       <c r="I87">
         <v>4</v>
       </c>
       <c r="J87">
-        <v>9.9378899999999991E-4</v>
+        <f t="shared" si="11"/>
+        <v>9.9108027750247768E-4</v>
       </c>
       <c r="K87">
-        <v>5.4713799999999996E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.4637918715588622E-4</v>
       </c>
       <c r="M87">
-        <v>3.1161490679999999</v>
+        <f t="shared" si="13"/>
+        <v>3.1215312190287414</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="14"/>
+        <v>28</v>
       </c>
       <c r="P87">
-        <v>1.963856271</v>
+        <f t="shared" si="15"/>
+        <v>1.9676002395662591</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
@@ -9977,37 +9817,47 @@
         <v>1997</v>
       </c>
       <c r="B88">
-        <v>51113</v>
+        <v>51357</v>
       </c>
       <c r="C88">
         <v>15</v>
       </c>
       <c r="D88">
-        <v>2.93467E-4</v>
+        <f t="shared" si="9"/>
+        <v>2.9207313511303231E-4</v>
       </c>
       <c r="E88">
-        <v>2.9121699999999997E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.9012838180895046E-4</v>
       </c>
       <c r="G88">
         <v>1997</v>
       </c>
       <c r="H88">
-        <v>3977</v>
+        <v>3985</v>
       </c>
       <c r="I88">
         <v>3</v>
       </c>
       <c r="J88">
-        <v>7.54337E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.5282308657465501E-4</v>
       </c>
       <c r="K88">
-        <v>6.7249499999999995E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.7138125503535945E-4</v>
       </c>
       <c r="M88">
-        <v>2.5704299719999999</v>
+        <f t="shared" si="13"/>
+        <v>2.5775156838143038</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="14"/>
+        <v>27</v>
       </c>
       <c r="P88">
-        <v>2.3092552120000001</v>
+        <f t="shared" si="15"/>
+        <v>2.3140833407931254</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
@@ -10015,37 +9865,47 @@
         <v>1998</v>
       </c>
       <c r="B89">
-        <v>51415</v>
+        <v>51697</v>
       </c>
       <c r="C89">
         <v>17</v>
       </c>
       <c r="D89">
-        <v>3.3064299999999999E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.2883919763235779E-4</v>
       </c>
       <c r="E89">
-        <v>3.2369099999999997E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.2228587894942389E-4</v>
       </c>
       <c r="G89">
         <v>1998</v>
       </c>
       <c r="H89">
-        <v>3820</v>
+        <v>3839</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89">
-        <v>5.2355999999999995E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.2096900234436052E-4</v>
       </c>
       <c r="K89">
-        <v>7.2191699999999998E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.2014979115656052E-4</v>
       </c>
       <c r="M89">
-        <v>1.583461657</v>
+        <f t="shared" si="13"/>
+        <v>1.5842667361292002</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="14"/>
+        <v>26</v>
       </c>
       <c r="P89">
-        <v>2.2302661750000001</v>
+        <f t="shared" si="15"/>
+        <v>2.2345061890520284</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
@@ -10053,37 +9913,47 @@
         <v>1999</v>
       </c>
       <c r="B90">
-        <v>51303</v>
+        <v>51569</v>
       </c>
       <c r="C90">
         <v>21</v>
       </c>
       <c r="D90">
-        <v>4.0933300000000001E-4</v>
+        <f t="shared" si="9"/>
+        <v>4.0722139269716302E-4</v>
       </c>
       <c r="E90">
-        <v>3.3881800000000001E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.3720146043115276E-4</v>
       </c>
       <c r="G90">
         <v>1999</v>
       </c>
       <c r="H90">
-        <v>3801</v>
+        <v>3818</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90">
-        <v>5.2617699999999996E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.2383446830801469E-4</v>
       </c>
       <c r="K90">
-        <v>7.0628599999999998E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.0397747272087292E-4</v>
       </c>
       <c r="M90">
-        <v>1.285451197</v>
+        <f t="shared" si="13"/>
+        <v>1.2863628426750482</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="14"/>
+        <v>25</v>
       </c>
       <c r="P90">
-        <v>2.0845583159999999</v>
+        <f t="shared" si="15"/>
+        <v>2.0877058830669144</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
@@ -10091,37 +9961,47 @@
         <v>2000</v>
       </c>
       <c r="B91">
-        <v>53216</v>
+        <v>53614</v>
       </c>
       <c r="C91">
         <v>19</v>
       </c>
       <c r="D91">
-        <v>3.5703500000000001E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.543850486813146E-4</v>
       </c>
       <c r="E91">
-        <v>3.4212400000000002E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.4025310190967053E-4</v>
       </c>
       <c r="G91">
         <v>2000</v>
       </c>
       <c r="H91">
-        <v>3898</v>
+        <v>3947</v>
       </c>
       <c r="I91">
         <v>4</v>
       </c>
       <c r="J91">
-        <v>1.0261669999999999E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0134279199391944E-3</v>
       </c>
       <c r="K91">
-        <v>7.6840299999999997E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.6433121019108278E-4</v>
       </c>
       <c r="M91">
-        <v>2.874132484</v>
+        <f t="shared" si="13"/>
+        <v>2.8596802368221033</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="P91">
-        <v>2.2459815999999999</v>
+        <f t="shared" si="15"/>
+        <v>2.2463607411696582</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
@@ -10129,37 +10009,47 @@
         <v>2001</v>
       </c>
       <c r="B92">
-        <v>54213</v>
+        <v>54646</v>
       </c>
       <c r="C92">
         <v>22</v>
       </c>
       <c r="D92">
-        <v>4.05807E-4</v>
+        <f t="shared" si="9"/>
+        <v>4.0259122351132744E-4</v>
       </c>
       <c r="E92">
-        <v>3.5979499999999999E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.5757352130035035E-4</v>
       </c>
       <c r="G92">
         <v>2001</v>
       </c>
       <c r="H92">
-        <v>3543</v>
+        <v>3595</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>2.8224700000000001E-4</v>
+        <f t="shared" si="11"/>
+        <v>2.7816411682892909E-4</v>
       </c>
       <c r="K92">
-        <v>6.3028499999999996E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.2552126772310256E-4</v>
       </c>
       <c r="M92">
-        <v>0.69551997499999996</v>
+        <f t="shared" si="13"/>
+        <v>0.69093437855607542</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="14"/>
+        <v>23</v>
       </c>
       <c r="P92">
-        <v>1.7517905579999999</v>
+        <f t="shared" si="15"/>
+        <v>1.7493500789665146</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
@@ -10167,37 +10057,47 @@
         <v>2002</v>
       </c>
       <c r="B93">
-        <v>56004</v>
+        <v>56284</v>
       </c>
       <c r="C93">
         <v>16</v>
       </c>
       <c r="D93">
-        <v>2.8569400000000002E-4</v>
+        <f t="shared" si="9"/>
+        <v>2.8427261744012509E-4</v>
       </c>
       <c r="E93">
-        <v>3.5693999999999998E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.5472909898808858E-4</v>
       </c>
       <c r="G93">
         <v>2002</v>
       </c>
       <c r="H93">
-        <v>3160</v>
+        <v>3182</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93">
-        <v>3.1645600000000001E-4</v>
+        <f t="shared" si="11"/>
+        <v>3.1426775612822125E-4</v>
       </c>
       <c r="K93">
-        <v>5.4878700000000002E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.4404004134704317E-4</v>
       </c>
       <c r="M93">
-        <v>1.107674051</v>
+        <f t="shared" si="13"/>
+        <v>1.1055153991200504</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="P93">
-        <v>1.537476388</v>
+        <f t="shared" si="15"/>
+        <v>1.5336775102437012</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
@@ -10205,28 +10105,35 @@
         <v>2003</v>
       </c>
       <c r="B94">
-        <v>57968</v>
+        <v>58283</v>
       </c>
       <c r="C94">
         <v>20</v>
       </c>
       <c r="D94">
-        <v>3.45018E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.4315323507712369E-4</v>
       </c>
       <c r="E94">
-        <v>3.5936399999999998E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.5714806338284813E-4</v>
       </c>
       <c r="G94">
         <v>2003</v>
       </c>
       <c r="H94">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="12"/>
+        <v>4.8297512678097078E-4</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
@@ -10234,16 +10141,18 @@
         <v>2004</v>
       </c>
       <c r="B95">
-        <v>59035</v>
+        <v>59178</v>
       </c>
       <c r="C95">
         <v>9</v>
       </c>
       <c r="D95">
-        <v>1.52452E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.5208354456047857E-4</v>
       </c>
       <c r="E95">
-        <v>3.0666500000000002E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.0495913193028494E-4</v>
       </c>
       <c r="G95">
         <v>2004</v>
@@ -10255,7 +10164,12 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="12"/>
+        <v>4.2495927473617113E-4</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
@@ -10263,28 +10177,35 @@
         <v>2005</v>
       </c>
       <c r="B96">
-        <v>57690</v>
+        <v>57712</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
       <c r="D96">
-        <v>1.7333999999999999E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.7327418907679511E-4</v>
       </c>
       <c r="E96">
-        <v>2.7026099999999999E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.6913384340604608E-4</v>
       </c>
       <c r="G96">
         <v>2005</v>
       </c>
       <c r="H96">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="12"/>
+        <v>1.7508535411012868E-4</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
@@ -10292,16 +10213,18 @@
         <v>2006</v>
       </c>
       <c r="B97">
-        <v>52666</v>
+        <v>52688</v>
       </c>
       <c r="C97">
         <v>10</v>
       </c>
       <c r="D97">
-        <v>1.8987600000000001E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.8979653811114486E-4</v>
       </c>
       <c r="E97">
-        <v>2.2938799999999999E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.2875644477291524E-4</v>
       </c>
       <c r="G97">
         <v>2006</v>
@@ -10313,7 +10236,12 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="12"/>
+        <v>1.1321181931393638E-4</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
@@ -10321,16 +10249,18 @@
         <v>2007</v>
       </c>
       <c r="B98">
-        <v>48582</v>
+        <v>48595</v>
       </c>
       <c r="C98">
         <v>5</v>
       </c>
       <c r="D98">
-        <v>1.0291899999999999E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.0289124395513942E-4</v>
       </c>
       <c r="E98">
-        <v>1.95694E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.9532945568191684E-4</v>
       </c>
       <c r="G98">
         <v>2007</v>
@@ -10342,6 +10272,11 @@
         <v>0</v>
       </c>
       <c r="J98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10350,16 +10285,18 @@
         <v>2008</v>
       </c>
       <c r="B99">
-        <v>45162</v>
+        <v>45171</v>
       </c>
       <c r="C99">
         <v>7</v>
       </c>
       <c r="D99">
-        <v>1.54998E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.5496668216333489E-4</v>
       </c>
       <c r="E99">
-        <v>1.55814E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.556898961054742E-4</v>
       </c>
       <c r="G99">
         <v>2008</v>
@@ -10371,6 +10308,11 @@
         <v>0</v>
       </c>
       <c r="J99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10379,12 +10321,9 @@
         <v>2009</v>
       </c>
       <c r="B100">
-        <v>33243</v>
+        <v>33250</v>
       </c>
       <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
         <v>0</v>
       </c>
       <c r="G100">
@@ -10397,6 +10336,11 @@
         <v>0</v>
       </c>
       <c r="J100">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10410,9 +10354,6 @@
       <c r="C101">
         <v>0</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
@@ -10424,9 +10365,6 @@
       <c r="C102">
         <v>0</v>
       </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
@@ -10438,9 +10376,6 @@
       <c r="C103">
         <v>0</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
@@ -10452,9 +10387,6 @@
       <c r="C104">
         <v>0</v>
       </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
@@ -10466,9 +10398,6 @@
       <c r="C105">
         <v>0</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
@@ -10480,9 +10409,6 @@
       <c r="C106">
         <v>0</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
@@ -10494,52 +10420,51 @@
       <c r="C107">
         <v>0</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108" s="1">
-        <v>5313824</v>
+        <f t="shared" ref="B108:I108" si="16">SUM(B3:B107)</f>
+        <v>5319895</v>
       </c>
       <c r="C108" s="1">
+        <f t="shared" si="16"/>
         <v>49859</v>
       </c>
       <c r="D108" s="1">
-        <v>9.3828850000000005E-3</v>
+        <f t="shared" ref="D108" si="17">C108/B108</f>
+        <v>9.3721774583896862E-3</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1">
-        <v>496643</v>
+        <f t="shared" si="16"/>
+        <v>496965</v>
       </c>
       <c r="I108" s="1">
+        <f t="shared" si="16"/>
         <v>9498</v>
       </c>
       <c r="J108" s="1">
-        <v>1.9124400999999999E-2</v>
-      </c>
-      <c r="K108" s="1"/>
+        <f t="shared" ref="J108" si="18">I108/H108</f>
+        <v>1.9112009900093568E-2</v>
+      </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
-        <v>2.0382218299999999</v>
+        <f t="shared" ref="M108" si="19">J108/D108</f>
+        <v>2.0392283420738138</v>
       </c>
       <c r="O108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O110" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10548,7 +10473,7 @@
   <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:P95"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10572,10 +10497,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -10587,16 +10512,16 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
         <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -11319,7 +11244,7 @@
         <v>1.102464784735701</v>
       </c>
       <c r="R21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
@@ -11454,7 +11379,7 @@
         <v>1.1403019468164268</v>
       </c>
       <c r="R24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -11551,7 +11476,7 @@
         <v>1.1725311454428144</v>
       </c>
       <c r="R26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T26">
         <v>420903</v>
@@ -11604,7 +11529,7 @@
         <v>1.2217581851885659</v>
       </c>
       <c r="R27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T27">
         <v>4808</v>
@@ -11745,7 +11670,7 @@
         <v>1.2188279385151786</v>
       </c>
       <c r="R30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -11792,7 +11717,7 @@
         <v>1.2336970735326298</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
@@ -11839,7 +11764,7 @@
         <v>1.2410842477148805</v>
       </c>
       <c r="R32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -11886,7 +11811,7 @@
         <v>1.2289142744007555</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -11933,7 +11858,7 @@
         <v>1.2306012228595</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -11980,7 +11905,7 @@
         <v>1.2241879410272636</v>
       </c>
       <c r="R35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -12071,7 +11996,7 @@
         <v>1.1821582339904428</v>
       </c>
       <c r="R37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -12118,7 +12043,7 @@
         <v>1.2025678377719324</v>
       </c>
       <c r="R38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -12209,7 +12134,7 @@
         <v>1.2167889483844623</v>
       </c>
       <c r="R40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -12300,7 +12225,7 @@
         <v>1.2679215699643558</v>
       </c>
       <c r="R42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -12391,7 +12316,7 @@
         <v>1.3863422015268756</v>
       </c>
       <c r="R44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
@@ -12482,7 +12407,7 @@
         <v>1.4962904174853404</v>
       </c>
       <c r="R46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -12573,7 +12498,7 @@
         <v>1.5070482554822255</v>
       </c>
       <c r="R48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -12664,7 +12589,7 @@
         <v>1.5505078767662857</v>
       </c>
       <c r="R50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -12755,7 +12680,7 @@
         <v>1.53260119166885</v>
       </c>
       <c r="R52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
@@ -12846,7 +12771,7 @@
         <v>1.5302517101426343</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
@@ -12937,7 +12862,7 @@
         <v>1.5318709540376927</v>
       </c>
       <c r="R56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -15003,7 +14928,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108" s="1">
         <f>SUM(B3:B107)</f>
@@ -15037,17 +14962,17 @@
         <v>2.2534916329536414</v>
       </c>
       <c r="O108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O110" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B111">
         <f>SUM(B3:B61)</f>
@@ -15080,7 +15005,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B112">
         <f>SUM(B62:B107)</f>
@@ -15168,40 +15093,40 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -20071,40 +19996,40 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -24592,7 +24517,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -24735,7 +24660,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -24766,40 +24691,40 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -24896,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -24946,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -29771,40 +29696,40 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -29901,7 +29826,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -29951,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
